--- a/test-artifacts/url-reports/validated-urls.xlsx
+++ b/test-artifacts/url-reports/validated-urls.xlsx
@@ -397,7 +397,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:I6"/>
+  <dimension ref="A1:I76"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -451,113 +451,1939 @@
         <v>1</v>
       </c>
       <c r="G2" t="str">
-        <v>failed</v>
+        <v>ok</v>
       </c>
       <c r="H2">
-        <v>403</v>
+        <v>200</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="str">
-        <v>TAB-2</v>
+        <v>TAB-1</v>
       </c>
       <c r="B3" t="str">
-        <v>https://palegoldenrod-ant-677872.hostingersite.com/basic_page/105-description/</v>
+        <v>https://palegoldenrod-ant-677872.hostingersite.com/basic_page/applied-biosystems-model-7000-real-time-thermalcycler/</v>
       </c>
       <c r="C3" t="str">
-        <v>https://palegoldenrod-ant-677872.hostingersite.com/chemstockroom/105-description/</v>
+        <v>https://palegoldenrod-ant-677872.hostingersite.com/chemistry/applied-biosystems-model-7000-real-time-thermalcycler/</v>
       </c>
       <c r="D3" t="b">
         <v>1</v>
       </c>
       <c r="E3" t="str">
-        <v>https://palegoldenrod-ant-677872.hostingersite.com/chemstockroom/105-description/</v>
+        <v>https://palegoldenrod-ant-677872.hostingersite.com/wp-admin/about.php</v>
       </c>
       <c r="F3" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G3" t="str">
-        <v>failed</v>
+        <v>ok</v>
       </c>
       <c r="H3">
-        <v>403</v>
+        <v>200</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="str">
-        <v>TAB-3</v>
+        <v>TAB-1</v>
       </c>
       <c r="B4" t="str">
-        <v>https://palegoldenrod-ant-677872.hostingersite.com/basic_page/119-description/</v>
+        <v>https://palegoldenrod-ant-677872.hostingersite.com/basic_page/applied-biosystems-model-7000-real-time-thermalcycler/</v>
       </c>
       <c r="C4" t="str">
-        <v>https://palegoldenrod-ant-677872.hostingersite.com/chemstockroom/119-description/</v>
+        <v>https://palegoldenrod-ant-677872.hostingersite.com/chemistry/applied-biosystems-model-7000-real-time-thermalcycler/</v>
       </c>
       <c r="D4" t="b">
         <v>1</v>
       </c>
       <c r="E4" t="str">
-        <v>https://palegoldenrod-ant-677872.hostingersite.com/chemstockroom/119-description/</v>
+        <v>https://palegoldenrod-ant-677872.hostingersite.com/wp-admin/contribute.php</v>
       </c>
       <c r="F4" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G4" t="str">
+        <v>ok</v>
+      </c>
+      <c r="H4">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="str">
+        <v>TAB-1</v>
+      </c>
+      <c r="B5" t="str">
+        <v>https://palegoldenrod-ant-677872.hostingersite.com/basic_page/applied-biosystems-model-7000-real-time-thermalcycler/</v>
+      </c>
+      <c r="C5" t="str">
+        <v>https://palegoldenrod-ant-677872.hostingersite.com/chemistry/applied-biosystems-model-7000-real-time-thermalcycler/</v>
+      </c>
+      <c r="D5" t="b">
+        <v>1</v>
+      </c>
+      <c r="E5" t="str">
+        <v>https://wordpress.org/</v>
+      </c>
+      <c r="F5" t="b">
+        <v>0</v>
+      </c>
+      <c r="G5" t="str">
+        <v>ok</v>
+      </c>
+      <c r="H5">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="str">
+        <v>TAB-1</v>
+      </c>
+      <c r="B6" t="str">
+        <v>https://palegoldenrod-ant-677872.hostingersite.com/basic_page/applied-biosystems-model-7000-real-time-thermalcycler/</v>
+      </c>
+      <c r="C6" t="str">
+        <v>https://palegoldenrod-ant-677872.hostingersite.com/chemistry/applied-biosystems-model-7000-real-time-thermalcycler/</v>
+      </c>
+      <c r="D6" t="b">
+        <v>1</v>
+      </c>
+      <c r="E6" t="str">
+        <v>https://wordpress.org/documentation/</v>
+      </c>
+      <c r="F6" t="b">
+        <v>0</v>
+      </c>
+      <c r="G6" t="str">
+        <v>ok</v>
+      </c>
+      <c r="H6">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="str">
+        <v>TAB-1</v>
+      </c>
+      <c r="B7" t="str">
+        <v>https://palegoldenrod-ant-677872.hostingersite.com/basic_page/applied-biosystems-model-7000-real-time-thermalcycler/</v>
+      </c>
+      <c r="C7" t="str">
+        <v>https://palegoldenrod-ant-677872.hostingersite.com/chemistry/applied-biosystems-model-7000-real-time-thermalcycler/</v>
+      </c>
+      <c r="D7" t="b">
+        <v>1</v>
+      </c>
+      <c r="E7" t="str">
+        <v>https://learn.wordpress.org/</v>
+      </c>
+      <c r="F7" t="b">
+        <v>0</v>
+      </c>
+      <c r="G7" t="str">
+        <v>ok</v>
+      </c>
+      <c r="H7">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="str">
+        <v>TAB-1</v>
+      </c>
+      <c r="B8" t="str">
+        <v>https://palegoldenrod-ant-677872.hostingersite.com/basic_page/applied-biosystems-model-7000-real-time-thermalcycler/</v>
+      </c>
+      <c r="C8" t="str">
+        <v>https://palegoldenrod-ant-677872.hostingersite.com/chemistry/applied-biosystems-model-7000-real-time-thermalcycler/</v>
+      </c>
+      <c r="D8" t="b">
+        <v>1</v>
+      </c>
+      <c r="E8" t="str">
+        <v>https://wordpress.org/support/forums/</v>
+      </c>
+      <c r="F8" t="b">
+        <v>0</v>
+      </c>
+      <c r="G8" t="str">
+        <v>ok</v>
+      </c>
+      <c r="H8">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="str">
+        <v>TAB-1</v>
+      </c>
+      <c r="B9" t="str">
+        <v>https://palegoldenrod-ant-677872.hostingersite.com/basic_page/applied-biosystems-model-7000-real-time-thermalcycler/</v>
+      </c>
+      <c r="C9" t="str">
+        <v>https://palegoldenrod-ant-677872.hostingersite.com/chemistry/applied-biosystems-model-7000-real-time-thermalcycler/</v>
+      </c>
+      <c r="D9" t="b">
+        <v>1</v>
+      </c>
+      <c r="E9" t="str">
+        <v>https://wordpress.org/support/forum/requests-and-feedback</v>
+      </c>
+      <c r="F9" t="b">
+        <v>0</v>
+      </c>
+      <c r="G9" t="str">
+        <v>ok</v>
+      </c>
+      <c r="H9">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="str">
+        <v>TAB-1</v>
+      </c>
+      <c r="B10" t="str">
+        <v>https://palegoldenrod-ant-677872.hostingersite.com/basic_page/applied-biosystems-model-7000-real-time-thermalcycler/</v>
+      </c>
+      <c r="C10" t="str">
+        <v>https://palegoldenrod-ant-677872.hostingersite.com/chemistry/applied-biosystems-model-7000-real-time-thermalcycler/</v>
+      </c>
+      <c r="D10" t="b">
+        <v>1</v>
+      </c>
+      <c r="E10" t="str">
+        <v>https://palegoldenrod-ant-677872.hostingersite.com/wp-admin/</v>
+      </c>
+      <c r="F10" t="b">
+        <v>0</v>
+      </c>
+      <c r="G10" t="str">
+        <v>ok</v>
+      </c>
+      <c r="H10">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="str">
+        <v>TAB-1</v>
+      </c>
+      <c r="B11" t="str">
+        <v>https://palegoldenrod-ant-677872.hostingersite.com/basic_page/applied-biosystems-model-7000-real-time-thermalcycler/</v>
+      </c>
+      <c r="C11" t="str">
+        <v>https://palegoldenrod-ant-677872.hostingersite.com/chemistry/applied-biosystems-model-7000-real-time-thermalcycler/</v>
+      </c>
+      <c r="D11" t="b">
+        <v>1</v>
+      </c>
+      <c r="E11" t="str">
+        <v>https://palegoldenrod-ant-677872.hostingersite.com/wp-admin/plugins.php</v>
+      </c>
+      <c r="F11" t="b">
+        <v>0</v>
+      </c>
+      <c r="G11" t="str">
+        <v>ok</v>
+      </c>
+      <c r="H11">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="str">
+        <v>TAB-1</v>
+      </c>
+      <c r="B12" t="str">
+        <v>https://palegoldenrod-ant-677872.hostingersite.com/basic_page/applied-biosystems-model-7000-real-time-thermalcycler/</v>
+      </c>
+      <c r="C12" t="str">
+        <v>https://palegoldenrod-ant-677872.hostingersite.com/chemistry/applied-biosystems-model-7000-real-time-thermalcycler/</v>
+      </c>
+      <c r="D12" t="b">
+        <v>1</v>
+      </c>
+      <c r="E12" t="str">
+        <v>https://palegoldenrod-ant-677872.hostingersite.com/wp-admin/admin.php?page=simple_history_admin_menu_page</v>
+      </c>
+      <c r="F12" t="b">
+        <v>0</v>
+      </c>
+      <c r="G12" t="str">
+        <v>ok</v>
+      </c>
+      <c r="H12">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="str">
+        <v>TAB-1</v>
+      </c>
+      <c r="B13" t="str">
+        <v>https://palegoldenrod-ant-677872.hostingersite.com/basic_page/applied-biosystems-model-7000-real-time-thermalcycler/</v>
+      </c>
+      <c r="C13" t="str">
+        <v>https://palegoldenrod-ant-677872.hostingersite.com/chemistry/applied-biosystems-model-7000-real-time-thermalcycler/</v>
+      </c>
+      <c r="D13" t="b">
+        <v>1</v>
+      </c>
+      <c r="E13" t="str">
+        <v>https://palegoldenrod-ant-677872.hostingersite.com/wp-admin/themes.php</v>
+      </c>
+      <c r="F13" t="b">
+        <v>0</v>
+      </c>
+      <c r="G13" t="str">
+        <v>ok</v>
+      </c>
+      <c r="H13">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="str">
+        <v>TAB-1</v>
+      </c>
+      <c r="B14" t="str">
+        <v>https://palegoldenrod-ant-677872.hostingersite.com/basic_page/applied-biosystems-model-7000-real-time-thermalcycler/</v>
+      </c>
+      <c r="C14" t="str">
+        <v>https://palegoldenrod-ant-677872.hostingersite.com/chemistry/applied-biosystems-model-7000-real-time-thermalcycler/</v>
+      </c>
+      <c r="D14" t="b">
+        <v>1</v>
+      </c>
+      <c r="E14" t="str">
+        <v>https://palegoldenrod-ant-677872.hostingersite.com/wp-admin/widgets.php</v>
+      </c>
+      <c r="F14" t="b">
+        <v>0</v>
+      </c>
+      <c r="G14" t="str">
+        <v>ok</v>
+      </c>
+      <c r="H14">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="str">
+        <v>TAB-1</v>
+      </c>
+      <c r="B15" t="str">
+        <v>https://palegoldenrod-ant-677872.hostingersite.com/basic_page/applied-biosystems-model-7000-real-time-thermalcycler/</v>
+      </c>
+      <c r="C15" t="str">
+        <v>https://palegoldenrod-ant-677872.hostingersite.com/chemistry/applied-biosystems-model-7000-real-time-thermalcycler/</v>
+      </c>
+      <c r="D15" t="b">
+        <v>1</v>
+      </c>
+      <c r="E15" t="str">
+        <v>https://palegoldenrod-ant-677872.hostingersite.com/wp-admin/nav-menus.php</v>
+      </c>
+      <c r="F15" t="b">
+        <v>0</v>
+      </c>
+      <c r="G15" t="str">
+        <v>ok</v>
+      </c>
+      <c r="H15">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="str">
+        <v>TAB-1</v>
+      </c>
+      <c r="B16" t="str">
+        <v>https://palegoldenrod-ant-677872.hostingersite.com/basic_page/applied-biosystems-model-7000-real-time-thermalcycler/</v>
+      </c>
+      <c r="C16" t="str">
+        <v>https://palegoldenrod-ant-677872.hostingersite.com/chemistry/applied-biosystems-model-7000-real-time-thermalcycler/</v>
+      </c>
+      <c r="D16" t="b">
+        <v>1</v>
+      </c>
+      <c r="E16" t="str">
+        <v>https://palegoldenrod-ant-677872.hostingersite.com/wp-admin/customize.php?url=https://palegoldenrod-ant-677872.hostingersite.com/chemistry/applied-biosystems-model-7000-real-time-thermalcycler/</v>
+      </c>
+      <c r="F16" t="b">
+        <v>0</v>
+      </c>
+      <c r="G16" t="str">
+        <v>ok</v>
+      </c>
+      <c r="H16">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="str">
+        <v>TAB-1</v>
+      </c>
+      <c r="B17" t="str">
+        <v>https://palegoldenrod-ant-677872.hostingersite.com/basic_page/applied-biosystems-model-7000-real-time-thermalcycler/</v>
+      </c>
+      <c r="C17" t="str">
+        <v>https://palegoldenrod-ant-677872.hostingersite.com/chemistry/applied-biosystems-model-7000-real-time-thermalcycler/</v>
+      </c>
+      <c r="D17" t="b">
+        <v>1</v>
+      </c>
+      <c r="E17" t="str">
+        <v>https://palegoldenrod-ant-677872.hostingersite.com/wp-admin/update-core.php</v>
+      </c>
+      <c r="F17" t="b">
+        <v>0</v>
+      </c>
+      <c r="G17" t="str">
+        <v>ok</v>
+      </c>
+      <c r="H17">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="str">
+        <v>TAB-1</v>
+      </c>
+      <c r="B18" t="str">
+        <v>https://palegoldenrod-ant-677872.hostingersite.com/basic_page/applied-biosystems-model-7000-real-time-thermalcycler/</v>
+      </c>
+      <c r="C18" t="str">
+        <v>https://palegoldenrod-ant-677872.hostingersite.com/chemistry/applied-biosystems-model-7000-real-time-thermalcycler/</v>
+      </c>
+      <c r="D18" t="b">
+        <v>1</v>
+      </c>
+      <c r="E18" t="str">
+        <v>https://palegoldenrod-ant-677872.hostingersite.com/wp-admin/edit-comments.php</v>
+      </c>
+      <c r="F18" t="b">
+        <v>0</v>
+      </c>
+      <c r="G18" t="str">
+        <v>ok</v>
+      </c>
+      <c r="H18">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="str">
+        <v>TAB-1</v>
+      </c>
+      <c r="B19" t="str">
+        <v>https://palegoldenrod-ant-677872.hostingersite.com/basic_page/applied-biosystems-model-7000-real-time-thermalcycler/</v>
+      </c>
+      <c r="C19" t="str">
+        <v>https://palegoldenrod-ant-677872.hostingersite.com/chemistry/applied-biosystems-model-7000-real-time-thermalcycler/</v>
+      </c>
+      <c r="D19" t="b">
+        <v>1</v>
+      </c>
+      <c r="E19" t="str">
+        <v>https://palegoldenrod-ant-677872.hostingersite.com/wp-admin/post-new.php</v>
+      </c>
+      <c r="F19" t="b">
+        <v>0</v>
+      </c>
+      <c r="G19" t="str">
+        <v>ok</v>
+      </c>
+      <c r="H19">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="str">
+        <v>TAB-1</v>
+      </c>
+      <c r="B20" t="str">
+        <v>https://palegoldenrod-ant-677872.hostingersite.com/basic_page/applied-biosystems-model-7000-real-time-thermalcycler/</v>
+      </c>
+      <c r="C20" t="str">
+        <v>https://palegoldenrod-ant-677872.hostingersite.com/chemistry/applied-biosystems-model-7000-real-time-thermalcycler/</v>
+      </c>
+      <c r="D20" t="b">
+        <v>1</v>
+      </c>
+      <c r="E20" t="str">
+        <v>https://palegoldenrod-ant-677872.hostingersite.com/wp-admin/media-new.php</v>
+      </c>
+      <c r="F20" t="b">
+        <v>0</v>
+      </c>
+      <c r="G20" t="str">
+        <v>ok</v>
+      </c>
+      <c r="H20">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="str">
+        <v>TAB-1</v>
+      </c>
+      <c r="B21" t="str">
+        <v>https://palegoldenrod-ant-677872.hostingersite.com/basic_page/applied-biosystems-model-7000-real-time-thermalcycler/</v>
+      </c>
+      <c r="C21" t="str">
+        <v>https://palegoldenrod-ant-677872.hostingersite.com/chemistry/applied-biosystems-model-7000-real-time-thermalcycler/</v>
+      </c>
+      <c r="D21" t="b">
+        <v>1</v>
+      </c>
+      <c r="E21" t="str">
+        <v>https://palegoldenrod-ant-677872.hostingersite.com/wp-admin/post-new.php?post_type=page</v>
+      </c>
+      <c r="F21" t="b">
+        <v>0</v>
+      </c>
+      <c r="G21" t="str">
+        <v>ok</v>
+      </c>
+      <c r="H21">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="str">
+        <v>TAB-1</v>
+      </c>
+      <c r="B22" t="str">
+        <v>https://palegoldenrod-ant-677872.hostingersite.com/basic_page/applied-biosystems-model-7000-real-time-thermalcycler/</v>
+      </c>
+      <c r="C22" t="str">
+        <v>https://palegoldenrod-ant-677872.hostingersite.com/chemistry/applied-biosystems-model-7000-real-time-thermalcycler/</v>
+      </c>
+      <c r="D22" t="b">
+        <v>1</v>
+      </c>
+      <c r="E22" t="str">
+        <v>https://palegoldenrod-ant-677872.hostingersite.com/wp-admin/post-new.php?post_type=program_page</v>
+      </c>
+      <c r="F22" t="b">
+        <v>0</v>
+      </c>
+      <c r="G22" t="str">
+        <v>ok</v>
+      </c>
+      <c r="H22">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="str">
+        <v>TAB-1</v>
+      </c>
+      <c r="B23" t="str">
+        <v>https://palegoldenrod-ant-677872.hostingersite.com/basic_page/applied-biosystems-model-7000-real-time-thermalcycler/</v>
+      </c>
+      <c r="C23" t="str">
+        <v>https://palegoldenrod-ant-677872.hostingersite.com/chemistry/applied-biosystems-model-7000-real-time-thermalcycler/</v>
+      </c>
+      <c r="D23" t="b">
+        <v>1</v>
+      </c>
+      <c r="E23" t="str">
+        <v>https://palegoldenrod-ant-677872.hostingersite.com/wp-admin/post-new.php?post_type=announcement</v>
+      </c>
+      <c r="F23" t="b">
+        <v>0</v>
+      </c>
+      <c r="G23" t="str">
+        <v>ok</v>
+      </c>
+      <c r="H23">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="str">
+        <v>TAB-1</v>
+      </c>
+      <c r="B24" t="str">
+        <v>https://palegoldenrod-ant-677872.hostingersite.com/basic_page/applied-biosystems-model-7000-real-time-thermalcycler/</v>
+      </c>
+      <c r="C24" t="str">
+        <v>https://palegoldenrod-ant-677872.hostingersite.com/chemistry/applied-biosystems-model-7000-real-time-thermalcycler/</v>
+      </c>
+      <c r="D24" t="b">
+        <v>1</v>
+      </c>
+      <c r="E24" t="str">
+        <v>https://palegoldenrod-ant-677872.hostingersite.com/wp-admin/post-new.php?post_type=personal_page</v>
+      </c>
+      <c r="F24" t="b">
+        <v>0</v>
+      </c>
+      <c r="G24" t="str">
+        <v>ok</v>
+      </c>
+      <c r="H24">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="str">
+        <v>TAB-1</v>
+      </c>
+      <c r="B25" t="str">
+        <v>https://palegoldenrod-ant-677872.hostingersite.com/basic_page/applied-biosystems-model-7000-real-time-thermalcycler/</v>
+      </c>
+      <c r="C25" t="str">
+        <v>https://palegoldenrod-ant-677872.hostingersite.com/chemistry/applied-biosystems-model-7000-real-time-thermalcycler/</v>
+      </c>
+      <c r="D25" t="b">
+        <v>1</v>
+      </c>
+      <c r="E25" t="str">
+        <v>https://palegoldenrod-ant-677872.hostingersite.com/wp-admin/post-new.php?post_type=research_briefs</v>
+      </c>
+      <c r="F25" t="b">
+        <v>0</v>
+      </c>
+      <c r="G25" t="str">
+        <v>ok</v>
+      </c>
+      <c r="H25">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="str">
+        <v>TAB-1</v>
+      </c>
+      <c r="B26" t="str">
+        <v>https://palegoldenrod-ant-677872.hostingersite.com/basic_page/applied-biosystems-model-7000-real-time-thermalcycler/</v>
+      </c>
+      <c r="C26" t="str">
+        <v>https://palegoldenrod-ant-677872.hostingersite.com/chemistry/applied-biosystems-model-7000-real-time-thermalcycler/</v>
+      </c>
+      <c r="D26" t="b">
+        <v>1</v>
+      </c>
+      <c r="E26" t="str">
+        <v>https://palegoldenrod-ant-677872.hostingersite.com/wp-admin/post-new.php?post_type=article</v>
+      </c>
+      <c r="F26" t="b">
+        <v>0</v>
+      </c>
+      <c r="G26" t="str">
+        <v>ok</v>
+      </c>
+      <c r="H26">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="str">
+        <v>TAB-1</v>
+      </c>
+      <c r="B27" t="str">
+        <v>https://palegoldenrod-ant-677872.hostingersite.com/basic_page/applied-biosystems-model-7000-real-time-thermalcycler/</v>
+      </c>
+      <c r="C27" t="str">
+        <v>https://palegoldenrod-ant-677872.hostingersite.com/chemistry/applied-biosystems-model-7000-real-time-thermalcycler/</v>
+      </c>
+      <c r="D27" t="b">
+        <v>1</v>
+      </c>
+      <c r="E27" t="str">
+        <v>https://palegoldenrod-ant-677872.hostingersite.com/wp-admin/post-new.php?post_type=academic_program</v>
+      </c>
+      <c r="F27" t="b">
+        <v>0</v>
+      </c>
+      <c r="G27" t="str">
+        <v>ok</v>
+      </c>
+      <c r="H27">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="str">
+        <v>TAB-1</v>
+      </c>
+      <c r="B28" t="str">
+        <v>https://palegoldenrod-ant-677872.hostingersite.com/basic_page/applied-biosystems-model-7000-real-time-thermalcycler/</v>
+      </c>
+      <c r="C28" t="str">
+        <v>https://palegoldenrod-ant-677872.hostingersite.com/chemistry/applied-biosystems-model-7000-real-time-thermalcycler/</v>
+      </c>
+      <c r="D28" t="b">
+        <v>1</v>
+      </c>
+      <c r="E28" t="str">
+        <v>https://palegoldenrod-ant-677872.hostingersite.com/wp-admin/post-new.php?post_type=faculty</v>
+      </c>
+      <c r="F28" t="b">
+        <v>0</v>
+      </c>
+      <c r="G28" t="str">
+        <v>ok</v>
+      </c>
+      <c r="H28">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="str">
+        <v>TAB-1</v>
+      </c>
+      <c r="B29" t="str">
+        <v>https://palegoldenrod-ant-677872.hostingersite.com/basic_page/applied-biosystems-model-7000-real-time-thermalcycler/</v>
+      </c>
+      <c r="C29" t="str">
+        <v>https://palegoldenrod-ant-677872.hostingersite.com/chemistry/applied-biosystems-model-7000-real-time-thermalcycler/</v>
+      </c>
+      <c r="D29" t="b">
+        <v>1</v>
+      </c>
+      <c r="E29" t="str">
+        <v>https://palegoldenrod-ant-677872.hostingersite.com/wp-admin/post-new.php?post_type=spectra-popup</v>
+      </c>
+      <c r="F29" t="b">
+        <v>0</v>
+      </c>
+      <c r="G29" t="str">
+        <v>ok</v>
+      </c>
+      <c r="H29">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="str">
+        <v>TAB-1</v>
+      </c>
+      <c r="B30" t="str">
+        <v>https://palegoldenrod-ant-677872.hostingersite.com/basic_page/applied-biosystems-model-7000-real-time-thermalcycler/</v>
+      </c>
+      <c r="C30" t="str">
+        <v>https://palegoldenrod-ant-677872.hostingersite.com/chemistry/applied-biosystems-model-7000-real-time-thermalcycler/</v>
+      </c>
+      <c r="D30" t="b">
+        <v>1</v>
+      </c>
+      <c r="E30" t="str">
+        <v>https://palegoldenrod-ant-677872.hostingersite.com/wp-admin/post-new.php?post_type=astra-advanced-hook</v>
+      </c>
+      <c r="F30" t="b">
+        <v>0</v>
+      </c>
+      <c r="G30" t="str">
         <v>failed</v>
       </c>
-      <c r="H4">
+      <c r="H30">
         <v>403</v>
       </c>
     </row>
-    <row r="5" xml:space="preserve">
-      <c r="A5" t="str">
-        <v>TAB-5</v>
-      </c>
-      <c r="B5" t="str">
-        <v>https://palegoldenrod-ant-677872.hostingersite.com/basic_page/216-description/</v>
-      </c>
-      <c r="E5" t="str">
-        <v>https://palegoldenrod-ant-677872.hostingersite.com/basic_page/216-description/</v>
-      </c>
-      <c r="F5" t="b">
-        <v>1</v>
-      </c>
-      <c r="G5" t="str">
+    <row r="31">
+      <c r="A31" t="str">
+        <v>TAB-1</v>
+      </c>
+      <c r="B31" t="str">
+        <v>https://palegoldenrod-ant-677872.hostingersite.com/basic_page/applied-biosystems-model-7000-real-time-thermalcycler/</v>
+      </c>
+      <c r="C31" t="str">
+        <v>https://palegoldenrod-ant-677872.hostingersite.com/chemistry/applied-biosystems-model-7000-real-time-thermalcycler/</v>
+      </c>
+      <c r="D31" t="b">
+        <v>1</v>
+      </c>
+      <c r="E31" t="str">
+        <v>https://palegoldenrod-ant-677872.hostingersite.com/wp-admin/post-new.php?post_type=astra_adv_header</v>
+      </c>
+      <c r="F31" t="b">
+        <v>0</v>
+      </c>
+      <c r="G31" t="str">
         <v>failed</v>
       </c>
-      <c r="I5" t="str" xml:space="preserve">
-        <v xml:space="preserve">page.goto: net::ERR_ABORTED; maybe frame was detached?
-Call log:
-_x001b_[2m  - navigating to "https://palegoldenrod-ant-677872.hostingersite.com/basic_page/216-description/", waiting until "domcontentloaded"_x001b_[22m
-</v>
-      </c>
-    </row>
-    <row r="6" xml:space="preserve">
-      <c r="A6" t="str">
-        <v>TAB-4</v>
-      </c>
-      <c r="B6" t="str">
-        <v>https://palegoldenrod-ant-677872.hostingersite.com/basic_page/209-description/</v>
-      </c>
-      <c r="E6" t="str">
-        <v>https://palegoldenrod-ant-677872.hostingersite.com/basic_page/209-description/</v>
-      </c>
-      <c r="F6" t="b">
-        <v>1</v>
-      </c>
-      <c r="G6" t="str">
+      <c r="H31">
+        <v>403</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="str">
+        <v>TAB-1</v>
+      </c>
+      <c r="B32" t="str">
+        <v>https://palegoldenrod-ant-677872.hostingersite.com/basic_page/applied-biosystems-model-7000-real-time-thermalcycler/</v>
+      </c>
+      <c r="C32" t="str">
+        <v>https://palegoldenrod-ant-677872.hostingersite.com/chemistry/applied-biosystems-model-7000-real-time-thermalcycler/</v>
+      </c>
+      <c r="D32" t="b">
+        <v>1</v>
+      </c>
+      <c r="E32" t="str">
+        <v>https://palegoldenrod-ant-677872.hostingersite.com/wp-admin/user-new.php</v>
+      </c>
+      <c r="F32" t="b">
+        <v>0</v>
+      </c>
+      <c r="G32" t="str">
         <v>failed</v>
       </c>
-      <c r="I6" t="str" xml:space="preserve">
-        <v xml:space="preserve">page.goto: net::ERR_ABORTED; maybe frame was detached?
-Call log:
-_x001b_[2m  - navigating to "https://palegoldenrod-ant-677872.hostingersite.com/basic_page/209-description/", waiting until "domcontentloaded"_x001b_[22m
-</v>
+      <c r="H32">
+        <v>403</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="str">
+        <v>TAB-1</v>
+      </c>
+      <c r="B33" t="str">
+        <v>https://palegoldenrod-ant-677872.hostingersite.com/basic_page/applied-biosystems-model-7000-real-time-thermalcycler/</v>
+      </c>
+      <c r="C33" t="str">
+        <v>https://palegoldenrod-ant-677872.hostingersite.com/chemistry/applied-biosystems-model-7000-real-time-thermalcycler/</v>
+      </c>
+      <c r="D33" t="b">
+        <v>1</v>
+      </c>
+      <c r="E33" t="str">
+        <v>https://palegoldenrod-ant-677872.hostingersite.com/wp-admin/post.php?post=7831&amp;action=edit</v>
+      </c>
+      <c r="F33" t="b">
+        <v>0</v>
+      </c>
+      <c r="G33" t="str">
+        <v>failed</v>
+      </c>
+      <c r="H33">
+        <v>403</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="str">
+        <v>TAB-1</v>
+      </c>
+      <c r="B34" t="str">
+        <v>https://palegoldenrod-ant-677872.hostingersite.com/basic_page/applied-biosystems-model-7000-real-time-thermalcycler/</v>
+      </c>
+      <c r="C34" t="str">
+        <v>https://palegoldenrod-ant-677872.hostingersite.com/chemistry/applied-biosystems-model-7000-real-time-thermalcycler/</v>
+      </c>
+      <c r="D34" t="b">
+        <v>1</v>
+      </c>
+      <c r="E34" t="str">
+        <v>https://palegoldenrod-ant-677872.hostingersite.com/wp-admin/post.php?post=22797&amp;action=edit</v>
+      </c>
+      <c r="F34" t="b">
+        <v>0</v>
+      </c>
+      <c r="G34" t="str">
+        <v>failed</v>
+      </c>
+      <c r="H34">
+        <v>403</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="str">
+        <v>TAB-1</v>
+      </c>
+      <c r="B35" t="str">
+        <v>https://palegoldenrod-ant-677872.hostingersite.com/basic_page/applied-biosystems-model-7000-real-time-thermalcycler/</v>
+      </c>
+      <c r="C35" t="str">
+        <v>https://palegoldenrod-ant-677872.hostingersite.com/chemistry/applied-biosystems-model-7000-real-time-thermalcycler/</v>
+      </c>
+      <c r="D35" t="b">
+        <v>1</v>
+      </c>
+      <c r="E35" t="str">
+        <v>https://palegoldenrod-ant-677872.hostingersite.com/wp-admin/admin.php?page=wpseo_dashboard</v>
+      </c>
+      <c r="F35" t="b">
+        <v>0</v>
+      </c>
+      <c r="G35" t="str">
+        <v>failed</v>
+      </c>
+      <c r="H35">
+        <v>403</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="str">
+        <v>TAB-1</v>
+      </c>
+      <c r="B36" t="str">
+        <v>https://palegoldenrod-ant-677872.hostingersite.com/basic_page/applied-biosystems-model-7000-real-time-thermalcycler/</v>
+      </c>
+      <c r="C36" t="str">
+        <v>https://palegoldenrod-ant-677872.hostingersite.com/chemistry/applied-biosystems-model-7000-real-time-thermalcycler/</v>
+      </c>
+      <c r="D36" t="b">
+        <v>1</v>
+      </c>
+      <c r="E36" t="str">
+        <v>https://search.google.com/search-console/links/drilldown?resource_id=https%3A%2F%2Fpalegoldenrod-ant-677872.hostingersite.com&amp;type=EXTERNAL&amp;target=https%3A%2F%2Fpalegoldenrod-ant-677872.hostingersite.com%2Fchemistry%2Fapplied-biosystems-model-7000-real-time-thermalcycler%2F&amp;domain=</v>
+      </c>
+      <c r="F36" t="b">
+        <v>0</v>
+      </c>
+      <c r="G36" t="str">
+        <v>ok</v>
+      </c>
+      <c r="H36">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="str">
+        <v>TAB-1</v>
+      </c>
+      <c r="B37" t="str">
+        <v>https://palegoldenrod-ant-677872.hostingersite.com/basic_page/applied-biosystems-model-7000-real-time-thermalcycler/</v>
+      </c>
+      <c r="C37" t="str">
+        <v>https://palegoldenrod-ant-677872.hostingersite.com/chemistry/applied-biosystems-model-7000-real-time-thermalcycler/</v>
+      </c>
+      <c r="D37" t="b">
+        <v>1</v>
+      </c>
+      <c r="E37" t="str">
+        <v>https://search.google.com/test/rich-results?url=https%3A%2F%2Fpalegoldenrod-ant-677872.hostingersite.com%2Fchemistry%2Fapplied-biosystems-model-7000-real-time-thermalcycler%2F</v>
+      </c>
+      <c r="F37" t="b">
+        <v>0</v>
+      </c>
+      <c r="G37" t="str">
+        <v>ok</v>
+      </c>
+      <c r="H37">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="str">
+        <v>TAB-1</v>
+      </c>
+      <c r="B38" t="str">
+        <v>https://palegoldenrod-ant-677872.hostingersite.com/basic_page/applied-biosystems-model-7000-real-time-thermalcycler/</v>
+      </c>
+      <c r="C38" t="str">
+        <v>https://palegoldenrod-ant-677872.hostingersite.com/chemistry/applied-biosystems-model-7000-real-time-thermalcycler/</v>
+      </c>
+      <c r="D38" t="b">
+        <v>1</v>
+      </c>
+      <c r="E38" t="str">
+        <v>https://developers.facebook.com/tools/debug/?q=https%3A%2F%2Fpalegoldenrod-ant-677872.hostingersite.com%2Fchemistry%2Fapplied-biosystems-model-7000-real-time-thermalcycler%2F</v>
+      </c>
+      <c r="F38" t="b">
+        <v>0</v>
+      </c>
+      <c r="G38" t="str">
+        <v>failed</v>
+      </c>
+      <c r="H38">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="str">
+        <v>TAB-1</v>
+      </c>
+      <c r="B39" t="str">
+        <v>https://palegoldenrod-ant-677872.hostingersite.com/basic_page/applied-biosystems-model-7000-real-time-thermalcycler/</v>
+      </c>
+      <c r="C39" t="str">
+        <v>https://palegoldenrod-ant-677872.hostingersite.com/chemistry/applied-biosystems-model-7000-real-time-thermalcycler/</v>
+      </c>
+      <c r="D39" t="b">
+        <v>1</v>
+      </c>
+      <c r="E39" t="str">
+        <v>https://developers.google.com/speed/pagespeed/insights/?url=https%3A%2F%2Fpalegoldenrod-ant-677872.hostingersite.com%2Fchemistry%2Fapplied-biosystems-model-7000-real-time-thermalcycler%2F</v>
+      </c>
+      <c r="F39" t="b">
+        <v>0</v>
+      </c>
+      <c r="G39" t="str">
+        <v>ok</v>
+      </c>
+      <c r="H39">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="str">
+        <v>TAB-1</v>
+      </c>
+      <c r="B40" t="str">
+        <v>https://palegoldenrod-ant-677872.hostingersite.com/basic_page/applied-biosystems-model-7000-real-time-thermalcycler/</v>
+      </c>
+      <c r="C40" t="str">
+        <v>https://palegoldenrod-ant-677872.hostingersite.com/chemistry/applied-biosystems-model-7000-real-time-thermalcycler/</v>
+      </c>
+      <c r="D40" t="b">
+        <v>1</v>
+      </c>
+      <c r="E40" t="str">
+        <v>https://yoa.st/admin-bar-semrush?php_version=8.2&amp;platform=wordpress&amp;platform_version=6.8.3&amp;software=premium&amp;software_version=25.7&amp;days_active=76&amp;user_language=en_US</v>
+      </c>
+      <c r="F40" t="b">
+        <v>0</v>
+      </c>
+      <c r="G40" t="str">
+        <v>ok</v>
+      </c>
+      <c r="H40">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="str">
+        <v>TAB-1</v>
+      </c>
+      <c r="B41" t="str">
+        <v>https://palegoldenrod-ant-677872.hostingersite.com/basic_page/applied-biosystems-model-7000-real-time-thermalcycler/</v>
+      </c>
+      <c r="C41" t="str">
+        <v>https://palegoldenrod-ant-677872.hostingersite.com/chemistry/applied-biosystems-model-7000-real-time-thermalcycler/</v>
+      </c>
+      <c r="D41" t="b">
+        <v>1</v>
+      </c>
+      <c r="E41" t="str">
+        <v>https://yoa.st/admin-bar-wincher?php_version=8.2&amp;platform=wordpress&amp;platform_version=6.8.3&amp;software=premium&amp;software_version=25.7&amp;days_active=76&amp;user_language=en_US</v>
+      </c>
+      <c r="F41" t="b">
+        <v>0</v>
+      </c>
+      <c r="G41" t="str">
+        <v>ok</v>
+      </c>
+      <c r="H41">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="str">
+        <v>TAB-1</v>
+      </c>
+      <c r="B42" t="str">
+        <v>https://palegoldenrod-ant-677872.hostingersite.com/basic_page/applied-biosystems-model-7000-real-time-thermalcycler/</v>
+      </c>
+      <c r="C42" t="str">
+        <v>https://palegoldenrod-ant-677872.hostingersite.com/chemistry/applied-biosystems-model-7000-real-time-thermalcycler/</v>
+      </c>
+      <c r="D42" t="b">
+        <v>1</v>
+      </c>
+      <c r="E42" t="str">
+        <v>https://yoa.st/admin-bar-gtrends?php_version=8.2&amp;platform=wordpress&amp;platform_version=6.8.3&amp;software=premium&amp;software_version=25.7&amp;days_active=76&amp;user_language=en_US</v>
+      </c>
+      <c r="F42" t="b">
+        <v>0</v>
+      </c>
+      <c r="G42" t="str">
+        <v>ok</v>
+      </c>
+      <c r="H42">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="str">
+        <v>TAB-1</v>
+      </c>
+      <c r="B43" t="str">
+        <v>https://palegoldenrod-ant-677872.hostingersite.com/basic_page/applied-biosystems-model-7000-real-time-thermalcycler/</v>
+      </c>
+      <c r="C43" t="str">
+        <v>https://palegoldenrod-ant-677872.hostingersite.com/chemistry/applied-biosystems-model-7000-real-time-thermalcycler/</v>
+      </c>
+      <c r="D43" t="b">
+        <v>1</v>
+      </c>
+      <c r="E43" t="str">
+        <v>https://yoa.st/admin-bar-learn-more-seo?php_version=8.2&amp;platform=wordpress&amp;platform_version=6.8.3&amp;software=premium&amp;software_version=25.7&amp;days_active=76&amp;user_language=en_US</v>
+      </c>
+      <c r="F43" t="b">
+        <v>0</v>
+      </c>
+      <c r="G43" t="str">
+        <v>ok</v>
+      </c>
+      <c r="H43">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="str">
+        <v>TAB-1</v>
+      </c>
+      <c r="B44" t="str">
+        <v>https://palegoldenrod-ant-677872.hostingersite.com/basic_page/applied-biosystems-model-7000-real-time-thermalcycler/</v>
+      </c>
+      <c r="C44" t="str">
+        <v>https://palegoldenrod-ant-677872.hostingersite.com/chemistry/applied-biosystems-model-7000-real-time-thermalcycler/</v>
+      </c>
+      <c r="D44" t="b">
+        <v>1</v>
+      </c>
+      <c r="E44" t="str">
+        <v>https://yoa.st/admin-bar-improve-blog-post?php_version=8.2&amp;platform=wordpress&amp;platform_version=6.8.3&amp;software=premium&amp;software_version=25.7&amp;days_active=76&amp;user_language=en_US</v>
+      </c>
+      <c r="F44" t="b">
+        <v>0</v>
+      </c>
+      <c r="G44" t="str">
+        <v>ok</v>
+      </c>
+      <c r="H44">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="str">
+        <v>TAB-1</v>
+      </c>
+      <c r="B45" t="str">
+        <v>https://palegoldenrod-ant-677872.hostingersite.com/basic_page/applied-biosystems-model-7000-real-time-thermalcycler/</v>
+      </c>
+      <c r="C45" t="str">
+        <v>https://palegoldenrod-ant-677872.hostingersite.com/chemistry/applied-biosystems-model-7000-real-time-thermalcycler/</v>
+      </c>
+      <c r="D45" t="b">
+        <v>1</v>
+      </c>
+      <c r="E45" t="str">
+        <v>https://yoa.st/admin-bar-write-better?php_version=8.2&amp;platform=wordpress&amp;platform_version=6.8.3&amp;software=premium&amp;software_version=25.7&amp;days_active=76&amp;user_language=en_US</v>
+      </c>
+      <c r="F45" t="b">
+        <v>0</v>
+      </c>
+      <c r="G45" t="str">
+        <v>ok</v>
+      </c>
+      <c r="H45">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="str">
+        <v>TAB-1</v>
+      </c>
+      <c r="B46" t="str">
+        <v>https://palegoldenrod-ant-677872.hostingersite.com/basic_page/applied-biosystems-model-7000-real-time-thermalcycler/</v>
+      </c>
+      <c r="C46" t="str">
+        <v>https://palegoldenrod-ant-677872.hostingersite.com/chemistry/applied-biosystems-model-7000-real-time-thermalcycler/</v>
+      </c>
+      <c r="D46" t="b">
+        <v>1</v>
+      </c>
+      <c r="E46" t="str">
+        <v>https://palegoldenrod-ant-677872.hostingersite.com/wp-admin/admin.php?page=wpseo_page_support</v>
+      </c>
+      <c r="F46" t="b">
+        <v>0</v>
+      </c>
+      <c r="G46" t="str">
+        <v>failed</v>
+      </c>
+      <c r="H46">
+        <v>403</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="str">
+        <v>TAB-1</v>
+      </c>
+      <c r="B47" t="str">
+        <v>https://palegoldenrod-ant-677872.hostingersite.com/basic_page/applied-biosystems-model-7000-real-time-thermalcycler/</v>
+      </c>
+      <c r="C47" t="str">
+        <v>https://palegoldenrod-ant-677872.hostingersite.com/chemistry/applied-biosystems-model-7000-real-time-thermalcycler/</v>
+      </c>
+      <c r="D47" t="b">
+        <v>1</v>
+      </c>
+      <c r="E47" t="str">
+        <v>https://palegoldenrod-ant-677872.hostingersite.com/wp-admin/admin.php?page=wpseo_page_settings</v>
+      </c>
+      <c r="F47" t="b">
+        <v>0</v>
+      </c>
+      <c r="G47" t="str">
+        <v>failed</v>
+      </c>
+      <c r="H47">
+        <v>403</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="str">
+        <v>TAB-1</v>
+      </c>
+      <c r="B48" t="str">
+        <v>https://palegoldenrod-ant-677872.hostingersite.com/basic_page/applied-biosystems-model-7000-real-time-thermalcycler/</v>
+      </c>
+      <c r="C48" t="str">
+        <v>https://palegoldenrod-ant-677872.hostingersite.com/chemistry/applied-biosystems-model-7000-real-time-thermalcycler/</v>
+      </c>
+      <c r="D48" t="b">
+        <v>1</v>
+      </c>
+      <c r="E48" t="str">
+        <v>https://palegoldenrod-ant-677872.hostingersite.com/wp-admin/admin.php?page=wpseo_tools</v>
+      </c>
+      <c r="F48" t="b">
+        <v>0</v>
+      </c>
+      <c r="G48" t="str">
+        <v>failed</v>
+      </c>
+      <c r="H48">
+        <v>403</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="str">
+        <v>TAB-1</v>
+      </c>
+      <c r="B49" t="str">
+        <v>https://palegoldenrod-ant-677872.hostingersite.com/basic_page/applied-biosystems-model-7000-real-time-thermalcycler/</v>
+      </c>
+      <c r="C49" t="str">
+        <v>https://palegoldenrod-ant-677872.hostingersite.com/chemistry/applied-biosystems-model-7000-real-time-thermalcycler/</v>
+      </c>
+      <c r="D49" t="b">
+        <v>1</v>
+      </c>
+      <c r="E49" t="str">
+        <v>https://palegoldenrod-ant-677872.hostingersite.com/wp-admin/admin.php?page=wpseo_licenses</v>
+      </c>
+      <c r="F49" t="b">
+        <v>0</v>
+      </c>
+      <c r="G49" t="str">
+        <v>failed</v>
+      </c>
+      <c r="H49">
+        <v>403</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="str">
+        <v>TAB-1</v>
+      </c>
+      <c r="B50" t="str">
+        <v>https://palegoldenrod-ant-677872.hostingersite.com/basic_page/applied-biosystems-model-7000-real-time-thermalcycler/</v>
+      </c>
+      <c r="C50" t="str">
+        <v>https://palegoldenrod-ant-677872.hostingersite.com/chemistry/applied-biosystems-model-7000-real-time-thermalcycler/</v>
+      </c>
+      <c r="D50" t="b">
+        <v>1</v>
+      </c>
+      <c r="E50" t="str">
+        <v>https://palegoldenrod-ant-677872.hostingersite.com/wp-admin/admin.php?page=wpseo_news</v>
+      </c>
+      <c r="F50" t="b">
+        <v>0</v>
+      </c>
+      <c r="G50" t="str">
+        <v>failed</v>
+      </c>
+      <c r="H50">
+        <v>403</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="str">
+        <v>TAB-1</v>
+      </c>
+      <c r="B51" t="str">
+        <v>https://palegoldenrod-ant-677872.hostingersite.com/basic_page/applied-biosystems-model-7000-real-time-thermalcycler/</v>
+      </c>
+      <c r="C51" t="str">
+        <v>https://palegoldenrod-ant-677872.hostingersite.com/chemistry/applied-biosystems-model-7000-real-time-thermalcycler/</v>
+      </c>
+      <c r="D51" t="b">
+        <v>1</v>
+      </c>
+      <c r="E51" t="str">
+        <v>https://palegoldenrod-ant-677872.hostingersite.com/wp-admin/admin.php?page=simple_history_settings_page</v>
+      </c>
+      <c r="F51" t="b">
+        <v>0</v>
+      </c>
+      <c r="G51" t="str">
+        <v>failed</v>
+      </c>
+      <c r="H51">
+        <v>403</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="str">
+        <v>TAB-1</v>
+      </c>
+      <c r="B52" t="str">
+        <v>https://palegoldenrod-ant-677872.hostingersite.com/basic_page/applied-biosystems-model-7000-real-time-thermalcycler/</v>
+      </c>
+      <c r="C52" t="str">
+        <v>https://palegoldenrod-ant-677872.hostingersite.com/chemistry/applied-biosystems-model-7000-real-time-thermalcycler/</v>
+      </c>
+      <c r="D52" t="b">
+        <v>1</v>
+      </c>
+      <c r="E52" t="str">
+        <v>https://palegoldenrod-ant-677872.hostingersite.com/wp-admin/profile.php</v>
+      </c>
+      <c r="F52" t="b">
+        <v>0</v>
+      </c>
+      <c r="G52" t="str">
+        <v>failed</v>
+      </c>
+      <c r="H52">
+        <v>403</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="str">
+        <v>TAB-1</v>
+      </c>
+      <c r="B53" t="str">
+        <v>https://palegoldenrod-ant-677872.hostingersite.com/basic_page/applied-biosystems-model-7000-real-time-thermalcycler/</v>
+      </c>
+      <c r="C53" t="str">
+        <v>https://palegoldenrod-ant-677872.hostingersite.com/chemistry/applied-biosystems-model-7000-real-time-thermalcycler/</v>
+      </c>
+      <c r="D53" t="b">
+        <v>1</v>
+      </c>
+      <c r="E53" t="str">
+        <v>https://palegoldenrod-ant-677872.hostingersite.com/wp-login.php?action=logout&amp;_wpnonce=6ab0a14ad1</v>
+      </c>
+      <c r="F53" t="b">
+        <v>0</v>
+      </c>
+      <c r="G53" t="str">
+        <v>failed</v>
+      </c>
+      <c r="H53">
+        <v>403</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="str">
+        <v>TAB-1</v>
+      </c>
+      <c r="B54" t="str">
+        <v>https://palegoldenrod-ant-677872.hostingersite.com/basic_page/applied-biosystems-model-7000-real-time-thermalcycler/</v>
+      </c>
+      <c r="C54" t="str">
+        <v>https://palegoldenrod-ant-677872.hostingersite.com/chemistry/applied-biosystems-model-7000-real-time-thermalcycler/</v>
+      </c>
+      <c r="D54" t="b">
+        <v>1</v>
+      </c>
+      <c r="E54" t="str">
+        <v>https://palegoldenrod-ant-677872.hostingersite.com/</v>
+      </c>
+      <c r="F54" t="b">
+        <v>0</v>
+      </c>
+      <c r="G54" t="str">
+        <v>failed</v>
+      </c>
+      <c r="H54">
+        <v>403</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="str">
+        <v>TAB-1</v>
+      </c>
+      <c r="B55" t="str">
+        <v>https://palegoldenrod-ant-677872.hostingersite.com/basic_page/applied-biosystems-model-7000-real-time-thermalcycler/</v>
+      </c>
+      <c r="C55" t="str">
+        <v>https://palegoldenrod-ant-677872.hostingersite.com/chemistry/applied-biosystems-model-7000-real-time-thermalcycler/</v>
+      </c>
+      <c r="D55" t="b">
+        <v>1</v>
+      </c>
+      <c r="E55" t="str">
+        <v>https://palegoldenrod-ant-677872.hostingersite.com/admissions/apply</v>
+      </c>
+      <c r="F55" t="b">
+        <v>0</v>
+      </c>
+      <c r="G55" t="str">
+        <v>failed</v>
+      </c>
+      <c r="H55">
+        <v>403</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="str">
+        <v>TAB-1</v>
+      </c>
+      <c r="B56" t="str">
+        <v>https://palegoldenrod-ant-677872.hostingersite.com/basic_page/applied-biosystems-model-7000-real-time-thermalcycler/</v>
+      </c>
+      <c r="C56" t="str">
+        <v>https://palegoldenrod-ant-677872.hostingersite.com/chemistry/applied-biosystems-model-7000-real-time-thermalcycler/</v>
+      </c>
+      <c r="D56" t="b">
+        <v>1</v>
+      </c>
+      <c r="E56" t="str">
+        <v>https://my.geneseo.edu/</v>
+      </c>
+      <c r="F56" t="b">
+        <v>0</v>
+      </c>
+      <c r="G56" t="str">
+        <v>ok</v>
+      </c>
+      <c r="H56">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="str">
+        <v>TAB-1</v>
+      </c>
+      <c r="B57" t="str">
+        <v>https://palegoldenrod-ant-677872.hostingersite.com/basic_page/applied-biosystems-model-7000-real-time-thermalcycler/</v>
+      </c>
+      <c r="C57" t="str">
+        <v>https://palegoldenrod-ant-677872.hostingersite.com/chemistry/applied-biosystems-model-7000-real-time-thermalcycler/</v>
+      </c>
+      <c r="D57" t="b">
+        <v>1</v>
+      </c>
+      <c r="E57" t="str">
+        <v>https://palegoldenrod-ant-677872.hostingersite.com/chemistry/</v>
+      </c>
+      <c r="F57" t="b">
+        <v>0</v>
+      </c>
+      <c r="G57" t="str">
+        <v>failed</v>
+      </c>
+      <c r="H57">
+        <v>403</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="str">
+        <v>TAB-1</v>
+      </c>
+      <c r="B58" t="str">
+        <v>https://palegoldenrod-ant-677872.hostingersite.com/basic_page/applied-biosystems-model-7000-real-time-thermalcycler/</v>
+      </c>
+      <c r="C58" t="str">
+        <v>https://palegoldenrod-ant-677872.hostingersite.com/chemistry/applied-biosystems-model-7000-real-time-thermalcycler/</v>
+      </c>
+      <c r="D58" t="b">
+        <v>1</v>
+      </c>
+      <c r="E58" t="str">
+        <v>https://map.geneseo.edu/</v>
+      </c>
+      <c r="F58" t="b">
+        <v>0</v>
+      </c>
+      <c r="G58" t="str">
+        <v>ok</v>
+      </c>
+      <c r="H58">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="str">
+        <v>TAB-1</v>
+      </c>
+      <c r="B59" t="str">
+        <v>https://palegoldenrod-ant-677872.hostingersite.com/basic_page/applied-biosystems-model-7000-real-time-thermalcycler/</v>
+      </c>
+      <c r="C59" t="str">
+        <v>https://palegoldenrod-ant-677872.hostingersite.com/chemistry/applied-biosystems-model-7000-real-time-thermalcycler/</v>
+      </c>
+      <c r="D59" t="b">
+        <v>1</v>
+      </c>
+      <c r="E59" t="str">
+        <v>https://www.geneseo.edu/directory</v>
+      </c>
+      <c r="F59" t="b">
+        <v>0</v>
+      </c>
+      <c r="G59" t="str">
+        <v>ok</v>
+      </c>
+      <c r="H59">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="str">
+        <v>TAB-1</v>
+      </c>
+      <c r="B60" t="str">
+        <v>https://palegoldenrod-ant-677872.hostingersite.com/basic_page/applied-biosystems-model-7000-real-time-thermalcycler/</v>
+      </c>
+      <c r="C60" t="str">
+        <v>https://palegoldenrod-ant-677872.hostingersite.com/chemistry/applied-biosystems-model-7000-real-time-thermalcycler/</v>
+      </c>
+      <c r="D60" t="b">
+        <v>1</v>
+      </c>
+      <c r="E60" t="str">
+        <v>https://palegoldenrod-ant-677872.hostingersite.com/registrar/academic-calendar/</v>
+      </c>
+      <c r="F60" t="b">
+        <v>0</v>
+      </c>
+      <c r="G60" t="str">
+        <v>failed</v>
+      </c>
+      <c r="H60">
+        <v>403</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="str">
+        <v>TAB-1</v>
+      </c>
+      <c r="B61" t="str">
+        <v>https://palegoldenrod-ant-677872.hostingersite.com/basic_page/applied-biosystems-model-7000-real-time-thermalcycler/</v>
+      </c>
+      <c r="C61" t="str">
+        <v>https://palegoldenrod-ant-677872.hostingersite.com/chemistry/applied-biosystems-model-7000-real-time-thermalcycler/</v>
+      </c>
+      <c r="D61" t="b">
+        <v>1</v>
+      </c>
+      <c r="E61" t="str">
+        <v>https://dev-suny-geneseo.pantheonsite.io/emergencies/</v>
+      </c>
+      <c r="F61" t="b">
+        <v>0</v>
+      </c>
+      <c r="G61" t="str">
+        <v>ok</v>
+      </c>
+      <c r="H61">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="str">
+        <v>TAB-1</v>
+      </c>
+      <c r="B62" t="str">
+        <v>https://palegoldenrod-ant-677872.hostingersite.com/basic_page/applied-biosystems-model-7000-real-time-thermalcycler/</v>
+      </c>
+      <c r="C62" t="str">
+        <v>https://palegoldenrod-ant-677872.hostingersite.com/chemistry/applied-biosystems-model-7000-real-time-thermalcycler/</v>
+      </c>
+      <c r="D62" t="b">
+        <v>1</v>
+      </c>
+      <c r="E62" t="str">
+        <v>https://dev-suny-geneseo.pantheonsite.io/directory/</v>
+      </c>
+      <c r="F62" t="b">
+        <v>0</v>
+      </c>
+      <c r="G62" t="str">
+        <v>ok</v>
+      </c>
+      <c r="H62">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="str">
+        <v>TAB-1</v>
+      </c>
+      <c r="B63" t="str">
+        <v>https://palegoldenrod-ant-677872.hostingersite.com/basic_page/applied-biosystems-model-7000-real-time-thermalcycler/</v>
+      </c>
+      <c r="C63" t="str">
+        <v>https://palegoldenrod-ant-677872.hostingersite.com/chemistry/applied-biosystems-model-7000-real-time-thermalcycler/</v>
+      </c>
+      <c r="D63" t="b">
+        <v>1</v>
+      </c>
+      <c r="E63" t="str">
+        <v>https://dev-suny-geneseo.pantheonsite.io/registrar/academic-calendar/</v>
+      </c>
+      <c r="F63" t="b">
+        <v>0</v>
+      </c>
+      <c r="G63" t="str">
+        <v>ok</v>
+      </c>
+      <c r="H63">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="str">
+        <v>TAB-1</v>
+      </c>
+      <c r="B64" t="str">
+        <v>https://palegoldenrod-ant-677872.hostingersite.com/basic_page/applied-biosystems-model-7000-real-time-thermalcycler/</v>
+      </c>
+      <c r="C64" t="str">
+        <v>https://palegoldenrod-ant-677872.hostingersite.com/chemistry/applied-biosystems-model-7000-real-time-thermalcycler/</v>
+      </c>
+      <c r="D64" t="b">
+        <v>1</v>
+      </c>
+      <c r="E64" t="str">
+        <v>https://dev-suny-geneseo.pantheonsite.io/admissions/apply/</v>
+      </c>
+      <c r="F64" t="b">
+        <v>0</v>
+      </c>
+      <c r="G64" t="str">
+        <v>ok</v>
+      </c>
+      <c r="H64">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="str">
+        <v>TAB-1</v>
+      </c>
+      <c r="B65" t="str">
+        <v>https://palegoldenrod-ant-677872.hostingersite.com/basic_page/applied-biosystems-model-7000-real-time-thermalcycler/</v>
+      </c>
+      <c r="C65" t="str">
+        <v>https://palegoldenrod-ant-677872.hostingersite.com/chemistry/applied-biosystems-model-7000-real-time-thermalcycler/</v>
+      </c>
+      <c r="D65" t="b">
+        <v>1</v>
+      </c>
+      <c r="E65" t="str">
+        <v>https://dev-suny-geneseo.pantheonsite.io/admissions/transfer/</v>
+      </c>
+      <c r="F65" t="b">
+        <v>0</v>
+      </c>
+      <c r="G65" t="str">
+        <v>ok</v>
+      </c>
+      <c r="H65">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="str">
+        <v>TAB-1</v>
+      </c>
+      <c r="B66" t="str">
+        <v>https://palegoldenrod-ant-677872.hostingersite.com/basic_page/applied-biosystems-model-7000-real-time-thermalcycler/</v>
+      </c>
+      <c r="C66" t="str">
+        <v>https://palegoldenrod-ant-677872.hostingersite.com/chemistry/applied-biosystems-model-7000-real-time-thermalcycler/</v>
+      </c>
+      <c r="D66" t="b">
+        <v>1</v>
+      </c>
+      <c r="E66" t="str">
+        <v>https://dev-suny-geneseo.pantheonsite.io/alumni/</v>
+      </c>
+      <c r="F66" t="b">
+        <v>0</v>
+      </c>
+      <c r="G66" t="str">
+        <v>ok</v>
+      </c>
+      <c r="H66">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="str">
+        <v>TAB-1</v>
+      </c>
+      <c r="B67" t="str">
+        <v>https://palegoldenrod-ant-677872.hostingersite.com/basic_page/applied-biosystems-model-7000-real-time-thermalcycler/</v>
+      </c>
+      <c r="C67" t="str">
+        <v>https://palegoldenrod-ant-677872.hostingersite.com/chemistry/applied-biosystems-model-7000-real-time-thermalcycler/</v>
+      </c>
+      <c r="D67" t="b">
+        <v>1</v>
+      </c>
+      <c r="E67" t="str">
+        <v>https://dev-suny-geneseo.pantheonsite.io/hr/employment/</v>
+      </c>
+      <c r="F67" t="b">
+        <v>0</v>
+      </c>
+      <c r="G67" t="str">
+        <v>ok</v>
+      </c>
+      <c r="H67">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="str">
+        <v>TAB-1</v>
+      </c>
+      <c r="B68" t="str">
+        <v>https://palegoldenrod-ant-677872.hostingersite.com/basic_page/applied-biosystems-model-7000-real-time-thermalcycler/</v>
+      </c>
+      <c r="C68" t="str">
+        <v>https://palegoldenrod-ant-677872.hostingersite.com/chemistry/applied-biosystems-model-7000-real-time-thermalcycler/</v>
+      </c>
+      <c r="D68" t="b">
+        <v>1</v>
+      </c>
+      <c r="E68" t="str">
+        <v>https://dev-suny-geneseo.pantheonsite.io/about/accessibility-information/</v>
+      </c>
+      <c r="F68" t="b">
+        <v>0</v>
+      </c>
+      <c r="G68" t="str">
+        <v>ok</v>
+      </c>
+      <c r="H68">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="str">
+        <v>TAB-1</v>
+      </c>
+      <c r="B69" t="str">
+        <v>https://palegoldenrod-ant-677872.hostingersite.com/basic_page/applied-biosystems-model-7000-real-time-thermalcycler/</v>
+      </c>
+      <c r="C69" t="str">
+        <v>https://palegoldenrod-ant-677872.hostingersite.com/chemistry/applied-biosystems-model-7000-real-time-thermalcycler/</v>
+      </c>
+      <c r="D69" t="b">
+        <v>1</v>
+      </c>
+      <c r="E69" t="str">
+        <v>https://dev-suny-geneseo.pantheonsite.io/cit/privacy/</v>
+      </c>
+      <c r="F69" t="b">
+        <v>0</v>
+      </c>
+      <c r="G69" t="str">
+        <v>ok</v>
+      </c>
+      <c r="H69">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="str">
+        <v>TAB-1</v>
+      </c>
+      <c r="B70" t="str">
+        <v>https://palegoldenrod-ant-677872.hostingersite.com/basic_page/applied-biosystems-model-7000-real-time-thermalcycler/</v>
+      </c>
+      <c r="C70" t="str">
+        <v>https://palegoldenrod-ant-677872.hostingersite.com/chemistry/applied-biosystems-model-7000-real-time-thermalcycler/</v>
+      </c>
+      <c r="D70" t="b">
+        <v>1</v>
+      </c>
+      <c r="E70" t="str">
+        <v>https://dev-suny-geneseo.pantheonsite.io/student-right-to-know/</v>
+      </c>
+      <c r="F70" t="b">
+        <v>0</v>
+      </c>
+      <c r="G70" t="str">
+        <v>ok</v>
+      </c>
+      <c r="H70">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="str">
+        <v>TAB-1</v>
+      </c>
+      <c r="B71" t="str">
+        <v>https://palegoldenrod-ant-677872.hostingersite.com/basic_page/applied-biosystems-model-7000-real-time-thermalcycler/</v>
+      </c>
+      <c r="C71" t="str">
+        <v>https://palegoldenrod-ant-677872.hostingersite.com/chemistry/applied-biosystems-model-7000-real-time-thermalcycler/</v>
+      </c>
+      <c r="D71" t="b">
+        <v>1</v>
+      </c>
+      <c r="E71" t="str">
+        <v>https://dev-suny-geneseo.pantheonsite.io/website-help-tools/</v>
+      </c>
+      <c r="F71" t="b">
+        <v>0</v>
+      </c>
+      <c r="G71" t="str">
+        <v>ok</v>
+      </c>
+      <c r="H71">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="str">
+        <v>TAB-1</v>
+      </c>
+      <c r="B72" t="str">
+        <v>https://palegoldenrod-ant-677872.hostingersite.com/basic_page/applied-biosystems-model-7000-real-time-thermalcycler/</v>
+      </c>
+      <c r="C72" t="str">
+        <v>https://palegoldenrod-ant-677872.hostingersite.com/chemistry/applied-biosystems-model-7000-real-time-thermalcycler/</v>
+      </c>
+      <c r="D72" t="b">
+        <v>1</v>
+      </c>
+      <c r="E72" t="str">
+        <v>https://www.facebook.com/SUNYGeneseo</v>
+      </c>
+      <c r="F72" t="b">
+        <v>0</v>
+      </c>
+      <c r="G72" t="str">
+        <v>failed</v>
+      </c>
+      <c r="H72">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="str">
+        <v>TAB-1</v>
+      </c>
+      <c r="B73" t="str">
+        <v>https://palegoldenrod-ant-677872.hostingersite.com/basic_page/applied-biosystems-model-7000-real-time-thermalcycler/</v>
+      </c>
+      <c r="C73" t="str">
+        <v>https://palegoldenrod-ant-677872.hostingersite.com/chemistry/applied-biosystems-model-7000-real-time-thermalcycler/</v>
+      </c>
+      <c r="D73" t="b">
+        <v>1</v>
+      </c>
+      <c r="E73" t="str">
+        <v>https://www.instagram.com/sunygeneseo</v>
+      </c>
+      <c r="F73" t="b">
+        <v>0</v>
+      </c>
+      <c r="G73" t="str">
+        <v>ok</v>
+      </c>
+      <c r="H73">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" t="str">
+        <v>TAB-1</v>
+      </c>
+      <c r="B74" t="str">
+        <v>https://palegoldenrod-ant-677872.hostingersite.com/basic_page/applied-biosystems-model-7000-real-time-thermalcycler/</v>
+      </c>
+      <c r="C74" t="str">
+        <v>https://palegoldenrod-ant-677872.hostingersite.com/chemistry/applied-biosystems-model-7000-real-time-thermalcycler/</v>
+      </c>
+      <c r="D74" t="b">
+        <v>1</v>
+      </c>
+      <c r="E74" t="str">
+        <v>https://www.linkedin.com/company/suny-geneseo</v>
+      </c>
+      <c r="F74" t="b">
+        <v>0</v>
+      </c>
+      <c r="G74" t="str">
+        <v>failed</v>
+      </c>
+      <c r="H74">
+        <v>999</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" t="str">
+        <v>TAB-1</v>
+      </c>
+      <c r="B75" t="str">
+        <v>https://palegoldenrod-ant-677872.hostingersite.com/basic_page/applied-biosystems-model-7000-real-time-thermalcycler/</v>
+      </c>
+      <c r="C75" t="str">
+        <v>https://palegoldenrod-ant-677872.hostingersite.com/chemistry/applied-biosystems-model-7000-real-time-thermalcycler/</v>
+      </c>
+      <c r="D75" t="b">
+        <v>1</v>
+      </c>
+      <c r="E75" t="str">
+        <v>https://bsky.app/profile/sunygeneseo.bsky.social</v>
+      </c>
+      <c r="F75" t="b">
+        <v>0</v>
+      </c>
+      <c r="G75" t="str">
+        <v>ok</v>
+      </c>
+      <c r="H75">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" t="str">
+        <v>TAB-1</v>
+      </c>
+      <c r="B76" t="str">
+        <v>https://palegoldenrod-ant-677872.hostingersite.com/basic_page/applied-biosystems-model-7000-real-time-thermalcycler/</v>
+      </c>
+      <c r="C76" t="str">
+        <v>https://palegoldenrod-ant-677872.hostingersite.com/chemistry/applied-biosystems-model-7000-real-time-thermalcycler/</v>
+      </c>
+      <c r="D76" t="b">
+        <v>1</v>
+      </c>
+      <c r="E76" t="str">
+        <v>https://www.youtube.com/user/SUNYGeneseo</v>
+      </c>
+      <c r="F76" t="b">
+        <v>0</v>
+      </c>
+      <c r="G76" t="str">
+        <v>ok</v>
+      </c>
+      <c r="H76">
+        <v>200</v>
       </c>
     </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:I6"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:I76"/>
   </ignoredErrors>
 </worksheet>
 </file>
--- a/test-artifacts/url-reports/validated-urls.xlsx
+++ b/test-artifacts/url-reports/validated-urls.xlsx
@@ -397,7 +397,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:I49"/>
+  <dimension ref="A1:I51"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -433,19 +433,19 @@
     </row>
     <row r="2">
       <c r="A2" t="str">
-        <v>TAB-4</v>
+        <v>B1-C1-T1</v>
       </c>
       <c r="B2" t="str">
-        <v>https://palegoldenrod-ant-677872.hostingersite.com/basic_page/209-description/</v>
+        <v>https://palegoldenrod-ant-677872.hostingersite.com/cas/dining-survey</v>
       </c>
       <c r="C2" t="str">
-        <v>https://palegoldenrod-ant-677872.hostingersite.com/209-description/</v>
+        <v>https://palegoldenrod-ant-677872.hostingersite.com/cas/dining-survey</v>
       </c>
       <c r="D2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E2" t="str">
-        <v>https://palegoldenrod-ant-677872.hostingersite.com/209-description/</v>
+        <v>https://palegoldenrod-ant-677872.hostingersite.com/cas/dining-survey</v>
       </c>
       <c r="F2" t="b">
         <v>1</v>
@@ -459,139 +459,175 @@
     </row>
     <row r="3">
       <c r="A3" t="str">
-        <v>TAB-4</v>
+        <v>B2-C1-T3</v>
       </c>
       <c r="B3" t="str">
-        <v>https://palegoldenrod-ant-677872.hostingersite.com/basic_page/209-description/</v>
+        <v>https://palegoldenrod-ant-677872.hostingersite.com/business/fed-challenge</v>
+      </c>
+      <c r="C3" t="str">
+        <v>https://palegoldenrod-ant-677872.hostingersite.com/business/fed-challenge</v>
+      </c>
+      <c r="D3" t="b">
+        <v>0</v>
       </c>
       <c r="E3" t="str">
-        <v>https://palegoldenrod-ant-677872.hostingersite.com/basic_page/209-description/</v>
+        <v>https://palegoldenrod-ant-677872.hostingersite.com/business/fed-challenge</v>
       </c>
       <c r="F3" t="b">
         <v>1</v>
       </c>
       <c r="G3" t="str">
-        <v>failed</v>
-      </c>
-      <c r="I3" t="str">
-        <v>page.evaluate: Target page, context or browser has been closed</v>
+        <v>ok</v>
+      </c>
+      <c r="H3">
+        <v>200</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="str">
-        <v>TAB-4</v>
+        <v>B2-C1-T2</v>
       </c>
       <c r="B4" t="str">
-        <v>https://palegoldenrod-ant-677872.hostingersite.com/basic_page/342-description/</v>
+        <v>https://palegoldenrod-ant-677872.hostingersite.com/business/internship-etiquette</v>
+      </c>
+      <c r="C4" t="str">
+        <v>https://palegoldenrod-ant-677872.hostingersite.com/business/internship-etiquette</v>
+      </c>
+      <c r="D4" t="b">
+        <v>0</v>
       </c>
       <c r="E4" t="str">
-        <v>https://palegoldenrod-ant-677872.hostingersite.com/basic_page/342-description/</v>
+        <v>https://palegoldenrod-ant-677872.hostingersite.com/business/internship-etiquette</v>
       </c>
       <c r="F4" t="b">
         <v>1</v>
       </c>
       <c r="G4" t="str">
-        <v>failed</v>
-      </c>
-      <c r="I4" t="str">
-        <v>page.goto: Target page, context or browser has been closed</v>
+        <v>ok</v>
+      </c>
+      <c r="H4">
+        <v>200</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="str">
-        <v>TAB-4</v>
+        <v>B1-C2-T2</v>
       </c>
       <c r="B5" t="str">
-        <v>https://palegoldenrod-ant-677872.hostingersite.com/basic_page/fall-2014-course-offerings/</v>
+        <v>https://palegoldenrod-ant-677872.hostingersite.com/cas/download-cas-mobile-app-image</v>
+      </c>
+      <c r="C5" t="str">
+        <v>https://palegoldenrod-ant-677872.hostingersite.com/cas/download-cas-mobile-app-image</v>
+      </c>
+      <c r="D5" t="b">
+        <v>0</v>
       </c>
       <c r="E5" t="str">
-        <v>https://palegoldenrod-ant-677872.hostingersite.com/basic_page/fall-2014-course-offerings/</v>
+        <v>https://palegoldenrod-ant-677872.hostingersite.com/cas/download-cas-mobile-app-image</v>
       </c>
       <c r="F5" t="b">
         <v>1</v>
       </c>
       <c r="G5" t="str">
-        <v>failed</v>
-      </c>
-      <c r="I5" t="str">
-        <v>page.goto: Target page, context or browser has been closed</v>
+        <v>ok</v>
+      </c>
+      <c r="H5">
+        <v>200</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="str">
-        <v>TAB-4</v>
+        <v>B2-C1-T1</v>
       </c>
       <c r="B6" t="str">
-        <v>https://palegoldenrod-ant-677872.hostingersite.com/basic_page/david-dennis/</v>
+        <v>https://palegoldenrod-ant-677872.hostingersite.com/career_development/faculty-resources</v>
+      </c>
+      <c r="C6" t="str">
+        <v>https://palegoldenrod-ant-677872.hostingersite.com/career_development/faculty-resources</v>
+      </c>
+      <c r="D6" t="b">
+        <v>0</v>
       </c>
       <c r="E6" t="str">
-        <v>https://palegoldenrod-ant-677872.hostingersite.com/basic_page/david-dennis/</v>
+        <v>https://palegoldenrod-ant-677872.hostingersite.com/career_development/faculty-resources</v>
       </c>
       <c r="F6" t="b">
         <v>1</v>
       </c>
       <c r="G6" t="str">
-        <v>failed</v>
-      </c>
-      <c r="I6" t="str">
-        <v>page.goto: Target page, context or browser has been closed</v>
+        <v>ok</v>
+      </c>
+      <c r="H6">
+        <v>200</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="str">
-        <v>TAB-4</v>
+        <v>B1-C1-T2</v>
       </c>
       <c r="B7" t="str">
-        <v>https://palegoldenrod-ant-677872.hostingersite.com/basic_page/biology_club/</v>
+        <v>https://palegoldenrod-ant-677872.hostingersite.com/cas/dining-green-overview-image</v>
+      </c>
+      <c r="C7" t="str">
+        <v>https://palegoldenrod-ant-677872.hostingersite.com/cas/dining-green-overview-image</v>
+      </c>
+      <c r="D7" t="b">
+        <v>0</v>
       </c>
       <c r="E7" t="str">
-        <v>https://palegoldenrod-ant-677872.hostingersite.com/basic_page/biology_club/</v>
+        <v>https://palegoldenrod-ant-677872.hostingersite.com/cas/dining-green-overview-image</v>
       </c>
       <c r="F7" t="b">
         <v>1</v>
       </c>
       <c r="G7" t="str">
-        <v>failed</v>
-      </c>
-      <c r="I7" t="str">
-        <v>page.goto: Target page, context or browser has been closed</v>
+        <v>ok</v>
+      </c>
+      <c r="H7">
+        <v>200</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="str">
-        <v>TAB-4</v>
+        <v>B2-C1-T1</v>
       </c>
       <c r="B8" t="str">
-        <v>https://palegoldenrod-ant-677872.hostingersite.com/basic_page/facstaff_grounds/</v>
+        <v>https://palegoldenrod-ant-677872.hostingersite.com/cas/local-vendors</v>
+      </c>
+      <c r="C8" t="str">
+        <v>https://palegoldenrod-ant-677872.hostingersite.com/cas/local-vendors</v>
+      </c>
+      <c r="D8" t="b">
+        <v>0</v>
       </c>
       <c r="E8" t="str">
-        <v>https://palegoldenrod-ant-677872.hostingersite.com/basic_page/facstaff_grounds/</v>
+        <v>https://palegoldenrod-ant-677872.hostingersite.com/cas/local-vendors</v>
       </c>
       <c r="F8" t="b">
         <v>1</v>
       </c>
       <c r="G8" t="str">
-        <v>failed</v>
-      </c>
-      <c r="I8" t="str">
-        <v>page.goto: Target page, context or browser has been closed</v>
+        <v>ok</v>
+      </c>
+      <c r="H8">
+        <v>200</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="str">
-        <v>TAB-1</v>
+        <v>B1-C2-T2</v>
       </c>
       <c r="B9" t="str">
-        <v>https://palegoldenrod-ant-677872.hostingersite.com/basic_page/applied-biosystems-model-7000-real-time-thermalcycler/</v>
+        <v>https://palegoldenrod-ant-677872.hostingersite.com/cas/roomreservation</v>
       </c>
       <c r="C9" t="str">
-        <v>https://palegoldenrod-ant-677872.hostingersite.com/chemistry/applied-biosystems-model-7000-real-time-thermalcycler/</v>
+        <v>https://palegoldenrod-ant-677872.hostingersite.com/cas/roomreservation</v>
       </c>
       <c r="D9" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E9" t="str">
-        <v>https://palegoldenrod-ant-677872.hostingersite.com/chemistry/applied-biosystems-model-7000-real-time-thermalcycler/</v>
+        <v>https://palegoldenrod-ant-677872.hostingersite.com/cas/roomreservation</v>
       </c>
       <c r="F9" t="b">
         <v>1</v>
@@ -605,139 +641,175 @@
     </row>
     <row r="10">
       <c r="A10" t="str">
-        <v>TAB-1</v>
+        <v>B2-C1-T1</v>
       </c>
       <c r="B10" t="str">
-        <v>https://palegoldenrod-ant-677872.hostingersite.com/basic_page/applied-biosystems-model-7000-real-time-thermalcycler/</v>
+        <v>https://palegoldenrod-ant-677872.hostingersite.com/chang/publications</v>
+      </c>
+      <c r="C10" t="str">
+        <v>https://palegoldenrod-ant-677872.hostingersite.com/chang/publications</v>
+      </c>
+      <c r="D10" t="b">
+        <v>0</v>
       </c>
       <c r="E10" t="str">
-        <v>https://palegoldenrod-ant-677872.hostingersite.com/basic_page/applied-biosystems-model-7000-real-time-thermalcycler/</v>
+        <v>https://palegoldenrod-ant-677872.hostingersite.com/chang/publications</v>
       </c>
       <c r="F10" t="b">
         <v>1</v>
       </c>
       <c r="G10" t="str">
-        <v>failed</v>
-      </c>
-      <c r="I10" t="str">
-        <v>page.evaluate: Target page, context or browser has been closed</v>
+        <v>ok</v>
+      </c>
+      <c r="H10">
+        <v>200</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="str">
-        <v>TAB-1</v>
+        <v>B2-C2-T3</v>
       </c>
       <c r="B11" t="str">
-        <v>https://palegoldenrod-ant-677872.hostingersite.com/basic_page/301-description/</v>
+        <v>https://palegoldenrod-ant-677872.hostingersite.com/business/4-1programs</v>
+      </c>
+      <c r="C11" t="str">
+        <v>https://palegoldenrod-ant-677872.hostingersite.com/business/4-1programs</v>
+      </c>
+      <c r="D11" t="b">
+        <v>0</v>
       </c>
       <c r="E11" t="str">
-        <v>https://palegoldenrod-ant-677872.hostingersite.com/basic_page/301-description/</v>
+        <v>https://palegoldenrod-ant-677872.hostingersite.com/business/4-1programs</v>
       </c>
       <c r="F11" t="b">
         <v>1</v>
       </c>
       <c r="G11" t="str">
-        <v>failed</v>
-      </c>
-      <c r="I11" t="str">
-        <v>page.goto: Target page, context or browser has been closed</v>
+        <v>ok</v>
+      </c>
+      <c r="H11">
+        <v>200</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="str">
-        <v>TAB-1</v>
+        <v>B1-C2-T2</v>
       </c>
       <c r="B12" t="str">
-        <v>https://palegoldenrod-ant-677872.hostingersite.com/basic_page/chemical-waste-procedures/</v>
+        <v>https://palegoldenrod-ant-677872.hostingersite.com/chemistry/coy-tempcyclerii-pcr-thermalcycler</v>
+      </c>
+      <c r="C12" t="str">
+        <v>https://palegoldenrod-ant-677872.hostingersite.com/chemistry/coy-tempcyclerii-pcr-thermalcycler</v>
+      </c>
+      <c r="D12" t="b">
+        <v>0</v>
       </c>
       <c r="E12" t="str">
-        <v>https://palegoldenrod-ant-677872.hostingersite.com/basic_page/chemical-waste-procedures/</v>
+        <v>https://palegoldenrod-ant-677872.hostingersite.com/chemistry/coy-tempcyclerii-pcr-thermalcycler</v>
       </c>
       <c r="F12" t="b">
         <v>1</v>
       </c>
       <c r="G12" t="str">
-        <v>failed</v>
-      </c>
-      <c r="I12" t="str">
-        <v>page.goto: Target page, context or browser has been closed</v>
+        <v>ok</v>
+      </c>
+      <c r="H12">
+        <v>200</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="str">
-        <v>TAB-1</v>
+        <v>B1-C2-T3</v>
       </c>
       <c r="B13" t="str">
-        <v>https://palegoldenrod-ant-677872.hostingersite.com/basic_page/beakers/</v>
+        <v>https://palegoldenrod-ant-677872.hostingersite.com/cas/dining-updates-spring-2022</v>
+      </c>
+      <c r="C13" t="str">
+        <v>https://palegoldenrod-ant-677872.hostingersite.com/cas/dining-updates-spring-2022</v>
+      </c>
+      <c r="D13" t="b">
+        <v>0</v>
       </c>
       <c r="E13" t="str">
-        <v>https://palegoldenrod-ant-677872.hostingersite.com/basic_page/beakers/</v>
+        <v>https://palegoldenrod-ant-677872.hostingersite.com/cas/dining-updates-spring-2022</v>
       </c>
       <c r="F13" t="b">
         <v>1</v>
       </c>
       <c r="G13" t="str">
-        <v>failed</v>
-      </c>
-      <c r="I13" t="str">
-        <v>page.goto: Target page, context or browser has been closed</v>
+        <v>ok</v>
+      </c>
+      <c r="H13">
+        <v>200</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="str">
-        <v>TAB-1</v>
+        <v>B2-C1-T2</v>
       </c>
       <c r="B14" t="str">
-        <v>https://palegoldenrod-ant-677872.hostingersite.com/basic_page/supervisor-survey-college-work-study-process/</v>
+        <v>https://palegoldenrod-ant-677872.hostingersite.com/cas/juice-bar-photo</v>
+      </c>
+      <c r="C14" t="str">
+        <v>https://palegoldenrod-ant-677872.hostingersite.com/cas/juice-bar-photo</v>
+      </c>
+      <c r="D14" t="b">
+        <v>0</v>
       </c>
       <c r="E14" t="str">
-        <v>https://palegoldenrod-ant-677872.hostingersite.com/basic_page/supervisor-survey-college-work-study-process/</v>
+        <v>https://palegoldenrod-ant-677872.hostingersite.com/cas/juice-bar-photo</v>
       </c>
       <c r="F14" t="b">
         <v>1</v>
       </c>
       <c r="G14" t="str">
-        <v>failed</v>
-      </c>
-      <c r="I14" t="str">
-        <v>page.goto: Target page, context or browser has been closed</v>
+        <v>ok</v>
+      </c>
+      <c r="H14">
+        <v>200</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="str">
-        <v>TAB-1</v>
+        <v>B2-C1-T1</v>
       </c>
       <c r="B15" t="str">
-        <v>https://palegoldenrod-ant-677872.hostingersite.com/basic_page/facilities_services/</v>
+        <v>https://palegoldenrod-ant-677872.hostingersite.com/chemistry/hp-5890-gcms</v>
+      </c>
+      <c r="C15" t="str">
+        <v>https://palegoldenrod-ant-677872.hostingersite.com/chemistry/hp-5890-gcms</v>
+      </c>
+      <c r="D15" t="b">
+        <v>0</v>
       </c>
       <c r="E15" t="str">
-        <v>https://palegoldenrod-ant-677872.hostingersite.com/basic_page/facilities_services/</v>
+        <v>https://palegoldenrod-ant-677872.hostingersite.com/chemistry/hp-5890-gcms</v>
       </c>
       <c r="F15" t="b">
         <v>1</v>
       </c>
       <c r="G15" t="str">
-        <v>failed</v>
-      </c>
-      <c r="I15" t="str">
-        <v>page.goto: Target page, context or browser has been closed</v>
+        <v>ok</v>
+      </c>
+      <c r="H15">
+        <v>200</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="str">
-        <v>TAB-5</v>
+        <v>B1-C2-T1</v>
       </c>
       <c r="B16" t="str">
-        <v>https://palegoldenrod-ant-677872.hostingersite.com/basic_page/216-description/</v>
+        <v>https://palegoldenrod-ant-677872.hostingersite.com/cas/expresslunch</v>
       </c>
       <c r="C16" t="str">
-        <v>https://palegoldenrod-ant-677872.hostingersite.com/216-description/</v>
+        <v>https://palegoldenrod-ant-677872.hostingersite.com/cas/expresslunch</v>
       </c>
       <c r="D16" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E16" t="str">
-        <v>https://palegoldenrod-ant-677872.hostingersite.com/216-description/</v>
+        <v>https://palegoldenrod-ant-677872.hostingersite.com/cas/expresslunch</v>
       </c>
       <c r="F16" t="b">
         <v>1</v>
@@ -751,139 +823,175 @@
     </row>
     <row r="17">
       <c r="A17" t="str">
-        <v>TAB-5</v>
+        <v>B1-C2-T3</v>
       </c>
       <c r="B17" t="str">
-        <v>https://palegoldenrod-ant-677872.hostingersite.com/basic_page/216-description/</v>
+        <v>https://palegoldenrod-ant-677872.hostingersite.com/cas/ramadan-menu</v>
+      </c>
+      <c r="C17" t="str">
+        <v>https://palegoldenrod-ant-677872.hostingersite.com/cas/ramadan-menu</v>
+      </c>
+      <c r="D17" t="b">
+        <v>0</v>
       </c>
       <c r="E17" t="str">
-        <v>https://palegoldenrod-ant-677872.hostingersite.com/basic_page/216-description/</v>
+        <v>https://palegoldenrod-ant-677872.hostingersite.com/cas/ramadan-menu</v>
       </c>
       <c r="F17" t="b">
         <v>1</v>
       </c>
       <c r="G17" t="str">
-        <v>failed</v>
-      </c>
-      <c r="I17" t="str">
-        <v>page.evaluate: Target page, context or browser has been closed</v>
+        <v>ok</v>
+      </c>
+      <c r="H17">
+        <v>200</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="str">
-        <v>TAB-5</v>
+        <v>B1-C1-T2</v>
       </c>
       <c r="B18" t="str">
-        <v>https://palegoldenrod-ant-677872.hostingersite.com/basic_page/361-description/</v>
+        <v>https://palegoldenrod-ant-677872.hostingersite.com/cas/online-ordering-faq</v>
+      </c>
+      <c r="C18" t="str">
+        <v>https://palegoldenrod-ant-677872.hostingersite.com/cas/online-ordering-faq</v>
+      </c>
+      <c r="D18" t="b">
+        <v>0</v>
       </c>
       <c r="E18" t="str">
-        <v>https://palegoldenrod-ant-677872.hostingersite.com/basic_page/361-description/</v>
+        <v>https://palegoldenrod-ant-677872.hostingersite.com/cas/online-ordering-faq</v>
       </c>
       <c r="F18" t="b">
         <v>1</v>
       </c>
       <c r="G18" t="str">
-        <v>failed</v>
-      </c>
-      <c r="I18" t="str">
-        <v>page.goto: Target page, context or browser has been closed</v>
+        <v>ok</v>
+      </c>
+      <c r="H18">
+        <v>200</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="str">
-        <v>TAB-5</v>
+        <v>B2-C2-T2</v>
       </c>
       <c r="B19" t="str">
-        <v>https://palegoldenrod-ant-677872.hostingersite.com/basic_page/julian-bond/</v>
+        <v>https://palegoldenrod-ant-677872.hostingersite.com/business/accounting-related-internships</v>
+      </c>
+      <c r="C19" t="str">
+        <v>https://palegoldenrod-ant-677872.hostingersite.com/business/accounting-related-internships</v>
+      </c>
+      <c r="D19" t="b">
+        <v>0</v>
       </c>
       <c r="E19" t="str">
-        <v>https://palegoldenrod-ant-677872.hostingersite.com/basic_page/julian-bond/</v>
+        <v>https://palegoldenrod-ant-677872.hostingersite.com/business/accounting-related-internships</v>
       </c>
       <c r="F19" t="b">
         <v>1</v>
       </c>
       <c r="G19" t="str">
-        <v>failed</v>
-      </c>
-      <c r="I19" t="str">
-        <v>page.goto: Target page, context or browser has been closed</v>
+        <v>ok</v>
+      </c>
+      <c r="H19">
+        <v>200</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="str">
-        <v>TAB-5</v>
+        <v>B1-C2-T1</v>
       </c>
       <c r="B20" t="str">
-        <v>https://palegoldenrod-ant-677872.hostingersite.com/basic_page/anticipated-enrollment-questionaire/</v>
+        <v>https://palegoldenrod-ant-677872.hostingersite.com/cas/starbucks-allergen-options</v>
+      </c>
+      <c r="C20" t="str">
+        <v>https://palegoldenrod-ant-677872.hostingersite.com/cas/starbucks-allergen-options</v>
+      </c>
+      <c r="D20" t="b">
+        <v>0</v>
       </c>
       <c r="E20" t="str">
-        <v>https://palegoldenrod-ant-677872.hostingersite.com/basic_page/anticipated-enrollment-questionaire/</v>
+        <v>https://palegoldenrod-ant-677872.hostingersite.com/cas/starbucks-allergen-options</v>
       </c>
       <c r="F20" t="b">
         <v>1</v>
       </c>
       <c r="G20" t="str">
-        <v>failed</v>
-      </c>
-      <c r="I20" t="str">
-        <v>page.goto: Target page, context or browser has been closed</v>
+        <v>ok</v>
+      </c>
+      <c r="H20">
+        <v>200</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="str">
-        <v>TAB-5</v>
+        <v>B1-C1-T2</v>
       </c>
       <c r="B21" t="str">
-        <v>https://palegoldenrod-ant-677872.hostingersite.com/basic_page/roemer-arboretum-operations-assistant-position/</v>
+        <v>https://palegoldenrod-ant-677872.hostingersite.com/chemistry/chemical-waste-procedure-lis</v>
+      </c>
+      <c r="C21" t="str">
+        <v>https://palegoldenrod-ant-677872.hostingersite.com/chemistry/chemical-waste-procedure-lis</v>
+      </c>
+      <c r="D21" t="b">
+        <v>0</v>
       </c>
       <c r="E21" t="str">
-        <v>https://palegoldenrod-ant-677872.hostingersite.com/basic_page/roemer-arboretum-operations-assistant-position/</v>
+        <v>https://palegoldenrod-ant-677872.hostingersite.com/chemistry/chemical-waste-procedure-lis</v>
       </c>
       <c r="F21" t="b">
         <v>1</v>
       </c>
       <c r="G21" t="str">
-        <v>failed</v>
-      </c>
-      <c r="I21" t="str">
-        <v>page.goto: Target page, context or browser has been closed</v>
+        <v>ok</v>
+      </c>
+      <c r="H21">
+        <v>200</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="str">
-        <v>TAB-5</v>
+        <v>B1-C2-T3</v>
       </c>
       <c r="B22" t="str">
-        <v>https://palegoldenrod-ant-677872.hostingersite.com/basic_page/funnels/</v>
+        <v>https://palegoldenrod-ant-677872.hostingersite.com/chemistry/chemistry-research-project-videos</v>
+      </c>
+      <c r="C22" t="str">
+        <v>https://palegoldenrod-ant-677872.hostingersite.com/chemistry/chemistry-research-project-videos</v>
+      </c>
+      <c r="D22" t="b">
+        <v>0</v>
       </c>
       <c r="E22" t="str">
-        <v>https://palegoldenrod-ant-677872.hostingersite.com/basic_page/funnels/</v>
+        <v>https://palegoldenrod-ant-677872.hostingersite.com/chemistry/chemistry-research-project-videos</v>
       </c>
       <c r="F22" t="b">
         <v>1</v>
       </c>
       <c r="G22" t="str">
-        <v>failed</v>
-      </c>
-      <c r="I22" t="str">
-        <v>page.goto: Target page, context or browser has been closed</v>
+        <v>ok</v>
+      </c>
+      <c r="H22">
+        <v>200</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="str">
-        <v>TAB-3</v>
+        <v>B1-C2-T1</v>
       </c>
       <c r="B23" t="str">
-        <v>https://palegoldenrod-ant-677872.hostingersite.com/basic_page/119-description/</v>
+        <v>https://palegoldenrod-ant-677872.hostingersite.com/chemistry/diversity-equity-and-inclusion-geneseo-chemistry</v>
       </c>
       <c r="C23" t="str">
-        <v>https://palegoldenrod-ant-677872.hostingersite.com/119-description/</v>
+        <v>https://palegoldenrod-ant-677872.hostingersite.com/chemistry/diversity-equity-and-inclusion-geneseo-chemistry</v>
       </c>
       <c r="D23" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E23" t="str">
-        <v>https://palegoldenrod-ant-677872.hostingersite.com/119-description/</v>
+        <v>https://palegoldenrod-ant-677872.hostingersite.com/chemistry/diversity-equity-and-inclusion-geneseo-chemistry</v>
       </c>
       <c r="F23" t="b">
         <v>1</v>
@@ -897,139 +1005,175 @@
     </row>
     <row r="24">
       <c r="A24" t="str">
-        <v>TAB-3</v>
+        <v>B2-C2-T1</v>
       </c>
       <c r="B24" t="str">
-        <v>https://palegoldenrod-ant-677872.hostingersite.com/basic_page/119-description/</v>
+        <v>https://palegoldenrod-ant-677872.hostingersite.com/business/appeal-process-school-business-admission-denials</v>
+      </c>
+      <c r="C24" t="str">
+        <v>https://palegoldenrod-ant-677872.hostingersite.com/business/appeal-process-school-business-admission-denials</v>
+      </c>
+      <c r="D24" t="b">
+        <v>0</v>
       </c>
       <c r="E24" t="str">
-        <v>https://palegoldenrod-ant-677872.hostingersite.com/basic_page/119-description/</v>
+        <v>https://palegoldenrod-ant-677872.hostingersite.com/business/appeal-process-school-business-admission-denials</v>
       </c>
       <c r="F24" t="b">
         <v>1</v>
       </c>
       <c r="G24" t="str">
-        <v>failed</v>
-      </c>
-      <c r="I24" t="str">
-        <v>page.evaluate: Target page, context or browser has been closed</v>
+        <v>ok</v>
+      </c>
+      <c r="H24">
+        <v>200</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="str">
-        <v>TAB-3</v>
+        <v>B1-C2-T1</v>
       </c>
       <c r="B25" t="str">
-        <v>https://palegoldenrod-ant-677872.hostingersite.com/basic_page/331-description/</v>
+        <v>https://palegoldenrod-ant-677872.hostingersite.com/chemistry/phastsystem-electrophoresis</v>
+      </c>
+      <c r="C25" t="str">
+        <v>https://palegoldenrod-ant-677872.hostingersite.com/chemistry/phastsystem-electrophoresis</v>
+      </c>
+      <c r="D25" t="b">
+        <v>0</v>
       </c>
       <c r="E25" t="str">
-        <v>https://palegoldenrod-ant-677872.hostingersite.com/basic_page/331-description/</v>
+        <v>https://palegoldenrod-ant-677872.hostingersite.com/chemistry/phastsystem-electrophoresis</v>
       </c>
       <c r="F25" t="b">
         <v>1</v>
       </c>
       <c r="G25" t="str">
-        <v>failed</v>
-      </c>
-      <c r="I25" t="str">
-        <v>page.goto: Target page, context or browser has been closed</v>
+        <v>ok</v>
+      </c>
+      <c r="H25">
+        <v>200</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="str">
-        <v>TAB-3</v>
+        <v>B1-C1-T3</v>
       </c>
       <c r="B26" t="str">
-        <v>https://palegoldenrod-ant-677872.hostingersite.com/basic_page/past-course-offerings/</v>
+        <v>https://palegoldenrod-ant-677872.hostingersite.com/cas/board-directors-info</v>
+      </c>
+      <c r="C26" t="str">
+        <v>https://palegoldenrod-ant-677872.hostingersite.com/cas/board-directors-info</v>
+      </c>
+      <c r="D26" t="b">
+        <v>0</v>
       </c>
       <c r="E26" t="str">
-        <v>https://palegoldenrod-ant-677872.hostingersite.com/basic_page/past-course-offerings/</v>
+        <v>https://palegoldenrod-ant-677872.hostingersite.com/cas/board-directors-info</v>
       </c>
       <c r="F26" t="b">
         <v>1</v>
       </c>
       <c r="G26" t="str">
-        <v>failed</v>
-      </c>
-      <c r="I26" t="str">
-        <v>page.goto: Target page, context or browser has been closed</v>
+        <v>ok</v>
+      </c>
+      <c r="H26">
+        <v>200</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="str">
-        <v>TAB-3</v>
+        <v>B1-C1-T1</v>
       </c>
       <c r="B27" t="str">
-        <v>https://palegoldenrod-ant-677872.hostingersite.com/basic_page/charles-cobb/</v>
+        <v>https://palegoldenrod-ant-677872.hostingersite.com/cas/paintknight</v>
+      </c>
+      <c r="C27" t="str">
+        <v>https://palegoldenrod-ant-677872.hostingersite.com/cas/paintknight</v>
+      </c>
+      <c r="D27" t="b">
+        <v>0</v>
       </c>
       <c r="E27" t="str">
-        <v>https://palegoldenrod-ant-677872.hostingersite.com/basic_page/charles-cobb/</v>
+        <v>https://palegoldenrod-ant-677872.hostingersite.com/cas/paintknight</v>
       </c>
       <c r="F27" t="b">
         <v>1</v>
       </c>
       <c r="G27" t="str">
-        <v>failed</v>
-      </c>
-      <c r="I27" t="str">
-        <v>page.goto: Target page, context or browser has been closed</v>
+        <v>ok</v>
+      </c>
+      <c r="H27">
+        <v>200</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="str">
-        <v>TAB-3</v>
+        <v>B2-C2-T3</v>
       </c>
       <c r="B28" t="str">
-        <v>https://palegoldenrod-ant-677872.hostingersite.com/basic_page/exit-counseling-session-registration/</v>
+        <v>https://palegoldenrod-ant-677872.hostingersite.com/cas/feast-thrones</v>
+      </c>
+      <c r="C28" t="str">
+        <v>https://palegoldenrod-ant-677872.hostingersite.com/cas/feast-thrones</v>
+      </c>
+      <c r="D28" t="b">
+        <v>0</v>
       </c>
       <c r="E28" t="str">
-        <v>https://palegoldenrod-ant-677872.hostingersite.com/basic_page/exit-counseling-session-registration/</v>
+        <v>https://palegoldenrod-ant-677872.hostingersite.com/cas/feast-thrones</v>
       </c>
       <c r="F28" t="b">
         <v>1</v>
       </c>
       <c r="G28" t="str">
-        <v>failed</v>
-      </c>
-      <c r="I28" t="str">
-        <v>page.goto: Target page, context or browser has been closed</v>
+        <v>ok</v>
+      </c>
+      <c r="H28">
+        <v>200</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="str">
-        <v>TAB-3</v>
+        <v>B1-C1-T3</v>
       </c>
       <c r="B29" t="str">
-        <v>https://palegoldenrod-ant-677872.hostingersite.com/basic_page/chem-105-sds/</v>
+        <v>https://palegoldenrod-ant-677872.hostingersite.com/cas/ocotal-coffee</v>
+      </c>
+      <c r="C29" t="str">
+        <v>https://palegoldenrod-ant-677872.hostingersite.com/cas/ocotal-coffee</v>
+      </c>
+      <c r="D29" t="b">
+        <v>0</v>
       </c>
       <c r="E29" t="str">
-        <v>https://palegoldenrod-ant-677872.hostingersite.com/basic_page/chem-105-sds/</v>
+        <v>https://palegoldenrod-ant-677872.hostingersite.com/cas/ocotal-coffee</v>
       </c>
       <c r="F29" t="b">
         <v>1</v>
       </c>
       <c r="G29" t="str">
-        <v>failed</v>
-      </c>
-      <c r="I29" t="str">
-        <v>page.goto: Target page, context or browser has been closed</v>
+        <v>ok</v>
+      </c>
+      <c r="H29">
+        <v>200</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="str">
-        <v>TAB-2</v>
+        <v>B2-C2-T3</v>
       </c>
       <c r="B30" t="str">
-        <v>https://palegoldenrod-ant-677872.hostingersite.com/basic_page/105-description/</v>
+        <v>https://palegoldenrod-ant-677872.hostingersite.com/cas/supporting-geneseo</v>
       </c>
       <c r="C30" t="str">
-        <v>https://palegoldenrod-ant-677872.hostingersite.com/105-description/</v>
+        <v>https://palegoldenrod-ant-677872.hostingersite.com/cas/supporting-geneseo</v>
       </c>
       <c r="D30" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E30" t="str">
-        <v>https://palegoldenrod-ant-677872.hostingersite.com/105-description/</v>
+        <v>https://palegoldenrod-ant-677872.hostingersite.com/cas/supporting-geneseo</v>
       </c>
       <c r="F30" t="b">
         <v>1</v>
@@ -1043,22 +1187,22 @@
     </row>
     <row r="31">
       <c r="A31" t="str">
-        <v>TAB-2</v>
+        <v>B1-C1-T1</v>
       </c>
       <c r="B31" t="str">
-        <v>https://palegoldenrod-ant-677872.hostingersite.com/basic_page/105-description/</v>
+        <v>https://palegoldenrod-ant-677872.hostingersite.com/chemistry/chemical-waste-procedures</v>
       </c>
       <c r="C31" t="str">
-        <v>https://palegoldenrod-ant-677872.hostingersite.com/105-description/</v>
+        <v>https://palegoldenrod-ant-677872.hostingersite.com/chemistry/chemical-waste-procedures</v>
       </c>
       <c r="D31" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E31" t="str">
-        <v>https://palegoldenrod-ant-677872.hostingersite.com/wp-admin/about.php</v>
+        <v>https://palegoldenrod-ant-677872.hostingersite.com/chemistry/chemical-waste-procedures</v>
       </c>
       <c r="F31" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G31" t="str">
         <v>ok</v>
@@ -1067,50 +1211,53 @@
         <v>200</v>
       </c>
     </row>
-    <row r="32">
+    <row r="32" xml:space="preserve">
       <c r="A32" t="str">
-        <v>TAB-2</v>
+        <v>B2-C1-T3</v>
       </c>
       <c r="B32" t="str">
-        <v>https://palegoldenrod-ant-677872.hostingersite.com/basic_page/105-description/</v>
+        <v>https://palegoldenrod-ant-677872.hostingersite.com/cas/hourly-employment</v>
       </c>
       <c r="C32" t="str">
-        <v>https://palegoldenrod-ant-677872.hostingersite.com/105-description/</v>
+        <v>https://palegoldenrod-ant-677872.hostingersite.com/business/fed-challenge</v>
       </c>
       <c r="D32" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E32" t="str">
-        <v>https://palegoldenrod-ant-677872.hostingersite.com/wp-admin/contribute.php</v>
+        <v>https://palegoldenrod-ant-677872.hostingersite.com/cas/hourly-employment</v>
       </c>
       <c r="F32" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G32" t="str">
-        <v>ok</v>
-      </c>
-      <c r="H32">
-        <v>200</v>
+        <v>failed</v>
+      </c>
+      <c r="I32" t="str" xml:space="preserve">
+        <v xml:space="preserve">page.goto: Timeout 180000ms exceeded.
+Call log:
+_x001b_[2m  - navigating to "https://palegoldenrod-ant-677872.hostingersite.com/cas/hourly-employment", waiting until "domcontentloaded"_x001b_[22m
+</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="str">
-        <v>TAB-2</v>
+        <v>B2-C2-T2</v>
       </c>
       <c r="B33" t="str">
-        <v>https://palegoldenrod-ant-677872.hostingersite.com/basic_page/105-description/</v>
+        <v>https://palegoldenrod-ant-677872.hostingersite.com/cas/gf-banner</v>
       </c>
       <c r="C33" t="str">
-        <v>https://palegoldenrod-ant-677872.hostingersite.com/105-description/</v>
+        <v>https://palegoldenrod-ant-677872.hostingersite.com/cas/gf-banner</v>
       </c>
       <c r="D33" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E33" t="str">
-        <v>https://wordpress.org/</v>
+        <v>https://palegoldenrod-ant-677872.hostingersite.com/cas/gf-banner</v>
       </c>
       <c r="F33" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G33" t="str">
         <v>ok</v>
@@ -1121,22 +1268,22 @@
     </row>
     <row r="34">
       <c r="A34" t="str">
-        <v>TAB-2</v>
+        <v>B2-C1-T3</v>
       </c>
       <c r="B34" t="str">
-        <v>https://palegoldenrod-ant-677872.hostingersite.com/basic_page/105-description/</v>
+        <v>https://palegoldenrod-ant-677872.hostingersite.com/cas/winter-break-information</v>
       </c>
       <c r="C34" t="str">
-        <v>https://palegoldenrod-ant-677872.hostingersite.com/105-description/</v>
+        <v>https://palegoldenrod-ant-677872.hostingersite.com/cas/winter-break-information</v>
       </c>
       <c r="D34" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E34" t="str">
-        <v>https://wordpress.org/documentation/</v>
+        <v>https://palegoldenrod-ant-677872.hostingersite.com/cas/winter-break-information</v>
       </c>
       <c r="F34" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G34" t="str">
         <v>ok</v>
@@ -1147,22 +1294,22 @@
     </row>
     <row r="35">
       <c r="A35" t="str">
-        <v>TAB-2</v>
+        <v>B2-C2-T3</v>
       </c>
       <c r="B35" t="str">
-        <v>https://palegoldenrod-ant-677872.hostingersite.com/basic_page/105-description/</v>
+        <v>https://palegoldenrod-ant-677872.hostingersite.com/chemistry/donations-chemistry-department</v>
       </c>
       <c r="C35" t="str">
-        <v>https://palegoldenrod-ant-677872.hostingersite.com/105-description/</v>
+        <v>https://palegoldenrod-ant-677872.hostingersite.com/chemistry/donations-chemistry-department</v>
       </c>
       <c r="D35" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E35" t="str">
-        <v>https://learn.wordpress.org/</v>
+        <v>https://palegoldenrod-ant-677872.hostingersite.com/chemistry/donations-chemistry-department</v>
       </c>
       <c r="F35" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G35" t="str">
         <v>ok</v>
@@ -1173,22 +1320,22 @@
     </row>
     <row r="36">
       <c r="A36" t="str">
-        <v>TAB-2</v>
+        <v>B1-C2-T3</v>
       </c>
       <c r="B36" t="str">
-        <v>https://palegoldenrod-ant-677872.hostingersite.com/basic_page/105-description/</v>
+        <v>https://palegoldenrod-ant-677872.hostingersite.com/chemistry/nmr-software-tutorial-vnmj</v>
       </c>
       <c r="C36" t="str">
-        <v>https://palegoldenrod-ant-677872.hostingersite.com/105-description/</v>
+        <v>https://palegoldenrod-ant-677872.hostingersite.com/chemistry/nmr-software-tutorial-vnmj</v>
       </c>
       <c r="D36" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E36" t="str">
-        <v>https://wordpress.org/support/forums/</v>
+        <v>https://palegoldenrod-ant-677872.hostingersite.com/chemistry/nmr-software-tutorial-vnmj</v>
       </c>
       <c r="F36" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G36" t="str">
         <v>ok</v>
@@ -1199,22 +1346,22 @@
     </row>
     <row r="37">
       <c r="A37" t="str">
-        <v>TAB-2</v>
+        <v>B1-C1-T1</v>
       </c>
       <c r="B37" t="str">
-        <v>https://palegoldenrod-ant-677872.hostingersite.com/basic_page/105-description/</v>
+        <v>https://palegoldenrod-ant-677872.hostingersite.com/chemistry/news</v>
       </c>
       <c r="C37" t="str">
-        <v>https://palegoldenrod-ant-677872.hostingersite.com/105-description/</v>
+        <v>https://palegoldenrod-ant-677872.hostingersite.com/chemistry/news</v>
       </c>
       <c r="D37" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E37" t="str">
-        <v>https://wordpress.org/support/forum/requests-and-feedback</v>
+        <v>https://palegoldenrod-ant-677872.hostingersite.com/chemistry/news</v>
       </c>
       <c r="F37" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G37" t="str">
         <v>ok</v>
@@ -1225,22 +1372,22 @@
     </row>
     <row r="38">
       <c r="A38" t="str">
-        <v>TAB-2</v>
+        <v>B2-C1-T3</v>
       </c>
       <c r="B38" t="str">
-        <v>https://palegoldenrod-ant-677872.hostingersite.com/basic_page/105-description/</v>
+        <v>https://palegoldenrod-ant-677872.hostingersite.com/chemistry/h-cristina-geiger-publications</v>
       </c>
       <c r="C38" t="str">
-        <v>https://palegoldenrod-ant-677872.hostingersite.com/105-description/</v>
+        <v>https://palegoldenrod-ant-677872.hostingersite.com/chemistry/h-cristina-geiger-publications</v>
       </c>
       <c r="D38" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E38" t="str">
-        <v>https://palegoldenrod-ant-677872.hostingersite.com/wp-admin/</v>
+        <v>https://palegoldenrod-ant-677872.hostingersite.com/chemistry/h-cristina-geiger-publications</v>
       </c>
       <c r="F38" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G38" t="str">
         <v>ok</v>
@@ -1251,22 +1398,22 @@
     </row>
     <row r="39">
       <c r="A39" t="str">
-        <v>TAB-2</v>
+        <v>B1-C1-T2</v>
       </c>
       <c r="B39" t="str">
-        <v>https://palegoldenrod-ant-677872.hostingersite.com/basic_page/105-description/</v>
+        <v>https://palegoldenrod-ant-677872.hostingersite.com/chemistry/ndyag-laser-pumped-optical-parametric-oscillator-opo</v>
       </c>
       <c r="C39" t="str">
-        <v>https://palegoldenrod-ant-677872.hostingersite.com/105-description/</v>
+        <v>https://palegoldenrod-ant-677872.hostingersite.com/chemistry/ndyag-laser-pumped-optical-parametric-oscillator-opo</v>
       </c>
       <c r="D39" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E39" t="str">
-        <v>https://palegoldenrod-ant-677872.hostingersite.com/wp-admin/plugins.php</v>
+        <v>https://palegoldenrod-ant-677872.hostingersite.com/chemistry/ndyag-laser-pumped-optical-parametric-oscillator-opo</v>
       </c>
       <c r="F39" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G39" t="str">
         <v>ok</v>
@@ -1277,22 +1424,22 @@
     </row>
     <row r="40">
       <c r="A40" t="str">
-        <v>TAB-2</v>
+        <v>B1-C2-T2</v>
       </c>
       <c r="B40" t="str">
-        <v>https://palegoldenrod-ant-677872.hostingersite.com/basic_page/105-description/</v>
+        <v>https://palegoldenrod-ant-677872.hostingersite.com/chemistry/past_news</v>
       </c>
       <c r="C40" t="str">
-        <v>https://palegoldenrod-ant-677872.hostingersite.com/105-description/</v>
+        <v>https://palegoldenrod-ant-677872.hostingersite.com/chemistry/past_news</v>
       </c>
       <c r="D40" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E40" t="str">
-        <v>https://palegoldenrod-ant-677872.hostingersite.com/wp-admin/admin.php?page=simple_history_admin_menu_page</v>
+        <v>https://palegoldenrod-ant-677872.hostingersite.com/chemistry/past_news</v>
       </c>
       <c r="F40" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G40" t="str">
         <v>ok</v>
@@ -1303,22 +1450,22 @@
     </row>
     <row r="41">
       <c r="A41" t="str">
-        <v>TAB-2</v>
+        <v>B2-C2-T1</v>
       </c>
       <c r="B41" t="str">
-        <v>https://palegoldenrod-ant-677872.hostingersite.com/basic_page/105-description/</v>
+        <v>https://palegoldenrod-ant-677872.hostingersite.com/cas/hertz-steps</v>
       </c>
       <c r="C41" t="str">
-        <v>https://palegoldenrod-ant-677872.hostingersite.com/105-description/</v>
+        <v>https://palegoldenrod-ant-677872.hostingersite.com/cas/hertz-steps</v>
       </c>
       <c r="D41" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E41" t="str">
-        <v>https://palegoldenrod-ant-677872.hostingersite.com/wp-admin/themes.php</v>
+        <v>https://palegoldenrod-ant-677872.hostingersite.com/cas/hertz-steps</v>
       </c>
       <c r="F41" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G41" t="str">
         <v>ok</v>
@@ -1329,22 +1476,22 @@
     </row>
     <row r="42">
       <c r="A42" t="str">
-        <v>TAB-2</v>
+        <v>B2-C2-T3</v>
       </c>
       <c r="B42" t="str">
-        <v>https://palegoldenrod-ant-677872.hostingersite.com/basic_page/105-description/</v>
+        <v>https://palegoldenrod-ant-677872.hostingersite.com/chemistry/prospective_students</v>
       </c>
       <c r="C42" t="str">
-        <v>https://palegoldenrod-ant-677872.hostingersite.com/105-description/</v>
+        <v>https://palegoldenrod-ant-677872.hostingersite.com/chemistry/prospective_students</v>
       </c>
       <c r="D42" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E42" t="str">
-        <v>https://palegoldenrod-ant-677872.hostingersite.com/wp-admin/widgets.php</v>
+        <v>https://palegoldenrod-ant-677872.hostingersite.com/chemistry/prospective_students</v>
       </c>
       <c r="F42" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G42" t="str">
         <v>ok</v>
@@ -1353,182 +1500,246 @@
         <v>200</v>
       </c>
     </row>
-    <row r="43">
+    <row r="43" xml:space="preserve">
       <c r="A43" t="str">
-        <v>TAB-2</v>
+        <v>B2-C1-T2</v>
       </c>
       <c r="B43" t="str">
-        <v>https://palegoldenrod-ant-677872.hostingersite.com/basic_page/105-description/</v>
+        <v>https://palegoldenrod-ant-677872.hostingersite.com/cdl/digital-humanities</v>
       </c>
       <c r="C43" t="str">
-        <v>https://palegoldenrod-ant-677872.hostingersite.com/105-description/</v>
+        <v>https://palegoldenrod-ant-677872.hostingersite.com/cas/juice-bar-photo</v>
       </c>
       <c r="D43" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E43" t="str">
-        <v>https://palegoldenrod-ant-677872.hostingersite.com/wp-admin/nav-menus.php</v>
+        <v>https://palegoldenrod-ant-677872.hostingersite.com/cdl/digital-humanities</v>
       </c>
       <c r="F43" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G43" t="str">
-        <v>ok</v>
-      </c>
-      <c r="H43">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="44" xml:space="preserve">
+        <v>failed</v>
+      </c>
+      <c r="I43" t="str" xml:space="preserve">
+        <v xml:space="preserve">page.goto: Timeout 180000ms exceeded.
+Call log:
+_x001b_[2m  - navigating to "https://palegoldenrod-ant-677872.hostingersite.com/cdl/digital-humanities", waiting until "domcontentloaded"_x001b_[22m
+</v>
+      </c>
+    </row>
+    <row r="44">
       <c r="A44" t="str">
-        <v>TAB-2</v>
+        <v>B1-C1-T3</v>
       </c>
       <c r="B44" t="str">
-        <v>https://palegoldenrod-ant-677872.hostingersite.com/basic_page/105-description/</v>
+        <v>https://palegoldenrod-ant-677872.hostingersite.com/chemistry/brucker-avance-dpx-300-nmr-spectrometer</v>
+      </c>
+      <c r="C44" t="str">
+        <v>https://palegoldenrod-ant-677872.hostingersite.com/chemistry/brucker-avance-dpx-300-nmr-spectrometer</v>
+      </c>
+      <c r="D44" t="b">
+        <v>0</v>
       </c>
       <c r="E44" t="str">
-        <v>https://palegoldenrod-ant-677872.hostingersite.com/basic_page/105-description/</v>
+        <v>https://palegoldenrod-ant-677872.hostingersite.com/chemistry/brucker-avance-dpx-300-nmr-spectrometer</v>
       </c>
       <c r="F44" t="b">
         <v>1</v>
       </c>
       <c r="G44" t="str">
-        <v>failed</v>
-      </c>
-      <c r="I44" t="str" xml:space="preserve">
-        <v xml:space="preserve">apiRequestContext.get: Request context disposed.
-Call log:
-_x001b_[2m  - → GET https://palegoldenrod-ant-677872.hostingersite.com/wp-admin/customize.php?url=https://palegoldenrod-ant-677872.hostingersite.com/105-description/_x001b_[22m
-_x001b_[2m    - user-agent: Mozilla/5.0 (Windows NT 10.0; Win64; x64) AppleWebKit/537.36 (KHTML, like Gecko) Chrome/140.0.7339.16 Safari/537.36_x001b_[22m
-_x001b_[2m    - accept: */*_x001b_[22m
-_x001b_[2m    - accept-encoding: gzip,deflate,br_x001b_[22m
-_x001b_[2m    - cookie: wordpress_sec_e7686b605433b6cabb072ac7f6af68b5=amit.kaushal%40infostride.com%7C1759903905%7CNMiAjexxk5gqjcBZEWZ7hzFc3kjdNmHtDjGQeDLGmlu%7C7842ea932ef361bee5a6cf362ee0a6f21ff8a8e2068dfc660e6d926ddc1d03d2; hcdn=AQEA7Z50zo1WmNFjoUBrt1un8k4R3Eth4W7CgdjrzQI9jHqfXeNoAAAAAAAQAQDhx6UaRFWAJLIbX9dMwStuAAAA3mvFcxRMqv3jZ7XVOPNJYQ; PHPSESSID=tmuk6fkj8elg4s1g1q8bafsvt2; wordpress_test_cookie=WP%20Cookie%20check; wordpress_logged_in_e7686b605433b6cabb072ac7f6af68b5=amit.kaushal%40infostride.com%7C1759903905%7CNMiAjexxk5gqjcBZEWZ7hzFc3kjdNmHtDjGQeDLGmlu%7C4fe16b92984be246d057e1c9995ae4c62f1f08130d858b433ee35f5aee042c2a; wp-settings-2=libraryContent%3Dbrowse%26posts_list_mode%3Dlist; wp-settings-time-2=1759731106_x001b_[22m
-_x001b_[2m  - ← 200 OK_x001b_[22m
-_x001b_[2m    - date: Mon, 06 Oct 2025 06:13:03 GMT_x001b_[22m
-_x001b_[2m    - content-type: text/html; charset=UTF-8_x001b_[22m
-_x001b_[2m    - transfer-encoding: chunked_x001b_[22m
-_x001b_[2m    - connection: keep-alive_x001b_[22m
-_x001b_[2m    - vary: Accept-Encoding_x001b_[22m
-_x001b_[2m    - x-powered-by: PHP/8.2.27_x001b_[22m
-_x001b_[2m    - pragma: no-cache_x001b_[22m
-_x001b_[2m    - expires: Wed, 11 Jan 1984 05:00:00 GMT_x001b_[22m
-_x001b_[2m    - cache-control: no-cache, must-revalidate, max-age=0, no-store, private_x001b_[22m
-_x001b_[2m    - referrer-policy: strict-origin-when-cross-origin_x001b_[22m
-_x001b_[2m    - x-frame-options: SAMEORIGIN_x001b_[22m
-_x001b_[2m    - platform: hostinger_x001b_[22m
-_x001b_[2m    - panel: hpanel_x001b_[22m
-_x001b_[2m    - content-security-policy: upgrade-insecure-requests_x001b_[22m
-_x001b_[2m    - server: hcdn_x001b_[22m
-_x001b_[2m    - x-hcdn-request-id: 76696b6915336713db482f736bf6ebfe-mum-edge9_x001b_[22m
-_x001b_[2m    - x-hcdn-cache-status: DYNAMIC_x001b_[22m
-_x001b_[2m    - x-hcdn-upstream-rt: 1.765_x001b_[22m
-_x001b_[2m    - content-encoding: br_x001b_[22m
-</v>
+        <v>ok</v>
+      </c>
+      <c r="H44">
+        <v>200</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="str">
-        <v>TAB-2</v>
+        <v>B2-C2-T2</v>
       </c>
       <c r="B45" t="str">
-        <v>https://palegoldenrod-ant-677872.hostingersite.com/basic_page/313-description/</v>
+        <v>https://palegoldenrod-ant-677872.hostingersite.com/cas/VeganDinner</v>
+      </c>
+      <c r="C45" t="str">
+        <v>https://palegoldenrod-ant-677872.hostingersite.com/cas/VeganDinner</v>
+      </c>
+      <c r="D45" t="b">
+        <v>0</v>
       </c>
       <c r="E45" t="str">
-        <v>https://palegoldenrod-ant-677872.hostingersite.com/basic_page/313-description/</v>
+        <v>https://palegoldenrod-ant-677872.hostingersite.com/cas/VeganDinner</v>
       </c>
       <c r="F45" t="b">
         <v>1</v>
       </c>
       <c r="G45" t="str">
-        <v>failed</v>
-      </c>
-      <c r="I45" t="str">
-        <v>page.goto: Target page, context or browser has been closed</v>
+        <v>ok</v>
+      </c>
+      <c r="H45">
+        <v>200</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="str">
-        <v>TAB-2</v>
+        <v>B2-C2-T1</v>
       </c>
       <c r="B46" t="str">
-        <v>https://palegoldenrod-ant-677872.hostingersite.com/basic_page/construction-page-chemical-safety/</v>
+        <v>https://palegoldenrod-ant-677872.hostingersite.com/cas/webform/fast-account-contact-form</v>
+      </c>
+      <c r="C46" t="str">
+        <v>https://palegoldenrod-ant-677872.hostingersite.com/cas/webform/fast-account-contact-form</v>
+      </c>
+      <c r="D46" t="b">
+        <v>0</v>
       </c>
       <c r="E46" t="str">
-        <v>https://palegoldenrod-ant-677872.hostingersite.com/basic_page/construction-page-chemical-safety/</v>
+        <v>https://palegoldenrod-ant-677872.hostingersite.com/cas/webform/fast-account-contact-form</v>
       </c>
       <c r="F46" t="b">
         <v>1</v>
       </c>
       <c r="G46" t="str">
-        <v>failed</v>
-      </c>
-      <c r="I46" t="str">
-        <v>page.goto: Target page, context or browser has been closed</v>
+        <v>ok</v>
+      </c>
+      <c r="H46">
+        <v>200</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="str">
-        <v>TAB-2</v>
+        <v>B1-C1-T3</v>
       </c>
       <c r="B47" t="str">
-        <v>https://palegoldenrod-ant-677872.hostingersite.com/basic_page/peace_action/</v>
+        <v>https://palegoldenrod-ant-677872.hostingersite.com/chemistry/marathon-16-km-ultracentrafuge</v>
+      </c>
+      <c r="C47" t="str">
+        <v>https://palegoldenrod-ant-677872.hostingersite.com/chemistry/marathon-16-km-ultracentrafuge</v>
+      </c>
+      <c r="D47" t="b">
+        <v>0</v>
       </c>
       <c r="E47" t="str">
-        <v>https://palegoldenrod-ant-677872.hostingersite.com/basic_page/peace_action/</v>
+        <v>https://palegoldenrod-ant-677872.hostingersite.com/chemistry/marathon-16-km-ultracentrafuge</v>
       </c>
       <c r="F47" t="b">
         <v>1</v>
       </c>
       <c r="G47" t="str">
-        <v>failed</v>
-      </c>
-      <c r="I47" t="str">
-        <v>page.goto: Target page, context or browser has been closed</v>
+        <v>ok</v>
+      </c>
+      <c r="H47">
+        <v>200</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="str">
-        <v>TAB-2</v>
+        <v>B2-C2-T2</v>
       </c>
       <c r="B48" t="str">
-        <v>https://palegoldenrod-ant-677872.hostingersite.com/basic_page/hasan-jeffries/</v>
+        <v>https://palegoldenrod-ant-677872.hostingersite.com/chemistry/facstaff_chem</v>
+      </c>
+      <c r="C48" t="str">
+        <v>https://palegoldenrod-ant-677872.hostingersite.com/chemistry/facstaff_chem</v>
+      </c>
+      <c r="D48" t="b">
+        <v>0</v>
       </c>
       <c r="E48" t="str">
-        <v>https://palegoldenrod-ant-677872.hostingersite.com/basic_page/hasan-jeffries/</v>
+        <v>https://palegoldenrod-ant-677872.hostingersite.com/chemistry/facstaff_chem</v>
       </c>
       <c r="F48" t="b">
         <v>1</v>
       </c>
       <c r="G48" t="str">
-        <v>failed</v>
-      </c>
-      <c r="I48" t="str">
-        <v>page.goto: Target page, context or browser has been closed</v>
+        <v>ok</v>
+      </c>
+      <c r="H48">
+        <v>200</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="str">
-        <v>TAB-2</v>
+        <v>B2-C1-T2</v>
       </c>
       <c r="B49" t="str">
-        <v>https://palegoldenrod-ant-677872.hostingersite.com/basic_page/charles-mcdew/</v>
+        <v>https://palegoldenrod-ant-677872.hostingersite.com/chemistry/hazardous-waste-training</v>
+      </c>
+      <c r="C49" t="str">
+        <v>https://palegoldenrod-ant-677872.hostingersite.com/chemistry/hazardous-waste-training</v>
+      </c>
+      <c r="D49" t="b">
+        <v>0</v>
       </c>
       <c r="E49" t="str">
-        <v>https://palegoldenrod-ant-677872.hostingersite.com/basic_page/charles-mcdew/</v>
+        <v>https://palegoldenrod-ant-677872.hostingersite.com/chemistry/hazardous-waste-training</v>
       </c>
       <c r="F49" t="b">
         <v>1</v>
       </c>
       <c r="G49" t="str">
-        <v>failed</v>
-      </c>
-      <c r="I49" t="str">
-        <v>page.goto: Target page, context or browser has been closed</v>
+        <v>ok</v>
+      </c>
+      <c r="H49">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="str">
+        <v>B2-C2-T2</v>
+      </c>
+      <c r="B50" t="str">
+        <v>https://palegoldenrod-ant-677872.hostingersite.com/chemistry/research_oxford</v>
+      </c>
+      <c r="C50" t="str">
+        <v>https://palegoldenrod-ant-677872.hostingersite.com/chemistry/research_oxford</v>
+      </c>
+      <c r="D50" t="b">
+        <v>0</v>
+      </c>
+      <c r="E50" t="str">
+        <v>https://palegoldenrod-ant-677872.hostingersite.com/chemistry/research_oxford</v>
+      </c>
+      <c r="F50" t="b">
+        <v>1</v>
+      </c>
+      <c r="G50" t="str">
+        <v>ok</v>
+      </c>
+      <c r="H50">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="str">
+        <v>B2-C2-T1</v>
+      </c>
+      <c r="B51" t="str">
+        <v>https://palegoldenrod-ant-677872.hostingersite.com/chemistry/gamma_sigma_epsilon</v>
+      </c>
+      <c r="C51" t="str">
+        <v>https://palegoldenrod-ant-677872.hostingersite.com/chemistry/gamma_sigma_epsilon</v>
+      </c>
+      <c r="D51" t="b">
+        <v>0</v>
+      </c>
+      <c r="E51" t="str">
+        <v>https://palegoldenrod-ant-677872.hostingersite.com/chemistry/gamma_sigma_epsilon</v>
+      </c>
+      <c r="F51" t="b">
+        <v>1</v>
+      </c>
+      <c r="G51" t="str">
+        <v>ok</v>
+      </c>
+      <c r="H51">
+        <v>200</v>
       </c>
     </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:I49"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:I51"/>
   </ignoredErrors>
 </worksheet>
 </file>
--- a/test-artifacts/url-reports/validated-urls.xlsx
+++ b/test-artifacts/url-reports/validated-urls.xlsx
@@ -397,7 +397,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:I51"/>
+  <dimension ref="A1:I109"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -433,19 +433,19 @@
     </row>
     <row r="2">
       <c r="A2" t="str">
-        <v>B1-C1-T1</v>
+        <v>B2-C1-T2</v>
       </c>
       <c r="B2" t="str">
-        <v>https://palegoldenrod-ant-677872.hostingersite.com/cas/dining-survey</v>
+        <v>https://palegoldenrod-ant-677872.hostingersite.com/international/manish-manandhar-alumni-profile</v>
       </c>
       <c r="C2" t="str">
-        <v>https://palegoldenrod-ant-677872.hostingersite.com/cas/dining-survey</v>
+        <v>https://palegoldenrod-ant-677872.hostingersite.com/international/manish-manandhar-alumni-profile</v>
       </c>
       <c r="D2" t="b">
         <v>0</v>
       </c>
       <c r="E2" t="str">
-        <v>https://palegoldenrod-ant-677872.hostingersite.com/cas/dining-survey</v>
+        <v>https://palegoldenrod-ant-677872.hostingersite.com/international/manish-manandhar-alumni-profile</v>
       </c>
       <c r="F2" t="b">
         <v>1</v>
@@ -459,19 +459,19 @@
     </row>
     <row r="3">
       <c r="A3" t="str">
-        <v>B2-C1-T3</v>
+        <v>B2-C1-T1</v>
       </c>
       <c r="B3" t="str">
-        <v>https://palegoldenrod-ant-677872.hostingersite.com/business/fed-challenge</v>
+        <v>https://palegoldenrod-ant-677872.hostingersite.com/music/gonder-bio-more</v>
       </c>
       <c r="C3" t="str">
-        <v>https://palegoldenrod-ant-677872.hostingersite.com/business/fed-challenge</v>
+        <v>https://palegoldenrod-ant-677872.hostingersite.com/music/gonder-bio-more</v>
       </c>
       <c r="D3" t="b">
         <v>0</v>
       </c>
       <c r="E3" t="str">
-        <v>https://palegoldenrod-ant-677872.hostingersite.com/business/fed-challenge</v>
+        <v>https://palegoldenrod-ant-677872.hostingersite.com/music/gonder-bio-more</v>
       </c>
       <c r="F3" t="b">
         <v>1</v>
@@ -485,19 +485,19 @@
     </row>
     <row r="4">
       <c r="A4" t="str">
-        <v>B2-C1-T2</v>
+        <v>B2-C2-T3</v>
       </c>
       <c r="B4" t="str">
-        <v>https://palegoldenrod-ant-677872.hostingersite.com/business/internship-etiquette</v>
+        <v>https://palegoldenrod-ant-677872.hostingersite.com/muons/team</v>
       </c>
       <c r="C4" t="str">
-        <v>https://palegoldenrod-ant-677872.hostingersite.com/business/internship-etiquette</v>
+        <v>https://palegoldenrod-ant-677872.hostingersite.com/muons/team</v>
       </c>
       <c r="D4" t="b">
         <v>0</v>
       </c>
       <c r="E4" t="str">
-        <v>https://palegoldenrod-ant-677872.hostingersite.com/business/internship-etiquette</v>
+        <v>https://palegoldenrod-ant-677872.hostingersite.com/muons/team</v>
       </c>
       <c r="F4" t="b">
         <v>1</v>
@@ -511,19 +511,19 @@
     </row>
     <row r="5">
       <c r="A5" t="str">
-        <v>B1-C2-T2</v>
+        <v>B2-C2-T1</v>
       </c>
       <c r="B5" t="str">
-        <v>https://palegoldenrod-ant-677872.hostingersite.com/cas/download-cas-mobile-app-image</v>
+        <v>https://palegoldenrod-ant-677872.hostingersite.com/nuclear/1578-volts-gain-match-check-using-pube-source</v>
       </c>
       <c r="C5" t="str">
-        <v>https://palegoldenrod-ant-677872.hostingersite.com/cas/download-cas-mobile-app-image</v>
+        <v>https://palegoldenrod-ant-677872.hostingersite.com/nuclear/1578-volts-gain-match-check-using-pube-source</v>
       </c>
       <c r="D5" t="b">
         <v>0</v>
       </c>
       <c r="E5" t="str">
-        <v>https://palegoldenrod-ant-677872.hostingersite.com/cas/download-cas-mobile-app-image</v>
+        <v>https://palegoldenrod-ant-677872.hostingersite.com/nuclear/1578-volts-gain-match-check-using-pube-source</v>
       </c>
       <c r="F5" t="b">
         <v>1</v>
@@ -537,19 +537,19 @@
     </row>
     <row r="6">
       <c r="A6" t="str">
-        <v>B2-C1-T1</v>
+        <v>B3-C2-T3</v>
       </c>
       <c r="B6" t="str">
-        <v>https://palegoldenrod-ant-677872.hostingersite.com/career_development/faculty-resources</v>
+        <v>https://palegoldenrod-ant-677872.hostingersite.com/handbook/appendices</v>
       </c>
       <c r="C6" t="str">
-        <v>https://palegoldenrod-ant-677872.hostingersite.com/career_development/faculty-resources</v>
+        <v>https://palegoldenrod-ant-677872.hostingersite.com/handbook/appendices</v>
       </c>
       <c r="D6" t="b">
         <v>0</v>
       </c>
       <c r="E6" t="str">
-        <v>https://palegoldenrod-ant-677872.hostingersite.com/career_development/faculty-resources</v>
+        <v>https://palegoldenrod-ant-677872.hostingersite.com/handbook/appendices</v>
       </c>
       <c r="F6" t="b">
         <v>1</v>
@@ -563,19 +563,19 @@
     </row>
     <row r="7">
       <c r="A7" t="str">
-        <v>B1-C1-T2</v>
+        <v>B3-C1-T1</v>
       </c>
       <c r="B7" t="str">
-        <v>https://palegoldenrod-ant-677872.hostingersite.com/cas/dining-green-overview-image</v>
+        <v>https://palegoldenrod-ant-677872.hostingersite.com/handbook/b</v>
       </c>
       <c r="C7" t="str">
-        <v>https://palegoldenrod-ant-677872.hostingersite.com/cas/dining-green-overview-image</v>
+        <v>https://palegoldenrod-ant-677872.hostingersite.com/handbook/b</v>
       </c>
       <c r="D7" t="b">
         <v>0</v>
       </c>
       <c r="E7" t="str">
-        <v>https://palegoldenrod-ant-677872.hostingersite.com/cas/dining-green-overview-image</v>
+        <v>https://palegoldenrod-ant-677872.hostingersite.com/handbook/b</v>
       </c>
       <c r="F7" t="b">
         <v>1</v>
@@ -589,19 +589,19 @@
     </row>
     <row r="8">
       <c r="A8" t="str">
-        <v>B2-C1-T1</v>
+        <v>B3-C2-T3</v>
       </c>
       <c r="B8" t="str">
-        <v>https://palegoldenrod-ant-677872.hostingersite.com/cas/local-vendors</v>
+        <v>https://palegoldenrod-ant-677872.hostingersite.com/mcnair/opportunities</v>
       </c>
       <c r="C8" t="str">
-        <v>https://palegoldenrod-ant-677872.hostingersite.com/cas/local-vendors</v>
+        <v>https://palegoldenrod-ant-677872.hostingersite.com/mcnair/opportunities</v>
       </c>
       <c r="D8" t="b">
         <v>0</v>
       </c>
       <c r="E8" t="str">
-        <v>https://palegoldenrod-ant-677872.hostingersite.com/cas/local-vendors</v>
+        <v>https://palegoldenrod-ant-677872.hostingersite.com/mcnair/opportunities</v>
       </c>
       <c r="F8" t="b">
         <v>1</v>
@@ -615,19 +615,19 @@
     </row>
     <row r="9">
       <c r="A9" t="str">
-        <v>B1-C2-T2</v>
+        <v>B2-C2-T3</v>
       </c>
       <c r="B9" t="str">
-        <v>https://palegoldenrod-ant-677872.hostingersite.com/cas/roomreservation</v>
+        <v>https://palegoldenrod-ant-677872.hostingersite.com/nuclear/aluminum-activation-results</v>
       </c>
       <c r="C9" t="str">
-        <v>https://palegoldenrod-ant-677872.hostingersite.com/cas/roomreservation</v>
+        <v>https://palegoldenrod-ant-677872.hostingersite.com/nuclear/aluminum-activation-results</v>
       </c>
       <c r="D9" t="b">
         <v>0</v>
       </c>
       <c r="E9" t="str">
-        <v>https://palegoldenrod-ant-677872.hostingersite.com/cas/roomreservation</v>
+        <v>https://palegoldenrod-ant-677872.hostingersite.com/nuclear/aluminum-activation-results</v>
       </c>
       <c r="F9" t="b">
         <v>1</v>
@@ -641,19 +641,19 @@
     </row>
     <row r="10">
       <c r="A10" t="str">
-        <v>B2-C1-T1</v>
+        <v>B3-C2-T2</v>
       </c>
       <c r="B10" t="str">
-        <v>https://palegoldenrod-ant-677872.hostingersite.com/chang/publications</v>
+        <v>https://palegoldenrod-ant-677872.hostingersite.com/gu/m311</v>
       </c>
       <c r="C10" t="str">
-        <v>https://palegoldenrod-ant-677872.hostingersite.com/chang/publications</v>
+        <v>https://palegoldenrod-ant-677872.hostingersite.com/gu/m311</v>
       </c>
       <c r="D10" t="b">
         <v>0</v>
       </c>
       <c r="E10" t="str">
-        <v>https://palegoldenrod-ant-677872.hostingersite.com/chang/publications</v>
+        <v>https://palegoldenrod-ant-677872.hostingersite.com/gu/m311</v>
       </c>
       <c r="F10" t="b">
         <v>1</v>
@@ -670,16 +670,16 @@
         <v>B2-C2-T3</v>
       </c>
       <c r="B11" t="str">
-        <v>https://palegoldenrod-ant-677872.hostingersite.com/business/4-1programs</v>
+        <v>https://palegoldenrod-ant-677872.hostingersite.com/nuclear/ca-2000-shot-16158</v>
       </c>
       <c r="C11" t="str">
-        <v>https://palegoldenrod-ant-677872.hostingersite.com/business/4-1programs</v>
+        <v>https://palegoldenrod-ant-677872.hostingersite.com/nuclear/ca-2000-shot-16158</v>
       </c>
       <c r="D11" t="b">
         <v>0</v>
       </c>
       <c r="E11" t="str">
-        <v>https://palegoldenrod-ant-677872.hostingersite.com/business/4-1programs</v>
+        <v>https://palegoldenrod-ant-677872.hostingersite.com/nuclear/ca-2000-shot-16158</v>
       </c>
       <c r="F11" t="b">
         <v>1</v>
@@ -693,19 +693,19 @@
     </row>
     <row r="12">
       <c r="A12" t="str">
-        <v>B1-C2-T2</v>
+        <v>B3-C2-T2</v>
       </c>
       <c r="B12" t="str">
-        <v>https://palegoldenrod-ant-677872.hostingersite.com/chemistry/coy-tempcyclerii-pcr-thermalcycler</v>
+        <v>https://palegoldenrod-ant-677872.hostingersite.com/nuclear/c12npb12</v>
       </c>
       <c r="C12" t="str">
-        <v>https://palegoldenrod-ant-677872.hostingersite.com/chemistry/coy-tempcyclerii-pcr-thermalcycler</v>
+        <v>https://palegoldenrod-ant-677872.hostingersite.com/nuclear/c12npb12</v>
       </c>
       <c r="D12" t="b">
         <v>0</v>
       </c>
       <c r="E12" t="str">
-        <v>https://palegoldenrod-ant-677872.hostingersite.com/chemistry/coy-tempcyclerii-pcr-thermalcycler</v>
+        <v>https://palegoldenrod-ant-677872.hostingersite.com/nuclear/c12npb12</v>
       </c>
       <c r="F12" t="b">
         <v>1</v>
@@ -719,19 +719,19 @@
     </row>
     <row r="13">
       <c r="A13" t="str">
-        <v>B1-C2-T3</v>
+        <v>B3-C2-T1</v>
       </c>
       <c r="B13" t="str">
-        <v>https://palegoldenrod-ant-677872.hostingersite.com/cas/dining-updates-spring-2022</v>
+        <v>https://palegoldenrod-ant-677872.hostingersite.com/hr/supervisors</v>
       </c>
       <c r="C13" t="str">
-        <v>https://palegoldenrod-ant-677872.hostingersite.com/cas/dining-updates-spring-2022</v>
+        <v>https://palegoldenrod-ant-677872.hostingersite.com/hr/supervisors</v>
       </c>
       <c r="D13" t="b">
         <v>0</v>
       </c>
       <c r="E13" t="str">
-        <v>https://palegoldenrod-ant-677872.hostingersite.com/cas/dining-updates-spring-2022</v>
+        <v>https://palegoldenrod-ant-677872.hostingersite.com/hr/supervisors</v>
       </c>
       <c r="F13" t="b">
         <v>1</v>
@@ -745,19 +745,19 @@
     </row>
     <row r="14">
       <c r="A14" t="str">
-        <v>B2-C1-T2</v>
+        <v>B2-C1-T3</v>
       </c>
       <c r="B14" t="str">
-        <v>https://palegoldenrod-ant-677872.hostingersite.com/cas/juice-bar-photo</v>
+        <v>https://palegoldenrod-ant-677872.hostingersite.com/hr/appointment-types</v>
       </c>
       <c r="C14" t="str">
-        <v>https://palegoldenrod-ant-677872.hostingersite.com/cas/juice-bar-photo</v>
+        <v>https://palegoldenrod-ant-677872.hostingersite.com/hr/appointment-types</v>
       </c>
       <c r="D14" t="b">
         <v>0</v>
       </c>
       <c r="E14" t="str">
-        <v>https://palegoldenrod-ant-677872.hostingersite.com/cas/juice-bar-photo</v>
+        <v>https://palegoldenrod-ant-677872.hostingersite.com/hr/appointment-types</v>
       </c>
       <c r="F14" t="b">
         <v>1</v>
@@ -771,19 +771,19 @@
     </row>
     <row r="15">
       <c r="A15" t="str">
-        <v>B2-C1-T1</v>
+        <v>B1-C1-T1</v>
       </c>
       <c r="B15" t="str">
-        <v>https://palegoldenrod-ant-677872.hostingersite.com/chemistry/hp-5890-gcms</v>
+        <v>https://palegoldenrod-ant-677872.hostingersite.com/greek/awards</v>
       </c>
       <c r="C15" t="str">
-        <v>https://palegoldenrod-ant-677872.hostingersite.com/chemistry/hp-5890-gcms</v>
+        <v>https://palegoldenrod-ant-677872.hostingersite.com/greek/awards</v>
       </c>
       <c r="D15" t="b">
         <v>0</v>
       </c>
       <c r="E15" t="str">
-        <v>https://palegoldenrod-ant-677872.hostingersite.com/chemistry/hp-5890-gcms</v>
+        <v>https://palegoldenrod-ant-677872.hostingersite.com/greek/awards</v>
       </c>
       <c r="F15" t="b">
         <v>1</v>
@@ -797,19 +797,19 @@
     </row>
     <row r="16">
       <c r="A16" t="str">
-        <v>B1-C2-T1</v>
+        <v>B2-C2-T2</v>
       </c>
       <c r="B16" t="str">
-        <v>https://palegoldenrod-ant-677872.hostingersite.com/cas/expresslunch</v>
+        <v>https://palegoldenrod-ant-677872.hostingersite.com/nuclear/1999-run-14</v>
       </c>
       <c r="C16" t="str">
-        <v>https://palegoldenrod-ant-677872.hostingersite.com/cas/expresslunch</v>
+        <v>https://palegoldenrod-ant-677872.hostingersite.com/nuclear/1999-run-14</v>
       </c>
       <c r="D16" t="b">
         <v>0</v>
       </c>
       <c r="E16" t="str">
-        <v>https://palegoldenrod-ant-677872.hostingersite.com/cas/expresslunch</v>
+        <v>https://palegoldenrod-ant-677872.hostingersite.com/nuclear/1999-run-14</v>
       </c>
       <c r="F16" t="b">
         <v>1</v>
@@ -823,19 +823,19 @@
     </row>
     <row r="17">
       <c r="A17" t="str">
-        <v>B1-C2-T3</v>
+        <v>B1-C2-T2</v>
       </c>
       <c r="B17" t="str">
-        <v>https://palegoldenrod-ant-677872.hostingersite.com/cas/ramadan-menu</v>
+        <v>https://palegoldenrod-ant-677872.hostingersite.com/goda/upcoming-events</v>
       </c>
       <c r="C17" t="str">
-        <v>https://palegoldenrod-ant-677872.hostingersite.com/cas/ramadan-menu</v>
+        <v>https://palegoldenrod-ant-677872.hostingersite.com/goda/upcoming-events</v>
       </c>
       <c r="D17" t="b">
         <v>0</v>
       </c>
       <c r="E17" t="str">
-        <v>https://palegoldenrod-ant-677872.hostingersite.com/cas/ramadan-menu</v>
+        <v>https://palegoldenrod-ant-677872.hostingersite.com/goda/upcoming-events</v>
       </c>
       <c r="F17" t="b">
         <v>1</v>
@@ -849,19 +849,19 @@
     </row>
     <row r="18">
       <c r="A18" t="str">
-        <v>B1-C1-T2</v>
+        <v>B2-C2-T2</v>
       </c>
       <c r="B18" t="str">
-        <v>https://palegoldenrod-ant-677872.hostingersite.com/cas/online-ordering-faq</v>
+        <v>https://palegoldenrod-ant-677872.hostingersite.com/nuclear/c12n2n-c11-info</v>
       </c>
       <c r="C18" t="str">
-        <v>https://palegoldenrod-ant-677872.hostingersite.com/cas/online-ordering-faq</v>
+        <v>https://palegoldenrod-ant-677872.hostingersite.com/nuclear/c12n2n-c11-info</v>
       </c>
       <c r="D18" t="b">
         <v>0</v>
       </c>
       <c r="E18" t="str">
-        <v>https://palegoldenrod-ant-677872.hostingersite.com/cas/online-ordering-faq</v>
+        <v>https://palegoldenrod-ant-677872.hostingersite.com/nuclear/c12n2n-c11-info</v>
       </c>
       <c r="F18" t="b">
         <v>1</v>
@@ -875,19 +875,19 @@
     </row>
     <row r="19">
       <c r="A19" t="str">
-        <v>B2-C2-T2</v>
+        <v>B1-C2-T1</v>
       </c>
       <c r="B19" t="str">
-        <v>https://palegoldenrod-ant-677872.hostingersite.com/business/accounting-related-internships</v>
+        <v>https://palegoldenrod-ant-677872.hostingersite.com/goda/office-hours</v>
       </c>
       <c r="C19" t="str">
-        <v>https://palegoldenrod-ant-677872.hostingersite.com/business/accounting-related-internships</v>
+        <v>https://palegoldenrod-ant-677872.hostingersite.com/goda/office-hours</v>
       </c>
       <c r="D19" t="b">
         <v>0</v>
       </c>
       <c r="E19" t="str">
-        <v>https://palegoldenrod-ant-677872.hostingersite.com/business/accounting-related-internships</v>
+        <v>https://palegoldenrod-ant-677872.hostingersite.com/goda/office-hours</v>
       </c>
       <c r="F19" t="b">
         <v>1</v>
@@ -901,19 +901,19 @@
     </row>
     <row r="20">
       <c r="A20" t="str">
-        <v>B1-C2-T1</v>
+        <v>B1-C2-T2</v>
       </c>
       <c r="B20" t="str">
-        <v>https://palegoldenrod-ant-677872.hostingersite.com/cas/starbucks-allergen-options</v>
+        <v>https://palegoldenrod-ant-677872.hostingersite.com/nuclear/comparison-optical-imaging</v>
       </c>
       <c r="C20" t="str">
-        <v>https://palegoldenrod-ant-677872.hostingersite.com/cas/starbucks-allergen-options</v>
+        <v>https://palegoldenrod-ant-677872.hostingersite.com/nuclear/comparison-optical-imaging</v>
       </c>
       <c r="D20" t="b">
         <v>0</v>
       </c>
       <c r="E20" t="str">
-        <v>https://palegoldenrod-ant-677872.hostingersite.com/cas/starbucks-allergen-options</v>
+        <v>https://palegoldenrod-ant-677872.hostingersite.com/nuclear/comparison-optical-imaging</v>
       </c>
       <c r="F20" t="b">
         <v>1</v>
@@ -927,227 +927,248 @@
     </row>
     <row r="21">
       <c r="A21" t="str">
+        <v>B3-C2-T1</v>
+      </c>
+      <c r="B21" t="str">
+        <v>https://palegoldenrod-ant-677872.hostingersite.com/nuclear/medusa-callibration</v>
+      </c>
+      <c r="C21" t="str">
+        <v>https://palegoldenrod-ant-677872.hostingersite.com/nuclear/medusa-callibration</v>
+      </c>
+      <c r="D21" t="b">
+        <v>0</v>
+      </c>
+      <c r="E21" t="str">
+        <v>https://palegoldenrod-ant-677872.hostingersite.com/nuclear/medusa-callibration</v>
+      </c>
+      <c r="F21" t="b">
+        <v>1</v>
+      </c>
+      <c r="G21" t="str">
+        <v>ok</v>
+      </c>
+      <c r="H21">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="22" xml:space="preserve">
+      <c r="A22" t="str">
+        <v>B3-C1-T2</v>
+      </c>
+      <c r="B22" t="str">
+        <v>https://palegoldenrod-ant-677872.hostingersite.com/languages_literatures/alumni-news-2010-2014</v>
+      </c>
+      <c r="C22" t="str">
+        <v>about:blank</v>
+      </c>
+      <c r="D22" t="b">
+        <v>0</v>
+      </c>
+      <c r="E22" t="str">
+        <v>https://palegoldenrod-ant-677872.hostingersite.com/languages_literatures/alumni-news-2010-2014</v>
+      </c>
+      <c r="F22" t="b">
+        <v>1</v>
+      </c>
+      <c r="G22" t="str">
+        <v>failed</v>
+      </c>
+      <c r="I22" t="str" xml:space="preserve">
+        <v xml:space="preserve">page.goto: Timeout 180000ms exceeded.
+Call log:
+_x001b_[2m  - navigating to "https://palegoldenrod-ant-677872.hostingersite.com/languages_literatures/alumni-news-2010-2014", waiting until "domcontentloaded"_x001b_[22m
+</v>
+      </c>
+    </row>
+    <row r="23" xml:space="preserve">
+      <c r="A23" t="str">
+        <v>B3-C1-T3</v>
+      </c>
+      <c r="B23" t="str">
+        <v>https://palegoldenrod-ant-677872.hostingersite.com/history/stolee</v>
+      </c>
+      <c r="C23" t="str">
+        <v>about:blank</v>
+      </c>
+      <c r="D23" t="b">
+        <v>0</v>
+      </c>
+      <c r="E23" t="str">
+        <v>https://palegoldenrod-ant-677872.hostingersite.com/history/stolee</v>
+      </c>
+      <c r="F23" t="b">
+        <v>1</v>
+      </c>
+      <c r="G23" t="str">
+        <v>failed</v>
+      </c>
+      <c r="I23" t="str" xml:space="preserve">
+        <v xml:space="preserve">page.goto: Timeout 180000ms exceeded.
+Call log:
+_x001b_[2m  - navigating to "https://palegoldenrod-ant-677872.hostingersite.com/history/stolee", waiting until "domcontentloaded"_x001b_[22m
+</v>
+      </c>
+    </row>
+    <row r="24" xml:space="preserve">
+      <c r="A24" t="str">
         <v>B1-C1-T2</v>
       </c>
-      <c r="B21" t="str">
-        <v>https://palegoldenrod-ant-677872.hostingersite.com/chemistry/chemical-waste-procedure-lis</v>
-      </c>
-      <c r="C21" t="str">
-        <v>https://palegoldenrod-ant-677872.hostingersite.com/chemistry/chemical-waste-procedure-lis</v>
-      </c>
-      <c r="D21" t="b">
-        <v>0</v>
-      </c>
-      <c r="E21" t="str">
-        <v>https://palegoldenrod-ant-677872.hostingersite.com/chemistry/chemical-waste-procedure-lis</v>
-      </c>
-      <c r="F21" t="b">
-        <v>1</v>
-      </c>
-      <c r="G21" t="str">
-        <v>ok</v>
-      </c>
-      <c r="H21">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" t="str">
+      <c r="B24" t="str">
+        <v>https://palegoldenrod-ant-677872.hostingersite.com/history/hon</v>
+      </c>
+      <c r="C24" t="str">
+        <v>about:blank</v>
+      </c>
+      <c r="D24" t="b">
+        <v>0</v>
+      </c>
+      <c r="E24" t="str">
+        <v>https://palegoldenrod-ant-677872.hostingersite.com/history/hon</v>
+      </c>
+      <c r="F24" t="b">
+        <v>1</v>
+      </c>
+      <c r="G24" t="str">
+        <v>failed</v>
+      </c>
+      <c r="I24" t="str" xml:space="preserve">
+        <v xml:space="preserve">page.goto: Timeout 180000ms exceeded.
+Call log:
+_x001b_[2m  - navigating to "https://palegoldenrod-ant-677872.hostingersite.com/history/hon", waiting until "domcontentloaded"_x001b_[22m
+</v>
+      </c>
+    </row>
+    <row r="25" xml:space="preserve">
+      <c r="A25" t="str">
+        <v>B1-C1-T3</v>
+      </c>
+      <c r="B25" t="str">
+        <v>https://palegoldenrod-ant-677872.hostingersite.com/gu/m511</v>
+      </c>
+      <c r="C25" t="str">
+        <v>about:blank</v>
+      </c>
+      <c r="D25" t="b">
+        <v>0</v>
+      </c>
+      <c r="E25" t="str">
+        <v>https://palegoldenrod-ant-677872.hostingersite.com/gu/m511</v>
+      </c>
+      <c r="F25" t="b">
+        <v>1</v>
+      </c>
+      <c r="G25" t="str">
+        <v>failed</v>
+      </c>
+      <c r="I25" t="str" xml:space="preserve">
+        <v xml:space="preserve">page.goto: Timeout 180000ms exceeded.
+Call log:
+_x001b_[2m  - navigating to "https://palegoldenrod-ant-677872.hostingersite.com/gu/m511", waiting until "domcontentloaded"_x001b_[22m
+</v>
+      </c>
+    </row>
+    <row r="26" xml:space="preserve">
+      <c r="A26" t="str">
         <v>B1-C2-T3</v>
       </c>
-      <c r="B22" t="str">
-        <v>https://palegoldenrod-ant-677872.hostingersite.com/chemistry/chemistry-research-project-videos</v>
-      </c>
-      <c r="C22" t="str">
-        <v>https://palegoldenrod-ant-677872.hostingersite.com/chemistry/chemistry-research-project-videos</v>
-      </c>
-      <c r="D22" t="b">
-        <v>0</v>
-      </c>
-      <c r="E22" t="str">
-        <v>https://palegoldenrod-ant-677872.hostingersite.com/chemistry/chemistry-research-project-videos</v>
-      </c>
-      <c r="F22" t="b">
-        <v>1</v>
-      </c>
-      <c r="G22" t="str">
-        <v>ok</v>
-      </c>
-      <c r="H22">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="23">
-      <c r="A23" t="str">
-        <v>B1-C2-T1</v>
-      </c>
-      <c r="B23" t="str">
-        <v>https://palegoldenrod-ant-677872.hostingersite.com/chemistry/diversity-equity-and-inclusion-geneseo-chemistry</v>
-      </c>
-      <c r="C23" t="str">
-        <v>https://palegoldenrod-ant-677872.hostingersite.com/chemistry/diversity-equity-and-inclusion-geneseo-chemistry</v>
-      </c>
-      <c r="D23" t="b">
-        <v>0</v>
-      </c>
-      <c r="E23" t="str">
-        <v>https://palegoldenrod-ant-677872.hostingersite.com/chemistry/diversity-equity-and-inclusion-geneseo-chemistry</v>
-      </c>
-      <c r="F23" t="b">
-        <v>1</v>
-      </c>
-      <c r="G23" t="str">
-        <v>ok</v>
-      </c>
-      <c r="H23">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="24">
-      <c r="A24" t="str">
-        <v>B2-C2-T1</v>
-      </c>
-      <c r="B24" t="str">
-        <v>https://palegoldenrod-ant-677872.hostingersite.com/business/appeal-process-school-business-admission-denials</v>
-      </c>
-      <c r="C24" t="str">
-        <v>https://palegoldenrod-ant-677872.hostingersite.com/business/appeal-process-school-business-admission-denials</v>
-      </c>
-      <c r="D24" t="b">
-        <v>0</v>
-      </c>
-      <c r="E24" t="str">
-        <v>https://palegoldenrod-ant-677872.hostingersite.com/business/appeal-process-school-business-admission-denials</v>
-      </c>
-      <c r="F24" t="b">
-        <v>1</v>
-      </c>
-      <c r="G24" t="str">
-        <v>ok</v>
-      </c>
-      <c r="H24">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="25">
-      <c r="A25" t="str">
-        <v>B1-C2-T1</v>
-      </c>
-      <c r="B25" t="str">
-        <v>https://palegoldenrod-ant-677872.hostingersite.com/chemistry/phastsystem-electrophoresis</v>
-      </c>
-      <c r="C25" t="str">
-        <v>https://palegoldenrod-ant-677872.hostingersite.com/chemistry/phastsystem-electrophoresis</v>
-      </c>
-      <c r="D25" t="b">
-        <v>0</v>
-      </c>
-      <c r="E25" t="str">
-        <v>https://palegoldenrod-ant-677872.hostingersite.com/chemistry/phastsystem-electrophoresis</v>
-      </c>
-      <c r="F25" t="b">
-        <v>1</v>
-      </c>
-      <c r="G25" t="str">
-        <v>ok</v>
-      </c>
-      <c r="H25">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="26">
-      <c r="A26" t="str">
-        <v>B1-C1-T3</v>
-      </c>
       <c r="B26" t="str">
-        <v>https://palegoldenrod-ant-677872.hostingersite.com/cas/board-directors-info</v>
+        <v>https://palegoldenrod-ant-677872.hostingersite.com/gold/journals-and-reflections</v>
       </c>
       <c r="C26" t="str">
-        <v>https://palegoldenrod-ant-677872.hostingersite.com/cas/board-directors-info</v>
+        <v>about:blank</v>
       </c>
       <c r="D26" t="b">
         <v>0</v>
       </c>
       <c r="E26" t="str">
-        <v>https://palegoldenrod-ant-677872.hostingersite.com/cas/board-directors-info</v>
+        <v>https://palegoldenrod-ant-677872.hostingersite.com/gold/journals-and-reflections</v>
       </c>
       <c r="F26" t="b">
         <v>1</v>
       </c>
       <c r="G26" t="str">
-        <v>ok</v>
-      </c>
-      <c r="H26">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="27">
+        <v>failed</v>
+      </c>
+      <c r="I26" t="str" xml:space="preserve">
+        <v xml:space="preserve">page.goto: Timeout 180000ms exceeded.
+Call log:
+_x001b_[2m  - navigating to "https://palegoldenrod-ant-677872.hostingersite.com/gold/journals-and-reflections", waiting until "domcontentloaded"_x001b_[22m
+</v>
+      </c>
+    </row>
+    <row r="27" xml:space="preserve">
       <c r="A27" t="str">
-        <v>B1-C1-T1</v>
+        <v>B2-C1-T2</v>
       </c>
       <c r="B27" t="str">
-        <v>https://palegoldenrod-ant-677872.hostingersite.com/cas/paintknight</v>
+        <v>https://palegoldenrod-ant-677872.hostingersite.com/nuclear/1999-run-15</v>
       </c>
       <c r="C27" t="str">
-        <v>https://palegoldenrod-ant-677872.hostingersite.com/cas/paintknight</v>
+        <v>https://palegoldenrod-ant-677872.hostingersite.com/international/manish-manandhar-alumni-profile</v>
       </c>
       <c r="D27" t="b">
         <v>0</v>
       </c>
       <c r="E27" t="str">
-        <v>https://palegoldenrod-ant-677872.hostingersite.com/cas/paintknight</v>
+        <v>https://palegoldenrod-ant-677872.hostingersite.com/nuclear/1999-run-15</v>
       </c>
       <c r="F27" t="b">
         <v>1</v>
       </c>
       <c r="G27" t="str">
-        <v>ok</v>
-      </c>
-      <c r="H27">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="28">
+        <v>failed</v>
+      </c>
+      <c r="I27" t="str" xml:space="preserve">
+        <v xml:space="preserve">page.goto: Timeout 180000ms exceeded.
+Call log:
+_x001b_[2m  - navigating to "https://palegoldenrod-ant-677872.hostingersite.com/nuclear/1999-run-15", waiting until "domcontentloaded"_x001b_[22m
+</v>
+      </c>
+    </row>
+    <row r="28" xml:space="preserve">
       <c r="A28" t="str">
-        <v>B2-C2-T3</v>
+        <v>B2-C1-T1</v>
       </c>
       <c r="B28" t="str">
-        <v>https://palegoldenrod-ant-677872.hostingersite.com/cas/feast-thrones</v>
+        <v>https://palegoldenrod-ant-677872.hostingersite.com/nuclear/ca-2001-chart-2</v>
       </c>
       <c r="C28" t="str">
-        <v>https://palegoldenrod-ant-677872.hostingersite.com/cas/feast-thrones</v>
+        <v>https://palegoldenrod-ant-677872.hostingersite.com/music/gonder-bio-more</v>
       </c>
       <c r="D28" t="b">
         <v>0</v>
       </c>
       <c r="E28" t="str">
-        <v>https://palegoldenrod-ant-677872.hostingersite.com/cas/feast-thrones</v>
+        <v>https://palegoldenrod-ant-677872.hostingersite.com/nuclear/ca-2001-chart-2</v>
       </c>
       <c r="F28" t="b">
         <v>1</v>
       </c>
       <c r="G28" t="str">
-        <v>ok</v>
-      </c>
-      <c r="H28">
-        <v>200</v>
+        <v>failed</v>
+      </c>
+      <c r="I28" t="str" xml:space="preserve">
+        <v xml:space="preserve">page.goto: Timeout 180000ms exceeded.
+Call log:
+_x001b_[2m  - navigating to "https://palegoldenrod-ant-677872.hostingersite.com/nuclear/ca-2001-chart-2", waiting until "domcontentloaded"_x001b_[22m
+</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="str">
-        <v>B1-C1-T3</v>
+        <v>B3-C2-T2</v>
       </c>
       <c r="B29" t="str">
-        <v>https://palegoldenrod-ant-677872.hostingersite.com/cas/ocotal-coffee</v>
+        <v>https://palegoldenrod-ant-677872.hostingersite.com/nuclear/characterization-medusa-elements</v>
       </c>
       <c r="C29" t="str">
-        <v>https://palegoldenrod-ant-677872.hostingersite.com/cas/ocotal-coffee</v>
+        <v>https://palegoldenrod-ant-677872.hostingersite.com/nuclear/characterization-medusa-elements</v>
       </c>
       <c r="D29" t="b">
         <v>0</v>
       </c>
       <c r="E29" t="str">
-        <v>https://palegoldenrod-ant-677872.hostingersite.com/cas/ocotal-coffee</v>
+        <v>https://palegoldenrod-ant-677872.hostingersite.com/nuclear/characterization-medusa-elements</v>
       </c>
       <c r="F29" t="b">
         <v>1</v>
@@ -1161,585 +1182,2201 @@
     </row>
     <row r="30">
       <c r="A30" t="str">
-        <v>B2-C2-T3</v>
+        <v>B1-C1-T1</v>
       </c>
       <c r="B30" t="str">
-        <v>https://palegoldenrod-ant-677872.hostingersite.com/cas/supporting-geneseo</v>
+        <v>https://palegoldenrod-ant-677872.hostingersite.com/music/music-programs</v>
       </c>
       <c r="C30" t="str">
-        <v>https://palegoldenrod-ant-677872.hostingersite.com/cas/supporting-geneseo</v>
+        <v>https://palegoldenrod-ant-677872.hostingersite.com/music/music-programs</v>
       </c>
       <c r="D30" t="b">
         <v>0</v>
       </c>
       <c r="E30" t="str">
-        <v>https://palegoldenrod-ant-677872.hostingersite.com/cas/supporting-geneseo</v>
+        <v>https://palegoldenrod-ant-677872.hostingersite.com/music/music-programs</v>
       </c>
       <c r="F30" t="b">
         <v>1</v>
       </c>
       <c r="G30" t="str">
-        <v>ok</v>
+        <v>failed</v>
       </c>
       <c r="H30">
-        <v>200</v>
+        <v>403</v>
+      </c>
+      <c r="I30" t="str">
+        <v>HTTP 403</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="str">
+        <v>B1-C1-T3</v>
+      </c>
+      <c r="B31" t="str">
+        <v>https://palegoldenrod-ant-677872.hostingersite.com/native_american_studies/contact</v>
+      </c>
+      <c r="C31" t="str">
+        <v>https://palegoldenrod-ant-677872.hostingersite.com/native_american_studies/contact</v>
+      </c>
+      <c r="D31" t="b">
+        <v>0</v>
+      </c>
+      <c r="E31" t="str">
+        <v>https://palegoldenrod-ant-677872.hostingersite.com/native_american_studies/contact</v>
+      </c>
+      <c r="F31" t="b">
+        <v>1</v>
+      </c>
+      <c r="G31" t="str">
+        <v>failed</v>
+      </c>
+      <c r="H31">
+        <v>403</v>
+      </c>
+      <c r="I31" t="str">
+        <v>HTTP 403</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="str">
+        <v>B1-C1-T2</v>
+      </c>
+      <c r="B32" t="str">
+        <v>https://palegoldenrod-ant-677872.hostingersite.com/music/preprofessional-studies-minors</v>
+      </c>
+      <c r="C32" t="str">
+        <v>https://palegoldenrod-ant-677872.hostingersite.com/music/preprofessional-studies-minors</v>
+      </c>
+      <c r="D32" t="b">
+        <v>0</v>
+      </c>
+      <c r="E32" t="str">
+        <v>https://palegoldenrod-ant-677872.hostingersite.com/music/preprofessional-studies-minors</v>
+      </c>
+      <c r="F32" t="b">
+        <v>1</v>
+      </c>
+      <c r="G32" t="str">
+        <v>failed</v>
+      </c>
+      <c r="H32">
+        <v>403</v>
+      </c>
+      <c r="I32" t="str">
+        <v>HTTP 403</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="str">
         <v>B1-C1-T1</v>
       </c>
-      <c r="B31" t="str">
-        <v>https://palegoldenrod-ant-677872.hostingersite.com/chemistry/chemical-waste-procedures</v>
-      </c>
-      <c r="C31" t="str">
-        <v>https://palegoldenrod-ant-677872.hostingersite.com/chemistry/chemical-waste-procedures</v>
-      </c>
-      <c r="D31" t="b">
-        <v>0</v>
-      </c>
-      <c r="E31" t="str">
-        <v>https://palegoldenrod-ant-677872.hostingersite.com/chemistry/chemical-waste-procedures</v>
-      </c>
-      <c r="F31" t="b">
-        <v>1</v>
-      </c>
-      <c r="G31" t="str">
-        <v>ok</v>
-      </c>
-      <c r="H31">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="32" xml:space="preserve">
-      <c r="A32" t="str">
-        <v>B2-C1-T3</v>
-      </c>
-      <c r="B32" t="str">
-        <v>https://palegoldenrod-ant-677872.hostingersite.com/cas/hourly-employment</v>
-      </c>
-      <c r="C32" t="str">
-        <v>https://palegoldenrod-ant-677872.hostingersite.com/business/fed-challenge</v>
-      </c>
-      <c r="D32" t="b">
-        <v>0</v>
-      </c>
-      <c r="E32" t="str">
-        <v>https://palegoldenrod-ant-677872.hostingersite.com/cas/hourly-employment</v>
-      </c>
-      <c r="F32" t="b">
-        <v>1</v>
-      </c>
-      <c r="G32" t="str">
-        <v>failed</v>
-      </c>
-      <c r="I32" t="str" xml:space="preserve">
+      <c r="B33" t="str">
+        <v>https://palegoldenrod-ant-677872.hostingersite.com/nuclear/aluminum-activation</v>
+      </c>
+      <c r="C33" t="str">
+        <v>https://palegoldenrod-ant-677872.hostingersite.com/nuclear/aluminum-activation</v>
+      </c>
+      <c r="D33" t="b">
+        <v>0</v>
+      </c>
+      <c r="E33" t="str">
+        <v>https://palegoldenrod-ant-677872.hostingersite.com/nuclear/aluminum-activation</v>
+      </c>
+      <c r="F33" t="b">
+        <v>1</v>
+      </c>
+      <c r="G33" t="str">
+        <v>failed</v>
+      </c>
+      <c r="H33">
+        <v>403</v>
+      </c>
+      <c r="I33" t="str">
+        <v>HTTP 403</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="str">
+        <v>B1-C1-T3</v>
+      </c>
+      <c r="B34" t="str">
+        <v>https://palegoldenrod-ant-677872.hostingersite.com/nuclear/b11pn11-spectra</v>
+      </c>
+      <c r="C34" t="str">
+        <v>https://palegoldenrod-ant-677872.hostingersite.com/nuclear/b11pn11-spectra</v>
+      </c>
+      <c r="D34" t="b">
+        <v>0</v>
+      </c>
+      <c r="E34" t="str">
+        <v>https://palegoldenrod-ant-677872.hostingersite.com/nuclear/b11pn11-spectra</v>
+      </c>
+      <c r="F34" t="b">
+        <v>1</v>
+      </c>
+      <c r="G34" t="str">
+        <v>failed</v>
+      </c>
+      <c r="H34">
+        <v>403</v>
+      </c>
+      <c r="I34" t="str">
+        <v>HTTP 403</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="str">
+        <v>B1-C1-T2</v>
+      </c>
+      <c r="B35" t="str">
+        <v>https://palegoldenrod-ant-677872.hostingersite.com/nuclear/tail-eccentricity</v>
+      </c>
+      <c r="C35" t="str">
+        <v>https://palegoldenrod-ant-677872.hostingersite.com/nuclear/tail-eccentricity</v>
+      </c>
+      <c r="D35" t="b">
+        <v>0</v>
+      </c>
+      <c r="E35" t="str">
+        <v>https://palegoldenrod-ant-677872.hostingersite.com/nuclear/tail-eccentricity</v>
+      </c>
+      <c r="F35" t="b">
+        <v>1</v>
+      </c>
+      <c r="G35" t="str">
+        <v>failed</v>
+      </c>
+      <c r="H35">
+        <v>403</v>
+      </c>
+      <c r="I35" t="str">
+        <v>HTTP 403</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="str">
+        <v>B1-C1-T1</v>
+      </c>
+      <c r="B36" t="str">
+        <v>https://palegoldenrod-ant-677872.hostingersite.com/nuclear/other-activations</v>
+      </c>
+      <c r="C36" t="str">
+        <v>https://palegoldenrod-ant-677872.hostingersite.com/nuclear/other-activations</v>
+      </c>
+      <c r="D36" t="b">
+        <v>0</v>
+      </c>
+      <c r="E36" t="str">
+        <v>https://palegoldenrod-ant-677872.hostingersite.com/nuclear/other-activations</v>
+      </c>
+      <c r="F36" t="b">
+        <v>1</v>
+      </c>
+      <c r="G36" t="str">
+        <v>failed</v>
+      </c>
+      <c r="H36">
+        <v>403</v>
+      </c>
+      <c r="I36" t="str">
+        <v>HTTP 403</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="str">
+        <v>B1-C1-T3</v>
+      </c>
+      <c r="B37" t="str">
+        <v>https://palegoldenrod-ant-677872.hostingersite.com/philosophy/club</v>
+      </c>
+      <c r="C37" t="str">
+        <v>https://palegoldenrod-ant-677872.hostingersite.com/philosophy/club</v>
+      </c>
+      <c r="D37" t="b">
+        <v>0</v>
+      </c>
+      <c r="E37" t="str">
+        <v>https://palegoldenrod-ant-677872.hostingersite.com/philosophy/club</v>
+      </c>
+      <c r="F37" t="b">
+        <v>1</v>
+      </c>
+      <c r="G37" t="str">
+        <v>failed</v>
+      </c>
+      <c r="H37">
+        <v>403</v>
+      </c>
+      <c r="I37" t="str">
+        <v>HTTP 403</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="str">
+        <v>B1-C1-T2</v>
+      </c>
+      <c r="B38" t="str">
+        <v>https://palegoldenrod-ant-677872.hostingersite.com/nuclear/sem-standard-procedures</v>
+      </c>
+      <c r="C38" t="str">
+        <v>https://palegoldenrod-ant-677872.hostingersite.com/nuclear/sem-standard-procedures</v>
+      </c>
+      <c r="D38" t="b">
+        <v>0</v>
+      </c>
+      <c r="E38" t="str">
+        <v>https://palegoldenrod-ant-677872.hostingersite.com/nuclear/sem-standard-procedures</v>
+      </c>
+      <c r="F38" t="b">
+        <v>1</v>
+      </c>
+      <c r="G38" t="str">
+        <v>failed</v>
+      </c>
+      <c r="H38">
+        <v>403</v>
+      </c>
+      <c r="I38" t="str">
+        <v>HTTP 403</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="str">
+        <v>B1-C1-T1</v>
+      </c>
+      <c r="B39" t="str">
+        <v>https://palegoldenrod-ant-677872.hostingersite.com/students/fitness</v>
+      </c>
+      <c r="C39" t="str">
+        <v>https://palegoldenrod-ant-677872.hostingersite.com/students/fitness</v>
+      </c>
+      <c r="D39" t="b">
+        <v>0</v>
+      </c>
+      <c r="E39" t="str">
+        <v>https://palegoldenrod-ant-677872.hostingersite.com/students/fitness</v>
+      </c>
+      <c r="F39" t="b">
+        <v>1</v>
+      </c>
+      <c r="G39" t="str">
+        <v>failed</v>
+      </c>
+      <c r="H39">
+        <v>403</v>
+      </c>
+      <c r="I39" t="str">
+        <v>HTTP 403</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="str">
+        <v>B1-C1-T3</v>
+      </c>
+      <c r="B40" t="str">
+        <v>https://palegoldenrod-ant-677872.hostingersite.com/study_abroad/financial-aid-information</v>
+      </c>
+      <c r="C40" t="str">
+        <v>https://palegoldenrod-ant-677872.hostingersite.com/study_abroad/financial-aid-information</v>
+      </c>
+      <c r="D40" t="b">
+        <v>0</v>
+      </c>
+      <c r="E40" t="str">
+        <v>https://palegoldenrod-ant-677872.hostingersite.com/study_abroad/financial-aid-information</v>
+      </c>
+      <c r="F40" t="b">
+        <v>1</v>
+      </c>
+      <c r="G40" t="str">
+        <v>failed</v>
+      </c>
+      <c r="H40">
+        <v>403</v>
+      </c>
+      <c r="I40" t="str">
+        <v>HTTP 403</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="str">
+        <v>B1-C1-T2</v>
+      </c>
+      <c r="B41" t="str">
+        <v>https://palegoldenrod-ant-677872.hostingersite.com/study_abroad/costa-rica-semester</v>
+      </c>
+      <c r="C41" t="str">
+        <v>https://palegoldenrod-ant-677872.hostingersite.com/study_abroad/costa-rica-semester</v>
+      </c>
+      <c r="D41" t="b">
+        <v>0</v>
+      </c>
+      <c r="E41" t="str">
+        <v>https://palegoldenrod-ant-677872.hostingersite.com/study_abroad/costa-rica-semester</v>
+      </c>
+      <c r="F41" t="b">
+        <v>1</v>
+      </c>
+      <c r="G41" t="str">
+        <v>failed</v>
+      </c>
+      <c r="H41">
+        <v>403</v>
+      </c>
+      <c r="I41" t="str">
+        <v>HTTP 403</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="str">
+        <v>B1-C1-T1</v>
+      </c>
+      <c r="B42" t="str">
+        <v>https://palegoldenrod-ant-677872.hostingersite.com/theatre_dance/theatre</v>
+      </c>
+      <c r="C42" t="str">
+        <v>https://palegoldenrod-ant-677872.hostingersite.com/theatre_dance/theatre</v>
+      </c>
+      <c r="D42" t="b">
+        <v>0</v>
+      </c>
+      <c r="E42" t="str">
+        <v>https://palegoldenrod-ant-677872.hostingersite.com/theatre_dance/theatre</v>
+      </c>
+      <c r="F42" t="b">
+        <v>1</v>
+      </c>
+      <c r="G42" t="str">
+        <v>failed</v>
+      </c>
+      <c r="H42">
+        <v>403</v>
+      </c>
+      <c r="I42" t="str">
+        <v>HTTP 403</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="str">
+        <v>B1-C1-T3</v>
+      </c>
+      <c r="B43" t="str">
+        <v>https://palegoldenrod-ant-677872.hostingersite.com/volunteer_center/peace-corps</v>
+      </c>
+      <c r="C43" t="str">
+        <v>https://palegoldenrod-ant-677872.hostingersite.com/volunteer_center/peace-corps</v>
+      </c>
+      <c r="D43" t="b">
+        <v>0</v>
+      </c>
+      <c r="E43" t="str">
+        <v>https://palegoldenrod-ant-677872.hostingersite.com/volunteer_center/peace-corps</v>
+      </c>
+      <c r="F43" t="b">
+        <v>1</v>
+      </c>
+      <c r="G43" t="str">
+        <v>failed</v>
+      </c>
+      <c r="H43">
+        <v>403</v>
+      </c>
+      <c r="I43" t="str">
+        <v>HTTP 403</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="str">
+        <v>B1-C1-T2</v>
+      </c>
+      <c r="B44" t="str">
+        <v>https://palegoldenrod-ant-677872.hostingersite.com/tribeta/links</v>
+      </c>
+      <c r="C44" t="str">
+        <v>https://palegoldenrod-ant-677872.hostingersite.com/tribeta/links</v>
+      </c>
+      <c r="D44" t="b">
+        <v>0</v>
+      </c>
+      <c r="E44" t="str">
+        <v>https://palegoldenrod-ant-677872.hostingersite.com/tribeta/links</v>
+      </c>
+      <c r="F44" t="b">
+        <v>1</v>
+      </c>
+      <c r="G44" t="str">
+        <v>failed</v>
+      </c>
+      <c r="H44">
+        <v>403</v>
+      </c>
+      <c r="I44" t="str">
+        <v>HTTP 403</v>
+      </c>
+    </row>
+    <row r="45" xml:space="preserve">
+      <c r="A45" t="str">
+        <v>B2-C2-T1</v>
+      </c>
+      <c r="B45" t="str">
+        <v>https://palegoldenrod-ant-677872.hostingersite.com/nuclear/ca-shot-15109</v>
+      </c>
+      <c r="C45" t="str">
+        <v>https://palegoldenrod-ant-677872.hostingersite.com/nuclear/1578-volts-gain-match-check-using-pube-source</v>
+      </c>
+      <c r="D45" t="b">
+        <v>0</v>
+      </c>
+      <c r="E45" t="str">
+        <v>https://palegoldenrod-ant-677872.hostingersite.com/nuclear/ca-shot-15109</v>
+      </c>
+      <c r="F45" t="b">
+        <v>1</v>
+      </c>
+      <c r="G45" t="str">
+        <v>failed</v>
+      </c>
+      <c r="I45" t="str" xml:space="preserve">
         <v xml:space="preserve">page.goto: Timeout 180000ms exceeded.
 Call log:
-_x001b_[2m  - navigating to "https://palegoldenrod-ant-677872.hostingersite.com/cas/hourly-employment", waiting until "domcontentloaded"_x001b_[22m
+_x001b_[2m  - navigating to "https://palegoldenrod-ant-677872.hostingersite.com/nuclear/ca-shot-15109", waiting until "domcontentloaded"_x001b_[22m
 </v>
       </c>
     </row>
-    <row r="33">
-      <c r="A33" t="str">
-        <v>B2-C2-T2</v>
-      </c>
-      <c r="B33" t="str">
-        <v>https://palegoldenrod-ant-677872.hostingersite.com/cas/gf-banner</v>
-      </c>
-      <c r="C33" t="str">
-        <v>https://palegoldenrod-ant-677872.hostingersite.com/cas/gf-banner</v>
-      </c>
-      <c r="D33" t="b">
-        <v>0</v>
-      </c>
-      <c r="E33" t="str">
-        <v>https://palegoldenrod-ant-677872.hostingersite.com/cas/gf-banner</v>
-      </c>
-      <c r="F33" t="b">
-        <v>1</v>
-      </c>
-      <c r="G33" t="str">
-        <v>ok</v>
-      </c>
-      <c r="H33">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="34">
-      <c r="A34" t="str">
-        <v>B2-C1-T3</v>
-      </c>
-      <c r="B34" t="str">
-        <v>https://palegoldenrod-ant-677872.hostingersite.com/cas/winter-break-information</v>
-      </c>
-      <c r="C34" t="str">
-        <v>https://palegoldenrod-ant-677872.hostingersite.com/cas/winter-break-information</v>
-      </c>
-      <c r="D34" t="b">
-        <v>0</v>
-      </c>
-      <c r="E34" t="str">
-        <v>https://palegoldenrod-ant-677872.hostingersite.com/cas/winter-break-information</v>
-      </c>
-      <c r="F34" t="b">
-        <v>1</v>
-      </c>
-      <c r="G34" t="str">
-        <v>ok</v>
-      </c>
-      <c r="H34">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="35">
-      <c r="A35" t="str">
-        <v>B2-C2-T3</v>
-      </c>
-      <c r="B35" t="str">
-        <v>https://palegoldenrod-ant-677872.hostingersite.com/chemistry/donations-chemistry-department</v>
-      </c>
-      <c r="C35" t="str">
-        <v>https://palegoldenrod-ant-677872.hostingersite.com/chemistry/donations-chemistry-department</v>
-      </c>
-      <c r="D35" t="b">
-        <v>0</v>
-      </c>
-      <c r="E35" t="str">
-        <v>https://palegoldenrod-ant-677872.hostingersite.com/chemistry/donations-chemistry-department</v>
-      </c>
-      <c r="F35" t="b">
-        <v>1</v>
-      </c>
-      <c r="G35" t="str">
-        <v>ok</v>
-      </c>
-      <c r="H35">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="36">
-      <c r="A36" t="str">
-        <v>B1-C2-T3</v>
-      </c>
-      <c r="B36" t="str">
-        <v>https://palegoldenrod-ant-677872.hostingersite.com/chemistry/nmr-software-tutorial-vnmj</v>
-      </c>
-      <c r="C36" t="str">
-        <v>https://palegoldenrod-ant-677872.hostingersite.com/chemistry/nmr-software-tutorial-vnmj</v>
-      </c>
-      <c r="D36" t="b">
-        <v>0</v>
-      </c>
-      <c r="E36" t="str">
-        <v>https://palegoldenrod-ant-677872.hostingersite.com/chemistry/nmr-software-tutorial-vnmj</v>
-      </c>
-      <c r="F36" t="b">
-        <v>1</v>
-      </c>
-      <c r="G36" t="str">
-        <v>ok</v>
-      </c>
-      <c r="H36">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="37">
-      <c r="A37" t="str">
-        <v>B1-C1-T1</v>
-      </c>
-      <c r="B37" t="str">
-        <v>https://palegoldenrod-ant-677872.hostingersite.com/chemistry/news</v>
-      </c>
-      <c r="C37" t="str">
-        <v>https://palegoldenrod-ant-677872.hostingersite.com/chemistry/news</v>
-      </c>
-      <c r="D37" t="b">
-        <v>0</v>
-      </c>
-      <c r="E37" t="str">
-        <v>https://palegoldenrod-ant-677872.hostingersite.com/chemistry/news</v>
-      </c>
-      <c r="F37" t="b">
-        <v>1</v>
-      </c>
-      <c r="G37" t="str">
-        <v>ok</v>
-      </c>
-      <c r="H37">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="38">
-      <c r="A38" t="str">
-        <v>B2-C1-T3</v>
-      </c>
-      <c r="B38" t="str">
-        <v>https://palegoldenrod-ant-677872.hostingersite.com/chemistry/h-cristina-geiger-publications</v>
-      </c>
-      <c r="C38" t="str">
-        <v>https://palegoldenrod-ant-677872.hostingersite.com/chemistry/h-cristina-geiger-publications</v>
-      </c>
-      <c r="D38" t="b">
-        <v>0</v>
-      </c>
-      <c r="E38" t="str">
-        <v>https://palegoldenrod-ant-677872.hostingersite.com/chemistry/h-cristina-geiger-publications</v>
-      </c>
-      <c r="F38" t="b">
-        <v>1</v>
-      </c>
-      <c r="G38" t="str">
-        <v>ok</v>
-      </c>
-      <c r="H38">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="39">
-      <c r="A39" t="str">
-        <v>B1-C1-T2</v>
-      </c>
-      <c r="B39" t="str">
-        <v>https://palegoldenrod-ant-677872.hostingersite.com/chemistry/ndyag-laser-pumped-optical-parametric-oscillator-opo</v>
-      </c>
-      <c r="C39" t="str">
-        <v>https://palegoldenrod-ant-677872.hostingersite.com/chemistry/ndyag-laser-pumped-optical-parametric-oscillator-opo</v>
-      </c>
-      <c r="D39" t="b">
-        <v>0</v>
-      </c>
-      <c r="E39" t="str">
-        <v>https://palegoldenrod-ant-677872.hostingersite.com/chemistry/ndyag-laser-pumped-optical-parametric-oscillator-opo</v>
-      </c>
-      <c r="F39" t="b">
-        <v>1</v>
-      </c>
-      <c r="G39" t="str">
-        <v>ok</v>
-      </c>
-      <c r="H39">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="40">
-      <c r="A40" t="str">
-        <v>B1-C2-T2</v>
-      </c>
-      <c r="B40" t="str">
-        <v>https://palegoldenrod-ant-677872.hostingersite.com/chemistry/past_news</v>
-      </c>
-      <c r="C40" t="str">
-        <v>https://palegoldenrod-ant-677872.hostingersite.com/chemistry/past_news</v>
-      </c>
-      <c r="D40" t="b">
-        <v>0</v>
-      </c>
-      <c r="E40" t="str">
-        <v>https://palegoldenrod-ant-677872.hostingersite.com/chemistry/past_news</v>
-      </c>
-      <c r="F40" t="b">
-        <v>1</v>
-      </c>
-      <c r="G40" t="str">
-        <v>ok</v>
-      </c>
-      <c r="H40">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="41">
-      <c r="A41" t="str">
-        <v>B2-C2-T1</v>
-      </c>
-      <c r="B41" t="str">
-        <v>https://palegoldenrod-ant-677872.hostingersite.com/cas/hertz-steps</v>
-      </c>
-      <c r="C41" t="str">
-        <v>https://palegoldenrod-ant-677872.hostingersite.com/cas/hertz-steps</v>
-      </c>
-      <c r="D41" t="b">
-        <v>0</v>
-      </c>
-      <c r="E41" t="str">
-        <v>https://palegoldenrod-ant-677872.hostingersite.com/cas/hertz-steps</v>
-      </c>
-      <c r="F41" t="b">
-        <v>1</v>
-      </c>
-      <c r="G41" t="str">
-        <v>ok</v>
-      </c>
-      <c r="H41">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="42">
-      <c r="A42" t="str">
-        <v>B2-C2-T3</v>
-      </c>
-      <c r="B42" t="str">
-        <v>https://palegoldenrod-ant-677872.hostingersite.com/chemistry/prospective_students</v>
-      </c>
-      <c r="C42" t="str">
-        <v>https://palegoldenrod-ant-677872.hostingersite.com/chemistry/prospective_students</v>
-      </c>
-      <c r="D42" t="b">
-        <v>0</v>
-      </c>
-      <c r="E42" t="str">
-        <v>https://palegoldenrod-ant-677872.hostingersite.com/chemistry/prospective_students</v>
-      </c>
-      <c r="F42" t="b">
-        <v>1</v>
-      </c>
-      <c r="G42" t="str">
-        <v>ok</v>
-      </c>
-      <c r="H42">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="43" xml:space="preserve">
-      <c r="A43" t="str">
+    <row r="46">
+      <c r="A46" t="str">
+        <v>B2-C1-T1</v>
+      </c>
+      <c r="B46" t="str">
+        <v>https://palegoldenrod-ant-677872.hostingersite.com/nuclear/carbon-activation-data</v>
+      </c>
+      <c r="C46" t="str">
+        <v>https://palegoldenrod-ant-677872.hostingersite.com/nuclear/carbon-activation-data</v>
+      </c>
+      <c r="D46" t="b">
+        <v>0</v>
+      </c>
+      <c r="E46" t="str">
+        <v>https://palegoldenrod-ant-677872.hostingersite.com/nuclear/carbon-activation-data</v>
+      </c>
+      <c r="F46" t="b">
+        <v>1</v>
+      </c>
+      <c r="G46" t="str">
+        <v>ok</v>
+      </c>
+      <c r="H46">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="str">
+        <v>B3-C2-T2</v>
+      </c>
+      <c r="B47" t="str">
+        <v>https://palegoldenrod-ant-677872.hostingersite.com/nuclear/spider-silk-beads</v>
+      </c>
+      <c r="C47" t="str">
+        <v>https://palegoldenrod-ant-677872.hostingersite.com/nuclear/spider-silk-beads</v>
+      </c>
+      <c r="D47" t="b">
+        <v>0</v>
+      </c>
+      <c r="E47" t="str">
+        <v>https://palegoldenrod-ant-677872.hostingersite.com/nuclear/spider-silk-beads</v>
+      </c>
+      <c r="F47" t="b">
+        <v>1</v>
+      </c>
+      <c r="G47" t="str">
+        <v>ok</v>
+      </c>
+      <c r="H47">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="str">
         <v>B2-C1-T2</v>
       </c>
-      <c r="B43" t="str">
-        <v>https://palegoldenrod-ant-677872.hostingersite.com/cdl/digital-humanities</v>
-      </c>
-      <c r="C43" t="str">
-        <v>https://palegoldenrod-ant-677872.hostingersite.com/cas/juice-bar-photo</v>
-      </c>
-      <c r="D43" t="b">
-        <v>0</v>
-      </c>
-      <c r="E43" t="str">
-        <v>https://palegoldenrod-ant-677872.hostingersite.com/cdl/digital-humanities</v>
-      </c>
-      <c r="F43" t="b">
-        <v>1</v>
-      </c>
-      <c r="G43" t="str">
-        <v>failed</v>
-      </c>
-      <c r="I43" t="str" xml:space="preserve">
+      <c r="B48" t="str">
+        <v>https://palegoldenrod-ant-677872.hostingersite.com/nuclear/brief-history</v>
+      </c>
+      <c r="C48" t="str">
+        <v>https://palegoldenrod-ant-677872.hostingersite.com/nuclear/brief-history</v>
+      </c>
+      <c r="D48" t="b">
+        <v>0</v>
+      </c>
+      <c r="E48" t="str">
+        <v>https://palegoldenrod-ant-677872.hostingersite.com/nuclear/brief-history</v>
+      </c>
+      <c r="F48" t="b">
+        <v>1</v>
+      </c>
+      <c r="G48" t="str">
+        <v>ok</v>
+      </c>
+      <c r="H48">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="49" xml:space="preserve">
+      <c r="A49" t="str">
+        <v>B3-C1-T1</v>
+      </c>
+      <c r="B49" t="str">
+        <v>https://palegoldenrod-ant-677872.hostingersite.com/muons/2020-great-day-poster</v>
+      </c>
+      <c r="C49" t="str">
+        <v>https://palegoldenrod-ant-677872.hostingersite.com/handbook/b</v>
+      </c>
+      <c r="D49" t="b">
+        <v>0</v>
+      </c>
+      <c r="E49" t="str">
+        <v>https://palegoldenrod-ant-677872.hostingersite.com/muons/2020-great-day-poster</v>
+      </c>
+      <c r="F49" t="b">
+        <v>1</v>
+      </c>
+      <c r="G49" t="str">
+        <v>failed</v>
+      </c>
+      <c r="I49" t="str" xml:space="preserve">
         <v xml:space="preserve">page.goto: Timeout 180000ms exceeded.
 Call log:
-_x001b_[2m  - navigating to "https://palegoldenrod-ant-677872.hostingersite.com/cdl/digital-humanities", waiting until "domcontentloaded"_x001b_[22m
+_x001b_[2m  - navigating to "https://palegoldenrod-ant-677872.hostingersite.com/muons/2020-great-day-poster", waiting until "domcontentloaded"_x001b_[22m
 </v>
       </c>
     </row>
-    <row r="44">
-      <c r="A44" t="str">
-        <v>B1-C1-T3</v>
-      </c>
-      <c r="B44" t="str">
-        <v>https://palegoldenrod-ant-677872.hostingersite.com/chemistry/brucker-avance-dpx-300-nmr-spectrometer</v>
-      </c>
-      <c r="C44" t="str">
-        <v>https://palegoldenrod-ant-677872.hostingersite.com/chemistry/brucker-avance-dpx-300-nmr-spectrometer</v>
-      </c>
-      <c r="D44" t="b">
-        <v>0</v>
-      </c>
-      <c r="E44" t="str">
-        <v>https://palegoldenrod-ant-677872.hostingersite.com/chemistry/brucker-avance-dpx-300-nmr-spectrometer</v>
-      </c>
-      <c r="F44" t="b">
-        <v>1</v>
-      </c>
-      <c r="G44" t="str">
-        <v>ok</v>
-      </c>
-      <c r="H44">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="45">
-      <c r="A45" t="str">
-        <v>B2-C2-T2</v>
-      </c>
-      <c r="B45" t="str">
-        <v>https://palegoldenrod-ant-677872.hostingersite.com/cas/VeganDinner</v>
-      </c>
-      <c r="C45" t="str">
-        <v>https://palegoldenrod-ant-677872.hostingersite.com/cas/VeganDinner</v>
-      </c>
-      <c r="D45" t="b">
-        <v>0</v>
-      </c>
-      <c r="E45" t="str">
-        <v>https://palegoldenrod-ant-677872.hostingersite.com/cas/VeganDinner</v>
-      </c>
-      <c r="F45" t="b">
-        <v>1</v>
-      </c>
-      <c r="G45" t="str">
-        <v>ok</v>
-      </c>
-      <c r="H45">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="46">
-      <c r="A46" t="str">
-        <v>B2-C2-T1</v>
-      </c>
-      <c r="B46" t="str">
-        <v>https://palegoldenrod-ant-677872.hostingersite.com/cas/webform/fast-account-contact-form</v>
-      </c>
-      <c r="C46" t="str">
-        <v>https://palegoldenrod-ant-677872.hostingersite.com/cas/webform/fast-account-contact-form</v>
-      </c>
-      <c r="D46" t="b">
-        <v>0</v>
-      </c>
-      <c r="E46" t="str">
-        <v>https://palegoldenrod-ant-677872.hostingersite.com/cas/webform/fast-account-contact-form</v>
-      </c>
-      <c r="F46" t="b">
-        <v>1</v>
-      </c>
-      <c r="G46" t="str">
-        <v>ok</v>
-      </c>
-      <c r="H46">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="47">
-      <c r="A47" t="str">
-        <v>B1-C1-T3</v>
-      </c>
-      <c r="B47" t="str">
-        <v>https://palegoldenrod-ant-677872.hostingersite.com/chemistry/marathon-16-km-ultracentrafuge</v>
-      </c>
-      <c r="C47" t="str">
-        <v>https://palegoldenrod-ant-677872.hostingersite.com/chemistry/marathon-16-km-ultracentrafuge</v>
-      </c>
-      <c r="D47" t="b">
-        <v>0</v>
-      </c>
-      <c r="E47" t="str">
-        <v>https://palegoldenrod-ant-677872.hostingersite.com/chemistry/marathon-16-km-ultracentrafuge</v>
-      </c>
-      <c r="F47" t="b">
-        <v>1</v>
-      </c>
-      <c r="G47" t="str">
-        <v>ok</v>
-      </c>
-      <c r="H47">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="48">
-      <c r="A48" t="str">
-        <v>B2-C2-T2</v>
-      </c>
-      <c r="B48" t="str">
-        <v>https://palegoldenrod-ant-677872.hostingersite.com/chemistry/facstaff_chem</v>
-      </c>
-      <c r="C48" t="str">
-        <v>https://palegoldenrod-ant-677872.hostingersite.com/chemistry/facstaff_chem</v>
-      </c>
-      <c r="D48" t="b">
-        <v>0</v>
-      </c>
-      <c r="E48" t="str">
-        <v>https://palegoldenrod-ant-677872.hostingersite.com/chemistry/facstaff_chem</v>
-      </c>
-      <c r="F48" t="b">
-        <v>1</v>
-      </c>
-      <c r="G48" t="str">
-        <v>ok</v>
-      </c>
-      <c r="H48">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="49">
-      <c r="A49" t="str">
-        <v>B2-C1-T2</v>
-      </c>
-      <c r="B49" t="str">
-        <v>https://palegoldenrod-ant-677872.hostingersite.com/chemistry/hazardous-waste-training</v>
-      </c>
-      <c r="C49" t="str">
-        <v>https://palegoldenrod-ant-677872.hostingersite.com/chemistry/hazardous-waste-training</v>
-      </c>
-      <c r="D49" t="b">
-        <v>0</v>
-      </c>
-      <c r="E49" t="str">
-        <v>https://palegoldenrod-ant-677872.hostingersite.com/chemistry/hazardous-waste-training</v>
-      </c>
-      <c r="F49" t="b">
-        <v>1</v>
-      </c>
-      <c r="G49" t="str">
-        <v>ok</v>
-      </c>
-      <c r="H49">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="50">
+    <row r="50" xml:space="preserve">
       <c r="A50" t="str">
-        <v>B2-C2-T2</v>
+        <v>B3-C2-T3</v>
       </c>
       <c r="B50" t="str">
-        <v>https://palegoldenrod-ant-677872.hostingersite.com/chemistry/research_oxford</v>
+        <v>https://palegoldenrod-ant-677872.hostingersite.com/nuclear/pube-neutron-calibration-geneseo</v>
       </c>
       <c r="C50" t="str">
-        <v>https://palegoldenrod-ant-677872.hostingersite.com/chemistry/research_oxford</v>
+        <v>https://palegoldenrod-ant-677872.hostingersite.com/mcnair/opportunities</v>
       </c>
       <c r="D50" t="b">
         <v>0</v>
       </c>
       <c r="E50" t="str">
-        <v>https://palegoldenrod-ant-677872.hostingersite.com/chemistry/research_oxford</v>
+        <v>https://palegoldenrod-ant-677872.hostingersite.com/nuclear/pube-neutron-calibration-geneseo</v>
       </c>
       <c r="F50" t="b">
         <v>1</v>
       </c>
       <c r="G50" t="str">
-        <v>ok</v>
-      </c>
-      <c r="H50">
-        <v>200</v>
+        <v>failed</v>
+      </c>
+      <c r="I50" t="str" xml:space="preserve">
+        <v xml:space="preserve">page.goto: Timeout 180000ms exceeded.
+Call log:
+_x001b_[2m  - navigating to "https://palegoldenrod-ant-677872.hostingersite.com/nuclear/pube-neutron-calibration-geneseo", waiting until "domcontentloaded"_x001b_[22m
+</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="str">
+        <v>B1-C2-T3</v>
+      </c>
+      <c r="B51" t="str">
+        <v>https://palegoldenrod-ant-677872.hostingersite.com/nuclear/n14n2n</v>
+      </c>
+      <c r="C51" t="str">
+        <v>https://palegoldenrod-ant-677872.hostingersite.com/nuclear/n14n2n</v>
+      </c>
+      <c r="D51" t="b">
+        <v>0</v>
+      </c>
+      <c r="E51" t="str">
+        <v>https://palegoldenrod-ant-677872.hostingersite.com/nuclear/n14n2n</v>
+      </c>
+      <c r="F51" t="b">
+        <v>1</v>
+      </c>
+      <c r="G51" t="str">
+        <v>ok</v>
+      </c>
+      <c r="H51">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="str">
+        <v>B2-C1-T1</v>
+      </c>
+      <c r="B52" t="str">
+        <v>https://palegoldenrod-ant-677872.hostingersite.com/nuclear/sem-conclusion</v>
+      </c>
+      <c r="C52" t="str">
+        <v>https://palegoldenrod-ant-677872.hostingersite.com/nuclear/sem-conclusion</v>
+      </c>
+      <c r="D52" t="b">
+        <v>0</v>
+      </c>
+      <c r="E52" t="str">
+        <v>https://palegoldenrod-ant-677872.hostingersite.com/nuclear/sem-conclusion</v>
+      </c>
+      <c r="F52" t="b">
+        <v>1</v>
+      </c>
+      <c r="G52" t="str">
+        <v>ok</v>
+      </c>
+      <c r="H52">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="str">
+        <v>B3-C2-T3</v>
+      </c>
+      <c r="B53" t="str">
+        <v>https://palegoldenrod-ant-677872.hostingersite.com/nuclear/carbon-data-2003</v>
+      </c>
+      <c r="C53" t="str">
+        <v>https://palegoldenrod-ant-677872.hostingersite.com/nuclear/carbon-data-2003</v>
+      </c>
+      <c r="D53" t="b">
+        <v>0</v>
+      </c>
+      <c r="E53" t="str">
+        <v>https://palegoldenrod-ant-677872.hostingersite.com/nuclear/carbon-data-2003</v>
+      </c>
+      <c r="F53" t="b">
+        <v>1</v>
+      </c>
+      <c r="G53" t="str">
+        <v>ok</v>
+      </c>
+      <c r="H53">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="54" xml:space="preserve">
+      <c r="A54" t="str">
+        <v>B2-C2-T3</v>
+      </c>
+      <c r="B54" t="str">
+        <v>https://palegoldenrod-ant-677872.hostingersite.com/police/blue_lights</v>
+      </c>
+      <c r="C54" t="str">
+        <v>https://palegoldenrod-ant-677872.hostingersite.com/nuclear/ca-2000-shot-16158</v>
+      </c>
+      <c r="D54" t="b">
+        <v>0</v>
+      </c>
+      <c r="E54" t="str">
+        <v>https://palegoldenrod-ant-677872.hostingersite.com/police/blue_lights</v>
+      </c>
+      <c r="F54" t="b">
+        <v>1</v>
+      </c>
+      <c r="G54" t="str">
+        <v>failed</v>
+      </c>
+      <c r="I54" t="str" xml:space="preserve">
+        <v xml:space="preserve">page.goto: Timeout 180000ms exceeded.
+Call log:
+_x001b_[2m  - navigating to "https://palegoldenrod-ant-677872.hostingersite.com/police/blue_lights", waiting until "domcontentloaded"_x001b_[22m
+</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="str">
+        <v>B2-C1-T2</v>
+      </c>
+      <c r="B55" t="str">
+        <v>https://palegoldenrod-ant-677872.hostingersite.com/nuclear/field-view-animation</v>
+      </c>
+      <c r="C55" t="str">
+        <v>https://palegoldenrod-ant-677872.hostingersite.com/nuclear/field-view-animation</v>
+      </c>
+      <c r="D55" t="b">
+        <v>0</v>
+      </c>
+      <c r="E55" t="str">
+        <v>https://palegoldenrod-ant-677872.hostingersite.com/nuclear/field-view-animation</v>
+      </c>
+      <c r="F55" t="b">
+        <v>1</v>
+      </c>
+      <c r="G55" t="str">
+        <v>ok</v>
+      </c>
+      <c r="H55">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="str">
+        <v>B2-C1-T1</v>
+      </c>
+      <c r="B56" t="str">
+        <v>https://palegoldenrod-ant-677872.hostingersite.com/sustainability/tiny-house</v>
+      </c>
+      <c r="C56" t="str">
+        <v>https://palegoldenrod-ant-677872.hostingersite.com/sustainability/tiny-house</v>
+      </c>
+      <c r="D56" t="b">
+        <v>0</v>
+      </c>
+      <c r="E56" t="str">
+        <v>https://palegoldenrod-ant-677872.hostingersite.com/sustainability/tiny-house</v>
+      </c>
+      <c r="F56" t="b">
+        <v>1</v>
+      </c>
+      <c r="G56" t="str">
+        <v>ok</v>
+      </c>
+      <c r="H56">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="str">
+        <v>B3-C1-T1</v>
+      </c>
+      <c r="B57" t="str">
+        <v>https://palegoldenrod-ant-677872.hostingersite.com/nuclear/1999-run-3</v>
+      </c>
+      <c r="C57" t="str">
+        <v>https://palegoldenrod-ant-677872.hostingersite.com/nuclear/1999-run-3</v>
+      </c>
+      <c r="D57" t="b">
+        <v>0</v>
+      </c>
+      <c r="E57" t="str">
+        <v>https://palegoldenrod-ant-677872.hostingersite.com/nuclear/1999-run-3</v>
+      </c>
+      <c r="F57" t="b">
+        <v>1</v>
+      </c>
+      <c r="G57" t="str">
+        <v>ok</v>
+      </c>
+      <c r="H57">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="str">
+        <v>B3-C2-T3</v>
+      </c>
+      <c r="B58" t="str">
+        <v>https://palegoldenrod-ant-677872.hostingersite.com/student_life/adirondack-experience/reflections</v>
+      </c>
+      <c r="C58" t="str">
+        <v>https://palegoldenrod-ant-677872.hostingersite.com/student_life/adirondack-experience/reflections</v>
+      </c>
+      <c r="D58" t="b">
+        <v>0</v>
+      </c>
+      <c r="E58" t="str">
+        <v>https://palegoldenrod-ant-677872.hostingersite.com/student_life/adirondack-experience/reflections</v>
+      </c>
+      <c r="F58" t="b">
+        <v>1</v>
+      </c>
+      <c r="G58" t="str">
+        <v>ok</v>
+      </c>
+      <c r="H58">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="59" xml:space="preserve">
+      <c r="A59" t="str">
+        <v>B2-C1-T3</v>
+      </c>
+      <c r="B59" t="str">
+        <v>https://palegoldenrod-ant-677872.hostingersite.com/nuclear/carbon-activation-data-2004</v>
+      </c>
+      <c r="C59" t="str">
+        <v>https://palegoldenrod-ant-677872.hostingersite.com/hr/appointment-types</v>
+      </c>
+      <c r="D59" t="b">
+        <v>0</v>
+      </c>
+      <c r="E59" t="str">
+        <v>https://palegoldenrod-ant-677872.hostingersite.com/nuclear/carbon-activation-data-2004</v>
+      </c>
+      <c r="F59" t="b">
+        <v>1</v>
+      </c>
+      <c r="G59" t="str">
+        <v>failed</v>
+      </c>
+      <c r="I59" t="str" xml:space="preserve">
+        <v xml:space="preserve">page.goto: Timeout 180000ms exceeded.
+Call log:
+_x001b_[2m  - navigating to "https://palegoldenrod-ant-677872.hostingersite.com/nuclear/carbon-activation-data-2004", waiting until "domcontentloaded"_x001b_[22m
+</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="str">
+        <v>B2-C2-T3</v>
+      </c>
+      <c r="B60" t="str">
+        <v>https://palegoldenrod-ant-677872.hostingersite.com/support-groups</v>
+      </c>
+      <c r="C60" t="str">
+        <v>https://palegoldenrod-ant-677872.hostingersite.com/support-groups</v>
+      </c>
+      <c r="D60" t="b">
+        <v>0</v>
+      </c>
+      <c r="E60" t="str">
+        <v>https://palegoldenrod-ant-677872.hostingersite.com/support-groups</v>
+      </c>
+      <c r="F60" t="b">
+        <v>1</v>
+      </c>
+      <c r="G60" t="str">
+        <v>ok</v>
+      </c>
+      <c r="H60">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="str">
+        <v>B3-C2-T3</v>
+      </c>
+      <c r="B61" t="str">
+        <v>https://palegoldenrod-ant-677872.hostingersite.com/tlc/notdebate</v>
+      </c>
+      <c r="C61" t="str">
+        <v>https://palegoldenrod-ant-677872.hostingersite.com/tlc/notdebate</v>
+      </c>
+      <c r="D61" t="b">
+        <v>0</v>
+      </c>
+      <c r="E61" t="str">
+        <v>https://palegoldenrod-ant-677872.hostingersite.com/tlc/notdebate</v>
+      </c>
+      <c r="F61" t="b">
+        <v>1</v>
+      </c>
+      <c r="G61" t="str">
+        <v>ok</v>
+      </c>
+      <c r="H61">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="str">
+        <v>B2-C2-T3</v>
+      </c>
+      <c r="B62" t="str">
+        <v>https://palegoldenrod-ant-677872.hostingersite.com/tlc/part-time-faculty-development-awards</v>
+      </c>
+      <c r="C62" t="str">
+        <v>https://palegoldenrod-ant-677872.hostingersite.com/tlc/part-time-faculty-development-awards</v>
+      </c>
+      <c r="D62" t="b">
+        <v>0</v>
+      </c>
+      <c r="E62" t="str">
+        <v>https://palegoldenrod-ant-677872.hostingersite.com/tlc/part-time-faculty-development-awards</v>
+      </c>
+      <c r="F62" t="b">
+        <v>1</v>
+      </c>
+      <c r="G62" t="str">
+        <v>ok</v>
+      </c>
+      <c r="H62">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="63" xml:space="preserve">
+      <c r="A63" t="str">
+        <v>B2-C2-T2</v>
+      </c>
+      <c r="B63" t="str">
+        <v>https://palegoldenrod-ant-677872.hostingersite.com/nuclear/penelope</v>
+      </c>
+      <c r="C63" t="str">
+        <v>https://palegoldenrod-ant-677872.hostingersite.com/nuclear/c12n2n-c11-info</v>
+      </c>
+      <c r="D63" t="b">
+        <v>0</v>
+      </c>
+      <c r="E63" t="str">
+        <v>https://palegoldenrod-ant-677872.hostingersite.com/nuclear/penelope</v>
+      </c>
+      <c r="F63" t="b">
+        <v>1</v>
+      </c>
+      <c r="G63" t="str">
+        <v>failed</v>
+      </c>
+      <c r="I63" t="str" xml:space="preserve">
+        <v xml:space="preserve">page.goto: Timeout 180000ms exceeded.
+Call log:
+_x001b_[2m  - navigating to "https://palegoldenrod-ant-677872.hostingersite.com/nuclear/penelope", waiting until "domcontentloaded"_x001b_[22m
+</v>
+      </c>
+    </row>
+    <row r="64" xml:space="preserve">
+      <c r="A64" t="str">
+        <v>B1-C2-T1</v>
+      </c>
+      <c r="B64" t="str">
+        <v>https://palegoldenrod-ant-677872.hostingersite.com/native_american_studies/programs</v>
+      </c>
+      <c r="C64" t="str">
+        <v>https://palegoldenrod-ant-677872.hostingersite.com/goda/office-hours</v>
+      </c>
+      <c r="D64" t="b">
+        <v>0</v>
+      </c>
+      <c r="E64" t="str">
+        <v>https://palegoldenrod-ant-677872.hostingersite.com/native_american_studies/programs</v>
+      </c>
+      <c r="F64" t="b">
+        <v>1</v>
+      </c>
+      <c r="G64" t="str">
+        <v>failed</v>
+      </c>
+      <c r="I64" t="str" xml:space="preserve">
+        <v xml:space="preserve">page.goto: Timeout 180000ms exceeded.
+Call log:
+_x001b_[2m  - navigating to "https://palegoldenrod-ant-677872.hostingersite.com/native_american_studies/programs", waiting until "domcontentloaded"_x001b_[22m
+</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="str">
+        <v>B3-C2-T1</v>
+      </c>
+      <c r="B65" t="str">
+        <v>https://palegoldenrod-ant-677872.hostingersite.com/nuclear/tail-circularity</v>
+      </c>
+      <c r="C65" t="str">
+        <v>https://palegoldenrod-ant-677872.hostingersite.com/nuclear/tail-circularity</v>
+      </c>
+      <c r="D65" t="b">
+        <v>0</v>
+      </c>
+      <c r="E65" t="str">
+        <v>https://palegoldenrod-ant-677872.hostingersite.com/nuclear/tail-circularity</v>
+      </c>
+      <c r="F65" t="b">
+        <v>1</v>
+      </c>
+      <c r="G65" t="str">
+        <v>ok</v>
+      </c>
+      <c r="H65">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="66" xml:space="preserve">
+      <c r="A66" t="str">
+        <v>B1-C2-T2</v>
+      </c>
+      <c r="B66" t="str">
+        <v>https://palegoldenrod-ant-677872.hostingersite.com/nuclear/1999-run-16</v>
+      </c>
+      <c r="C66" t="str">
+        <v>https://palegoldenrod-ant-677872.hostingersite.com/nuclear/comparison-optical-imaging</v>
+      </c>
+      <c r="D66" t="b">
+        <v>0</v>
+      </c>
+      <c r="E66" t="str">
+        <v>https://palegoldenrod-ant-677872.hostingersite.com/nuclear/1999-run-16</v>
+      </c>
+      <c r="F66" t="b">
+        <v>1</v>
+      </c>
+      <c r="G66" t="str">
+        <v>failed</v>
+      </c>
+      <c r="I66" t="str" xml:space="preserve">
+        <v xml:space="preserve">page.goto: Timeout 180000ms exceeded.
+Call log:
+_x001b_[2m  - navigating to "https://palegoldenrod-ant-677872.hostingersite.com/nuclear/1999-run-16", waiting until "domcontentloaded"_x001b_[22m
+</v>
+      </c>
+    </row>
+    <row r="67" xml:space="preserve">
+      <c r="A67" t="str">
+        <v>B3-C1-T2</v>
+      </c>
+      <c r="B67" t="str">
+        <v>https://palegoldenrod-ant-677872.hostingersite.com/music/minor-musical-theatre</v>
+      </c>
+      <c r="C67" t="str">
+        <v>about:blank</v>
+      </c>
+      <c r="D67" t="b">
+        <v>0</v>
+      </c>
+      <c r="E67" t="str">
+        <v>https://palegoldenrod-ant-677872.hostingersite.com/music/minor-musical-theatre</v>
+      </c>
+      <c r="F67" t="b">
+        <v>1</v>
+      </c>
+      <c r="G67" t="str">
+        <v>failed</v>
+      </c>
+      <c r="I67" t="str" xml:space="preserve">
+        <v xml:space="preserve">page.goto: Timeout 180000ms exceeded.
+Call log:
+_x001b_[2m  - navigating to "https://palegoldenrod-ant-677872.hostingersite.com/music/minor-musical-theatre", waiting until "domcontentloaded"_x001b_[22m
+</v>
+      </c>
+    </row>
+    <row r="68" xml:space="preserve">
+      <c r="A68" t="str">
+        <v>B3-C1-T3</v>
+      </c>
+      <c r="B68" t="str">
+        <v>https://palegoldenrod-ant-677872.hostingersite.com/music/music-minor-requirements-prior-fall-2021</v>
+      </c>
+      <c r="C68" t="str">
+        <v>about:blank</v>
+      </c>
+      <c r="D68" t="b">
+        <v>0</v>
+      </c>
+      <c r="E68" t="str">
+        <v>https://palegoldenrod-ant-677872.hostingersite.com/music/music-minor-requirements-prior-fall-2021</v>
+      </c>
+      <c r="F68" t="b">
+        <v>1</v>
+      </c>
+      <c r="G68" t="str">
+        <v>failed</v>
+      </c>
+      <c r="I68" t="str" xml:space="preserve">
+        <v xml:space="preserve">page.goto: Timeout 180000ms exceeded.
+Call log:
+_x001b_[2m  - navigating to "https://palegoldenrod-ant-677872.hostingersite.com/music/music-minor-requirements-prior-fall-2021", waiting until "domcontentloaded"_x001b_[22m
+</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="str">
+        <v>B2-C2-T2</v>
+      </c>
+      <c r="B69" t="str">
+        <v>https://palegoldenrod-ant-677872.hostingersite.com/peace_poetry/award-ceremony-videos</v>
+      </c>
+      <c r="C69" t="str">
+        <v>https://palegoldenrod-ant-677872.hostingersite.com/peace_poetry/award-ceremony-videos</v>
+      </c>
+      <c r="D69" t="b">
+        <v>0</v>
+      </c>
+      <c r="E69" t="str">
+        <v>https://palegoldenrod-ant-677872.hostingersite.com/peace_poetry/award-ceremony-videos</v>
+      </c>
+      <c r="F69" t="b">
+        <v>1</v>
+      </c>
+      <c r="G69" t="str">
+        <v>ok</v>
+      </c>
+      <c r="H69">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="str">
+        <v>B1-C2-T2</v>
+      </c>
+      <c r="B70" t="str">
+        <v>https://palegoldenrod-ant-677872.hostingersite.com/nuclear/ca-2000-shot-16155</v>
+      </c>
+      <c r="C70" t="str">
+        <v>https://palegoldenrod-ant-677872.hostingersite.com/nuclear/ca-2000-shot-16155</v>
+      </c>
+      <c r="D70" t="b">
+        <v>0</v>
+      </c>
+      <c r="E70" t="str">
+        <v>https://palegoldenrod-ant-677872.hostingersite.com/nuclear/ca-2000-shot-16155</v>
+      </c>
+      <c r="F70" t="b">
+        <v>1</v>
+      </c>
+      <c r="G70" t="str">
+        <v>ok</v>
+      </c>
+      <c r="H70">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="71" xml:space="preserve">
+      <c r="A71" t="str">
         <v>B2-C2-T1</v>
       </c>
-      <c r="B51" t="str">
-        <v>https://palegoldenrod-ant-677872.hostingersite.com/chemistry/gamma_sigma_epsilon</v>
-      </c>
-      <c r="C51" t="str">
-        <v>https://palegoldenrod-ant-677872.hostingersite.com/chemistry/gamma_sigma_epsilon</v>
-      </c>
-      <c r="D51" t="b">
-        <v>0</v>
-      </c>
-      <c r="E51" t="str">
-        <v>https://palegoldenrod-ant-677872.hostingersite.com/chemistry/gamma_sigma_epsilon</v>
-      </c>
-      <c r="F51" t="b">
-        <v>1</v>
-      </c>
-      <c r="G51" t="str">
-        <v>ok</v>
-      </c>
-      <c r="H51">
+      <c r="B71" t="str">
+        <v>https://palegoldenrod-ant-677872.hostingersite.com/nuclear/ca-2001-chart1</v>
+      </c>
+      <c r="C71" t="str">
+        <v>https://palegoldenrod-ant-677872.hostingersite.com/nuclear/1578-volts-gain-match-check-using-pube-source</v>
+      </c>
+      <c r="D71" t="b">
+        <v>0</v>
+      </c>
+      <c r="E71" t="str">
+        <v>https://palegoldenrod-ant-677872.hostingersite.com/nuclear/ca-2001-chart1</v>
+      </c>
+      <c r="F71" t="b">
+        <v>1</v>
+      </c>
+      <c r="G71" t="str">
+        <v>failed</v>
+      </c>
+      <c r="I71" t="str" xml:space="preserve">
+        <v xml:space="preserve">page.goto: Timeout 180000ms exceeded.
+Call log:
+_x001b_[2m  - navigating to "https://palegoldenrod-ant-677872.hostingersite.com/nuclear/ca-2001-chart1", waiting until "domcontentloaded"_x001b_[22m
+</v>
+      </c>
+    </row>
+    <row r="72" xml:space="preserve">
+      <c r="A72" t="str">
+        <v>B3-C2-T2</v>
+      </c>
+      <c r="B72" t="str">
+        <v>https://palegoldenrod-ant-677872.hostingersite.com/student_employment/employer-frequently-asked-questions</v>
+      </c>
+      <c r="C72" t="str">
+        <v>https://palegoldenrod-ant-677872.hostingersite.com/nuclear/spider-silk-beads</v>
+      </c>
+      <c r="D72" t="b">
+        <v>0</v>
+      </c>
+      <c r="E72" t="str">
+        <v>https://palegoldenrod-ant-677872.hostingersite.com/student_employment/employer-frequently-asked-questions</v>
+      </c>
+      <c r="F72" t="b">
+        <v>1</v>
+      </c>
+      <c r="G72" t="str">
+        <v>failed</v>
+      </c>
+      <c r="I72" t="str" xml:space="preserve">
+        <v xml:space="preserve">page.goto: Timeout 180000ms exceeded.
+Call log:
+_x001b_[2m  - navigating to "https://palegoldenrod-ant-677872.hostingersite.com/student_employment/employer-frequently-asked-questions", waiting until "domcontentloaded"_x001b_[22m
+</v>
+      </c>
+    </row>
+    <row r="73" xml:space="preserve">
+      <c r="A73" t="str">
+        <v>B1-C2-T3</v>
+      </c>
+      <c r="B73" t="str">
+        <v>https://palegoldenrod-ant-677872.hostingersite.com/newman</v>
+      </c>
+      <c r="C73" t="str">
+        <v>https://palegoldenrod-ant-677872.hostingersite.com/nuclear/n14n2n</v>
+      </c>
+      <c r="D73" t="b">
+        <v>0</v>
+      </c>
+      <c r="E73" t="str">
+        <v>https://palegoldenrod-ant-677872.hostingersite.com/newman</v>
+      </c>
+      <c r="F73" t="b">
+        <v>1</v>
+      </c>
+      <c r="G73" t="str">
+        <v>failed</v>
+      </c>
+      <c r="I73" t="str" xml:space="preserve">
+        <v xml:space="preserve">page.goto: Timeout 180000ms exceeded.
+Call log:
+_x001b_[2m  - navigating to "https://palegoldenrod-ant-677872.hostingersite.com/newman", waiting until "domcontentloaded"_x001b_[22m
+</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" t="str">
+        <v>B1-C2-T1</v>
+      </c>
+      <c r="B74" t="str">
+        <v>https://palegoldenrod-ant-677872.hostingersite.com/nuclear/carbon-activation-data-2000</v>
+      </c>
+      <c r="C74" t="str">
+        <v>https://palegoldenrod-ant-677872.hostingersite.com/nuclear/carbon-activation-data-2000</v>
+      </c>
+      <c r="D74" t="b">
+        <v>0</v>
+      </c>
+      <c r="E74" t="str">
+        <v>https://palegoldenrod-ant-677872.hostingersite.com/nuclear/carbon-activation-data-2000</v>
+      </c>
+      <c r="F74" t="b">
+        <v>1</v>
+      </c>
+      <c r="G74" t="str">
+        <v>ok</v>
+      </c>
+      <c r="H74">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" t="str">
+        <v>B2-C1-T3</v>
+      </c>
+      <c r="B75" t="str">
+        <v>https://palegoldenrod-ant-677872.hostingersite.com/nuclear/current-sem</v>
+      </c>
+      <c r="C75" t="str">
+        <v>https://palegoldenrod-ant-677872.hostingersite.com/nuclear/current-sem</v>
+      </c>
+      <c r="D75" t="b">
+        <v>0</v>
+      </c>
+      <c r="E75" t="str">
+        <v>https://palegoldenrod-ant-677872.hostingersite.com/nuclear/current-sem</v>
+      </c>
+      <c r="F75" t="b">
+        <v>1</v>
+      </c>
+      <c r="G75" t="str">
+        <v>failed</v>
+      </c>
+      <c r="H75">
+        <v>403</v>
+      </c>
+      <c r="I75" t="str">
+        <v>HTTP 403</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" t="str">
+        <v>B2-C1-T1</v>
+      </c>
+      <c r="B76" t="str">
+        <v>https://palegoldenrod-ant-677872.hostingersite.com/theatre_dance/theatre-english_information</v>
+      </c>
+      <c r="C76" t="str">
+        <v>https://palegoldenrod-ant-677872.hostingersite.com/theatre_dance/theatre-english_information</v>
+      </c>
+      <c r="D76" t="b">
+        <v>0</v>
+      </c>
+      <c r="E76" t="str">
+        <v>https://palegoldenrod-ant-677872.hostingersite.com/theatre_dance/theatre-english_information</v>
+      </c>
+      <c r="F76" t="b">
+        <v>1</v>
+      </c>
+      <c r="G76" t="str">
+        <v>failed</v>
+      </c>
+      <c r="H76">
+        <v>403</v>
+      </c>
+      <c r="I76" t="str">
+        <v>HTTP 403</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" t="str">
+        <v>B2-C1-T2</v>
+      </c>
+      <c r="B77" t="str">
+        <v>https://palegoldenrod-ant-677872.hostingersite.com/support/1871-leadership-society</v>
+      </c>
+      <c r="C77" t="str">
+        <v>https://palegoldenrod-ant-677872.hostingersite.com/support/1871-leadership-society</v>
+      </c>
+      <c r="D77" t="b">
+        <v>0</v>
+      </c>
+      <c r="E77" t="str">
+        <v>https://palegoldenrod-ant-677872.hostingersite.com/support/1871-leadership-society</v>
+      </c>
+      <c r="F77" t="b">
+        <v>1</v>
+      </c>
+      <c r="G77" t="str">
+        <v>failed</v>
+      </c>
+      <c r="H77">
+        <v>403</v>
+      </c>
+      <c r="I77" t="str">
+        <v>HTTP 403</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" t="str">
+        <v>B2-C1-T3</v>
+      </c>
+      <c r="B78" t="str">
+        <v>https://palegoldenrod-ant-677872.hostingersite.com/nuclear/proton-polarimeter-design</v>
+      </c>
+      <c r="C78" t="str">
+        <v>https://palegoldenrod-ant-677872.hostingersite.com/nuclear/proton-polarimeter-design</v>
+      </c>
+      <c r="D78" t="b">
+        <v>0</v>
+      </c>
+      <c r="E78" t="str">
+        <v>https://palegoldenrod-ant-677872.hostingersite.com/nuclear/proton-polarimeter-design</v>
+      </c>
+      <c r="F78" t="b">
+        <v>1</v>
+      </c>
+      <c r="G78" t="str">
+        <v>failed</v>
+      </c>
+      <c r="H78">
+        <v>403</v>
+      </c>
+      <c r="I78" t="str">
+        <v>HTTP 403</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" t="str">
+        <v>B2-C1-T2</v>
+      </c>
+      <c r="B79" t="str">
+        <v>https://palegoldenrod-ant-677872.hostingersite.com/womens_rugby/archive</v>
+      </c>
+      <c r="C79" t="str">
+        <v>https://palegoldenrod-ant-677872.hostingersite.com/womens_rugby/archive</v>
+      </c>
+      <c r="D79" t="b">
+        <v>0</v>
+      </c>
+      <c r="E79" t="str">
+        <v>https://palegoldenrod-ant-677872.hostingersite.com/womens_rugby/archive</v>
+      </c>
+      <c r="F79" t="b">
+        <v>1</v>
+      </c>
+      <c r="G79" t="str">
+        <v>failed</v>
+      </c>
+      <c r="H79">
+        <v>403</v>
+      </c>
+      <c r="I79" t="str">
+        <v>HTTP 403</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" t="str">
+        <v>B2-C1-T3</v>
+      </c>
+      <c r="B80" t="str">
+        <v>https://palegoldenrod-ant-677872.hostingersite.com/student_employment/application-process-contact-employer-directly</v>
+      </c>
+      <c r="C80" t="str">
+        <v>https://palegoldenrod-ant-677872.hostingersite.com/student_employment/application-process-contact-employer-directly</v>
+      </c>
+      <c r="D80" t="b">
+        <v>0</v>
+      </c>
+      <c r="E80" t="str">
+        <v>https://palegoldenrod-ant-677872.hostingersite.com/student_employment/application-process-contact-employer-directly</v>
+      </c>
+      <c r="F80" t="b">
+        <v>1</v>
+      </c>
+      <c r="G80" t="str">
+        <v>failed</v>
+      </c>
+      <c r="H80">
+        <v>403</v>
+      </c>
+      <c r="I80" t="str">
+        <v>HTTP 403</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" t="str">
+        <v>B2-C1-T3</v>
+      </c>
+      <c r="B81" t="str">
+        <v>https://palegoldenrod-ant-677872.hostingersite.com/volunteer_center/teach-america</v>
+      </c>
+      <c r="C81" t="str">
+        <v>https://palegoldenrod-ant-677872.hostingersite.com/volunteer_center/teach-america</v>
+      </c>
+      <c r="D81" t="b">
+        <v>0</v>
+      </c>
+      <c r="E81" t="str">
+        <v>https://palegoldenrod-ant-677872.hostingersite.com/volunteer_center/teach-america</v>
+      </c>
+      <c r="F81" t="b">
+        <v>1</v>
+      </c>
+      <c r="G81" t="str">
+        <v>failed</v>
+      </c>
+      <c r="H81">
+        <v>403</v>
+      </c>
+      <c r="I81" t="str">
+        <v>HTTP 403</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" t="str">
+        <v>B1-C2-T2</v>
+      </c>
+      <c r="B82" t="str">
+        <v>https://palegoldenrod-ant-677872.hostingersite.com/political_science/news__events</v>
+      </c>
+      <c r="C82" t="str">
+        <v>https://palegoldenrod-ant-677872.hostingersite.com/political_science/news__events</v>
+      </c>
+      <c r="D82" t="b">
+        <v>0</v>
+      </c>
+      <c r="E82" t="str">
+        <v>https://palegoldenrod-ant-677872.hostingersite.com/political_science/news__events</v>
+      </c>
+      <c r="F82" t="b">
+        <v>1</v>
+      </c>
+      <c r="G82" t="str">
+        <v>ok</v>
+      </c>
+      <c r="H82">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="83" xml:space="preserve">
+      <c r="A83" t="str">
+        <v>B3-C1-T1</v>
+      </c>
+      <c r="B83" t="str">
+        <v>https://palegoldenrod-ant-677872.hostingersite.com/nuclear/pencyl</v>
+      </c>
+      <c r="C83" t="str">
+        <v>https://palegoldenrod-ant-677872.hostingersite.com/nuclear/1999-run-3</v>
+      </c>
+      <c r="D83" t="b">
+        <v>0</v>
+      </c>
+      <c r="E83" t="str">
+        <v>https://palegoldenrod-ant-677872.hostingersite.com/nuclear/pencyl</v>
+      </c>
+      <c r="F83" t="b">
+        <v>1</v>
+      </c>
+      <c r="G83" t="str">
+        <v>failed</v>
+      </c>
+      <c r="I83" t="str" xml:space="preserve">
+        <v xml:space="preserve">page.goto: Timeout 180000ms exceeded.
+Call log:
+_x001b_[2m  - navigating to "https://palegoldenrod-ant-677872.hostingersite.com/nuclear/pencyl", waiting until "domcontentloaded"_x001b_[22m
+</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" t="str">
+        <v>B1-C2-T3</v>
+      </c>
+      <c r="B84" t="str">
+        <v>https://palegoldenrod-ant-677872.hostingersite.com/peace_action</v>
+      </c>
+      <c r="C84" t="str">
+        <v>https://palegoldenrod-ant-677872.hostingersite.com/peace_action</v>
+      </c>
+      <c r="D84" t="b">
+        <v>0</v>
+      </c>
+      <c r="E84" t="str">
+        <v>https://palegoldenrod-ant-677872.hostingersite.com/peace_action</v>
+      </c>
+      <c r="F84" t="b">
+        <v>1</v>
+      </c>
+      <c r="G84" t="str">
+        <v>ok</v>
+      </c>
+      <c r="H84">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" t="str">
+        <v>B3-C1-T2</v>
+      </c>
+      <c r="B85" t="str">
+        <v>https://palegoldenrod-ant-677872.hostingersite.com/nuclear/1999-run-6</v>
+      </c>
+      <c r="C85" t="str">
+        <v>https://palegoldenrod-ant-677872.hostingersite.com/nuclear/1999-run-6</v>
+      </c>
+      <c r="D85" t="b">
+        <v>0</v>
+      </c>
+      <c r="E85" t="str">
+        <v>https://palegoldenrod-ant-677872.hostingersite.com/nuclear/1999-run-6</v>
+      </c>
+      <c r="F85" t="b">
+        <v>1</v>
+      </c>
+      <c r="G85" t="str">
+        <v>ok</v>
+      </c>
+      <c r="H85">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" t="str">
+        <v>B3-C2-T2</v>
+      </c>
+      <c r="B86" t="str">
+        <v>https://palegoldenrod-ant-677872.hostingersite.com/urso</v>
+      </c>
+      <c r="C86" t="str">
+        <v>https://palegoldenrod-ant-677872.hostingersite.com/urso</v>
+      </c>
+      <c r="D86" t="b">
+        <v>0</v>
+      </c>
+      <c r="E86" t="str">
+        <v>https://palegoldenrod-ant-677872.hostingersite.com/urso</v>
+      </c>
+      <c r="F86" t="b">
+        <v>1</v>
+      </c>
+      <c r="G86" t="str">
+        <v>ok</v>
+      </c>
+      <c r="H86">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" t="str">
+        <v>B2-C2-T1</v>
+      </c>
+      <c r="B87" t="str">
+        <v>https://palegoldenrod-ant-677872.hostingersite.com/pepband/contact-us</v>
+      </c>
+      <c r="C87" t="str">
+        <v>https://palegoldenrod-ant-677872.hostingersite.com/pepband/contact-us</v>
+      </c>
+      <c r="D87" t="b">
+        <v>0</v>
+      </c>
+      <c r="E87" t="str">
+        <v>https://palegoldenrod-ant-677872.hostingersite.com/pepband/contact-us</v>
+      </c>
+      <c r="F87" t="b">
+        <v>1</v>
+      </c>
+      <c r="G87" t="str">
+        <v>ok</v>
+      </c>
+      <c r="H87">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" t="str">
+        <v>B1-C2-T1</v>
+      </c>
+      <c r="B88" t="str">
+        <v>https://palegoldenrod-ant-677872.hostingersite.com/nuclear/carbon-data-2004</v>
+      </c>
+      <c r="C88" t="str">
+        <v>https://palegoldenrod-ant-677872.hostingersite.com/nuclear/carbon-data-2004</v>
+      </c>
+      <c r="D88" t="b">
+        <v>0</v>
+      </c>
+      <c r="E88" t="str">
+        <v>https://palegoldenrod-ant-677872.hostingersite.com/nuclear/carbon-data-2004</v>
+      </c>
+      <c r="F88" t="b">
+        <v>1</v>
+      </c>
+      <c r="G88" t="str">
+        <v>ok</v>
+      </c>
+      <c r="H88">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="89" xml:space="preserve">
+      <c r="A89" t="str">
+        <v>B3-C2-T1</v>
+      </c>
+      <c r="B89" t="str">
+        <v>https://palegoldenrod-ant-677872.hostingersite.com/nuclear/cr-39-hole-size</v>
+      </c>
+      <c r="C89" t="str">
+        <v>https://palegoldenrod-ant-677872.hostingersite.com/nuclear/tail-circularity</v>
+      </c>
+      <c r="D89" t="b">
+        <v>0</v>
+      </c>
+      <c r="E89" t="str">
+        <v>https://palegoldenrod-ant-677872.hostingersite.com/nuclear/cr-39-hole-size</v>
+      </c>
+      <c r="F89" t="b">
+        <v>1</v>
+      </c>
+      <c r="G89" t="str">
+        <v>failed</v>
+      </c>
+      <c r="I89" t="str" xml:space="preserve">
+        <v xml:space="preserve">page.goto: Timeout 180000ms exceeded.
+Call log:
+_x001b_[2m  - navigating to "https://palegoldenrod-ant-677872.hostingersite.com/nuclear/cr-39-hole-size", waiting until "domcontentloaded"_x001b_[22m
+</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" t="str">
+        <v>B3-C1-T3</v>
+      </c>
+      <c r="B90" t="str">
+        <v>https://palegoldenrod-ant-677872.hostingersite.com/nuclear/1999-run-9</v>
+      </c>
+      <c r="C90" t="str">
+        <v>https://palegoldenrod-ant-677872.hostingersite.com/nuclear/1999-run-9</v>
+      </c>
+      <c r="D90" t="b">
+        <v>0</v>
+      </c>
+      <c r="E90" t="str">
+        <v>https://palegoldenrod-ant-677872.hostingersite.com/nuclear/1999-run-9</v>
+      </c>
+      <c r="F90" t="b">
+        <v>1</v>
+      </c>
+      <c r="G90" t="str">
+        <v>ok</v>
+      </c>
+      <c r="H90">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="91" xml:space="preserve">
+      <c r="A91" t="str">
+        <v>B2-C2-T2</v>
+      </c>
+      <c r="B91" t="str">
+        <v>https://palegoldenrod-ant-677872.hostingersite.com/summer-sessions/student-services</v>
+      </c>
+      <c r="C91" t="str">
+        <v>https://palegoldenrod-ant-677872.hostingersite.com/peace_poetry/award-ceremony-videos</v>
+      </c>
+      <c r="D91" t="b">
+        <v>0</v>
+      </c>
+      <c r="E91" t="str">
+        <v>https://palegoldenrod-ant-677872.hostingersite.com/summer-sessions/student-services</v>
+      </c>
+      <c r="F91" t="b">
+        <v>1</v>
+      </c>
+      <c r="G91" t="str">
+        <v>failed</v>
+      </c>
+      <c r="I91" t="str" xml:space="preserve">
+        <v xml:space="preserve">page.goto: Timeout 180000ms exceeded.
+Call log:
+_x001b_[2m  - navigating to "https://palegoldenrod-ant-677872.hostingersite.com/summer-sessions/student-services", waiting until "domcontentloaded"_x001b_[22m
+</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" t="str">
+        <v>B2-C2-T1</v>
+      </c>
+      <c r="B92" t="str">
+        <v>https://palegoldenrod-ant-677872.hostingersite.com/theatre_dance/dance_ensemble_photographs</v>
+      </c>
+      <c r="C92" t="str">
+        <v>https://palegoldenrod-ant-677872.hostingersite.com/theatre_dance/dance_ensemble_photographs</v>
+      </c>
+      <c r="D92" t="b">
+        <v>0</v>
+      </c>
+      <c r="E92" t="str">
+        <v>https://palegoldenrod-ant-677872.hostingersite.com/theatre_dance/dance_ensemble_photographs</v>
+      </c>
+      <c r="F92" t="b">
+        <v>1</v>
+      </c>
+      <c r="G92" t="str">
+        <v>ok</v>
+      </c>
+      <c r="H92">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" t="str">
+        <v>B3-C1-T3</v>
+      </c>
+      <c r="B93" t="str">
+        <v>https://palegoldenrod-ant-677872.hostingersite.com/nuclear/ca-2001-shot-data-collected</v>
+      </c>
+      <c r="C93" t="str">
+        <v>https://palegoldenrod-ant-677872.hostingersite.com/nuclear/ca-2001-shot-data-collected</v>
+      </c>
+      <c r="D93" t="b">
+        <v>0</v>
+      </c>
+      <c r="E93" t="str">
+        <v>https://palegoldenrod-ant-677872.hostingersite.com/nuclear/ca-2001-shot-data-collected</v>
+      </c>
+      <c r="F93" t="b">
+        <v>1</v>
+      </c>
+      <c r="G93" t="str">
+        <v>ok</v>
+      </c>
+      <c r="H93">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" t="str">
+        <v>B1-C2-T3</v>
+      </c>
+      <c r="B94" t="str">
+        <v>https://palegoldenrod-ant-677872.hostingersite.com/philosophy/minor</v>
+      </c>
+      <c r="C94" t="str">
+        <v>https://palegoldenrod-ant-677872.hostingersite.com/philosophy/minor</v>
+      </c>
+      <c r="D94" t="b">
+        <v>0</v>
+      </c>
+      <c r="E94" t="str">
+        <v>https://palegoldenrod-ant-677872.hostingersite.com/philosophy/minor</v>
+      </c>
+      <c r="F94" t="b">
+        <v>1</v>
+      </c>
+      <c r="G94" t="str">
+        <v>ok</v>
+      </c>
+      <c r="H94">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" t="str">
+        <v>B3-C1-T3</v>
+      </c>
+      <c r="B95" t="str">
+        <v>https://palegoldenrod-ant-677872.hostingersite.com/student_life/student-organization-grant-program</v>
+      </c>
+      <c r="C95" t="str">
+        <v>https://palegoldenrod-ant-677872.hostingersite.com/student_life/student-organization-grant-program</v>
+      </c>
+      <c r="D95" t="b">
+        <v>0</v>
+      </c>
+      <c r="E95" t="str">
+        <v>https://palegoldenrod-ant-677872.hostingersite.com/student_life/student-organization-grant-program</v>
+      </c>
+      <c r="F95" t="b">
+        <v>1</v>
+      </c>
+      <c r="G95" t="str">
+        <v>ok</v>
+      </c>
+      <c r="H95">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" t="str">
+        <v>B1-C2-T2</v>
+      </c>
+      <c r="B96" t="str">
+        <v>https://palegoldenrod-ant-677872.hostingersite.com/support/endowment</v>
+      </c>
+      <c r="C96" t="str">
+        <v>https://palegoldenrod-ant-677872.hostingersite.com/support/endowment</v>
+      </c>
+      <c r="D96" t="b">
+        <v>0</v>
+      </c>
+      <c r="E96" t="str">
+        <v>https://palegoldenrod-ant-677872.hostingersite.com/support/endowment</v>
+      </c>
+      <c r="F96" t="b">
+        <v>1</v>
+      </c>
+      <c r="G96" t="str">
+        <v>ok</v>
+      </c>
+      <c r="H96">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" t="str">
+        <v>B2-C2-T2</v>
+      </c>
+      <c r="B97" t="str">
+        <v>https://palegoldenrod-ant-677872.hostingersite.com/tlc/resources-faculty-staff-well-being</v>
+      </c>
+      <c r="C97" t="str">
+        <v>https://palegoldenrod-ant-677872.hostingersite.com/tlc/resources-faculty-staff-well-being</v>
+      </c>
+      <c r="D97" t="b">
+        <v>0</v>
+      </c>
+      <c r="E97" t="str">
+        <v>https://palegoldenrod-ant-677872.hostingersite.com/tlc/resources-faculty-staff-well-being</v>
+      </c>
+      <c r="F97" t="b">
+        <v>1</v>
+      </c>
+      <c r="G97" t="str">
+        <v>ok</v>
+      </c>
+      <c r="H97">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" t="str">
+        <v>B1-C2-T1</v>
+      </c>
+      <c r="B98" t="str">
+        <v>https://palegoldenrod-ant-677872.hostingersite.com/political_science/european-systems-track</v>
+      </c>
+      <c r="C98" t="str">
+        <v>https://palegoldenrod-ant-677872.hostingersite.com/political_science/european-systems-track</v>
+      </c>
+      <c r="D98" t="b">
+        <v>0</v>
+      </c>
+      <c r="E98" t="str">
+        <v>https://palegoldenrod-ant-677872.hostingersite.com/political_science/european-systems-track</v>
+      </c>
+      <c r="F98" t="b">
+        <v>1</v>
+      </c>
+      <c r="G98" t="str">
+        <v>ok</v>
+      </c>
+      <c r="H98">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" t="str">
+        <v>B3-C2-T1</v>
+      </c>
+      <c r="B99" t="str">
+        <v>https://palegoldenrod-ant-677872.hostingersite.com/student_employment/employer_information</v>
+      </c>
+      <c r="C99" t="str">
+        <v>https://palegoldenrod-ant-677872.hostingersite.com/student_employment/employer_information</v>
+      </c>
+      <c r="D99" t="b">
+        <v>0</v>
+      </c>
+      <c r="E99" t="str">
+        <v>https://palegoldenrod-ant-677872.hostingersite.com/student_employment/employer_information</v>
+      </c>
+      <c r="F99" t="b">
+        <v>1</v>
+      </c>
+      <c r="G99" t="str">
+        <v>ok</v>
+      </c>
+      <c r="H99">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" t="str">
+        <v>B1-C2-T1</v>
+      </c>
+      <c r="B100" t="str">
+        <v>https://palegoldenrod-ant-677872.hostingersite.com/study_abroad/hispaniclatin-american-students-abroad</v>
+      </c>
+      <c r="C100" t="str">
+        <v>https://palegoldenrod-ant-677872.hostingersite.com/study_abroad/hispaniclatin-american-students-abroad</v>
+      </c>
+      <c r="D100" t="b">
+        <v>0</v>
+      </c>
+      <c r="E100" t="str">
+        <v>https://palegoldenrod-ant-677872.hostingersite.com/study_abroad/hispaniclatin-american-students-abroad</v>
+      </c>
+      <c r="F100" t="b">
+        <v>1</v>
+      </c>
+      <c r="G100" t="str">
+        <v>ok</v>
+      </c>
+      <c r="H100">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" t="str">
+        <v>B3-C2-T1</v>
+      </c>
+      <c r="B101" t="str">
+        <v>https://palegoldenrod-ant-677872.hostingersite.com/tlc/dddfn</v>
+      </c>
+      <c r="C101" t="str">
+        <v>https://palegoldenrod-ant-677872.hostingersite.com/tlc/dddfn</v>
+      </c>
+      <c r="D101" t="b">
+        <v>0</v>
+      </c>
+      <c r="E101" t="str">
+        <v>https://palegoldenrod-ant-677872.hostingersite.com/tlc/dddfn</v>
+      </c>
+      <c r="F101" t="b">
+        <v>1</v>
+      </c>
+      <c r="G101" t="str">
+        <v>ok</v>
+      </c>
+      <c r="H101">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" t="str">
+        <v>B3-C1-T2</v>
+      </c>
+      <c r="B102" t="str">
+        <v>https://palegoldenrod-ant-677872.hostingersite.com/off_campus/step-step</v>
+      </c>
+      <c r="C102" t="str">
+        <v>https://palegoldenrod-ant-677872.hostingersite.com/off_campus/step-step</v>
+      </c>
+      <c r="D102" t="b">
+        <v>0</v>
+      </c>
+      <c r="E102" t="str">
+        <v>https://palegoldenrod-ant-677872.hostingersite.com/off_campus/step-step</v>
+      </c>
+      <c r="F102" t="b">
+        <v>1</v>
+      </c>
+      <c r="G102" t="str">
+        <v>ok</v>
+      </c>
+      <c r="H102">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" t="str">
+        <v>B3-C1-T1</v>
+      </c>
+      <c r="B103" t="str">
+        <v>https://palegoldenrod-ant-677872.hostingersite.com/student_life/places-union</v>
+      </c>
+      <c r="C103" t="str">
+        <v>https://palegoldenrod-ant-677872.hostingersite.com/student_life/places-union</v>
+      </c>
+      <c r="D103" t="b">
+        <v>0</v>
+      </c>
+      <c r="E103" t="str">
+        <v>https://palegoldenrod-ant-677872.hostingersite.com/student_life/places-union</v>
+      </c>
+      <c r="F103" t="b">
+        <v>1</v>
+      </c>
+      <c r="G103" t="str">
+        <v>ok</v>
+      </c>
+      <c r="H103">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" t="str">
+        <v>B3-C1-T2</v>
+      </c>
+      <c r="B104" t="str">
+        <v>https://palegoldenrod-ant-677872.hostingersite.com/student_life/student-involvement-fair</v>
+      </c>
+      <c r="C104" t="str">
+        <v>https://palegoldenrod-ant-677872.hostingersite.com/student_life/student-involvement-fair</v>
+      </c>
+      <c r="D104" t="b">
+        <v>0</v>
+      </c>
+      <c r="E104" t="str">
+        <v>https://palegoldenrod-ant-677872.hostingersite.com/student_life/student-involvement-fair</v>
+      </c>
+      <c r="F104" t="b">
+        <v>1</v>
+      </c>
+      <c r="G104" t="str">
+        <v>ok</v>
+      </c>
+      <c r="H104">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" t="str">
+        <v>B2-C2-T1</v>
+      </c>
+      <c r="B105" t="str">
+        <v>https://palegoldenrod-ant-677872.hostingersite.com/wadsworth_auditorium/floor_plan</v>
+      </c>
+      <c r="C105" t="str">
+        <v>https://palegoldenrod-ant-677872.hostingersite.com/wadsworth_auditorium/floor_plan</v>
+      </c>
+      <c r="D105" t="b">
+        <v>0</v>
+      </c>
+      <c r="E105" t="str">
+        <v>https://palegoldenrod-ant-677872.hostingersite.com/wadsworth_auditorium/floor_plan</v>
+      </c>
+      <c r="F105" t="b">
+        <v>1</v>
+      </c>
+      <c r="G105" t="str">
+        <v>ok</v>
+      </c>
+      <c r="H105">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" t="str">
+        <v>B3-C1-T3</v>
+      </c>
+      <c r="B106" t="str">
+        <v>https://palegoldenrod-ant-677872.hostingersite.com/theatre_dance/broomfield-brings-talents-geneseo-through-suny-faculty-diversity-program</v>
+      </c>
+      <c r="C106" t="str">
+        <v>https://palegoldenrod-ant-677872.hostingersite.com/theatre_dance/broomfield-brings-talents-geneseo-through-suny-faculty-diversity-program</v>
+      </c>
+      <c r="D106" t="b">
+        <v>0</v>
+      </c>
+      <c r="E106" t="str">
+        <v>https://palegoldenrod-ant-677872.hostingersite.com/theatre_dance/broomfield-brings-talents-geneseo-through-suny-faculty-diversity-program</v>
+      </c>
+      <c r="F106" t="b">
+        <v>1</v>
+      </c>
+      <c r="G106" t="str">
+        <v>ok</v>
+      </c>
+      <c r="H106">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" t="str">
+        <v>B1-C2-T3</v>
+      </c>
+      <c r="B107" t="str">
+        <v>https://palegoldenrod-ant-677872.hostingersite.com/support/foundation-ethics</v>
+      </c>
+      <c r="C107" t="str">
+        <v>https://palegoldenrod-ant-677872.hostingersite.com/support/foundation-ethics</v>
+      </c>
+      <c r="D107" t="b">
+        <v>0</v>
+      </c>
+      <c r="E107" t="str">
+        <v>https://palegoldenrod-ant-677872.hostingersite.com/support/foundation-ethics</v>
+      </c>
+      <c r="F107" t="b">
+        <v>1</v>
+      </c>
+      <c r="G107" t="str">
+        <v>ok</v>
+      </c>
+      <c r="H107">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" t="str">
+        <v>B3-C1-T2</v>
+      </c>
+      <c r="B108" t="str">
+        <v>https://palegoldenrod-ant-677872.hostingersite.com/theatre_dance/alumni/1980</v>
+      </c>
+      <c r="C108" t="str">
+        <v>https://palegoldenrod-ant-677872.hostingersite.com/theatre_dance/alumni/1980</v>
+      </c>
+      <c r="D108" t="b">
+        <v>0</v>
+      </c>
+      <c r="E108" t="str">
+        <v>https://palegoldenrod-ant-677872.hostingersite.com/theatre_dance/alumni/1980</v>
+      </c>
+      <c r="F108" t="b">
+        <v>1</v>
+      </c>
+      <c r="G108" t="str">
+        <v>ok</v>
+      </c>
+      <c r="H108">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" t="str">
+        <v>B3-C1-T1</v>
+      </c>
+      <c r="B109" t="str">
+        <v>https://palegoldenrod-ant-677872.hostingersite.com/tlc/deliberative_dialogue</v>
+      </c>
+      <c r="C109" t="str">
+        <v>https://palegoldenrod-ant-677872.hostingersite.com/tlc/deliberative_dialogue</v>
+      </c>
+      <c r="D109" t="b">
+        <v>0</v>
+      </c>
+      <c r="E109" t="str">
+        <v>https://palegoldenrod-ant-677872.hostingersite.com/tlc/deliberative_dialogue</v>
+      </c>
+      <c r="F109" t="b">
+        <v>1</v>
+      </c>
+      <c r="G109" t="str">
+        <v>ok</v>
+      </c>
+      <c r="H109">
         <v>200</v>
       </c>
     </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:I51"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:I109"/>
   </ignoredErrors>
 </worksheet>
 </file>
--- a/test-artifacts/url-reports/validated-urls.xlsx
+++ b/test-artifacts/url-reports/validated-urls.xlsx
@@ -397,7 +397,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:I109"/>
+  <dimension ref="A1:I101"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -433,539 +433,539 @@
     </row>
     <row r="2">
       <c r="A2" t="str">
-        <v>B2-C1-T2</v>
+        <v>B2-C1-T1</v>
       </c>
       <c r="B2" t="str">
-        <v>https://palegoldenrod-ant-677872.hostingersite.com/international/manish-manandhar-alumni-profile</v>
+        <v>/premed/premed-prehealth-information</v>
       </c>
       <c r="C2" t="str">
-        <v>https://palegoldenrod-ant-677872.hostingersite.com/international/manish-manandhar-alumni-profile</v>
+        <v>http://localhost:10003/premed/premed-prehealth-information</v>
       </c>
       <c r="D2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E2" t="str">
-        <v>https://palegoldenrod-ant-677872.hostingersite.com/international/manish-manandhar-alumni-profile</v>
+        <v>http://localhost:10003/premed/premed-prehealth-information</v>
       </c>
       <c r="F2" t="b">
         <v>1</v>
       </c>
       <c r="G2" t="str">
-        <v>ok</v>
+        <v>failed</v>
       </c>
       <c r="H2">
-        <v>200</v>
+        <v>502</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="str">
-        <v>B2-C1-T1</v>
+        <v>B2-C2-T7</v>
       </c>
       <c r="B3" t="str">
-        <v>https://palegoldenrod-ant-677872.hostingersite.com/music/gonder-bio-more</v>
+        <v>/ire</v>
       </c>
       <c r="C3" t="str">
-        <v>https://palegoldenrod-ant-677872.hostingersite.com/music/gonder-bio-more</v>
+        <v>http://localhost:10003/ire</v>
       </c>
       <c r="D3" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E3" t="str">
-        <v>https://palegoldenrod-ant-677872.hostingersite.com/music/gonder-bio-more</v>
+        <v>http://localhost:10003/ire</v>
       </c>
       <c r="F3" t="b">
         <v>1</v>
       </c>
       <c r="G3" t="str">
-        <v>ok</v>
+        <v>failed</v>
       </c>
       <c r="H3">
-        <v>200</v>
+        <v>502</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="str">
-        <v>B2-C2-T3</v>
+        <v>B2-C1-T5</v>
       </c>
       <c r="B4" t="str">
-        <v>https://palegoldenrod-ant-677872.hostingersite.com/muons/team</v>
+        <v>/languages_literatures/faqs</v>
       </c>
       <c r="C4" t="str">
-        <v>https://palegoldenrod-ant-677872.hostingersite.com/muons/team</v>
+        <v>http://localhost:10003/languages_literatures/faqs</v>
       </c>
       <c r="D4" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E4" t="str">
-        <v>https://palegoldenrod-ant-677872.hostingersite.com/muons/team</v>
+        <v>http://localhost:10003/languages_literatures/faqs</v>
       </c>
       <c r="F4" t="b">
         <v>1</v>
       </c>
       <c r="G4" t="str">
-        <v>ok</v>
+        <v>failed</v>
       </c>
       <c r="H4">
-        <v>200</v>
+        <v>502</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="str">
-        <v>B2-C2-T1</v>
+        <v>B2-C2-T8</v>
       </c>
       <c r="B5" t="str">
-        <v>https://palegoldenrod-ant-677872.hostingersite.com/nuclear/1578-volts-gain-match-check-using-pube-source</v>
+        <v>/hr/healthretire</v>
       </c>
       <c r="C5" t="str">
-        <v>https://palegoldenrod-ant-677872.hostingersite.com/nuclear/1578-volts-gain-match-check-using-pube-source</v>
+        <v>http://localhost:10003/hr/healthretire</v>
       </c>
       <c r="D5" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E5" t="str">
-        <v>https://palegoldenrod-ant-677872.hostingersite.com/nuclear/1578-volts-gain-match-check-using-pube-source</v>
+        <v>http://localhost:10003/hr/healthretire</v>
       </c>
       <c r="F5" t="b">
         <v>1</v>
       </c>
       <c r="G5" t="str">
-        <v>ok</v>
+        <v>failed</v>
       </c>
       <c r="H5">
-        <v>200</v>
+        <v>502</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="str">
-        <v>B3-C2-T3</v>
+        <v>B2-C2-T9</v>
       </c>
       <c r="B6" t="str">
-        <v>https://palegoldenrod-ant-677872.hostingersite.com/handbook/appendices</v>
+        <v>/handbook/handbook_appendix_b</v>
       </c>
       <c r="C6" t="str">
-        <v>https://palegoldenrod-ant-677872.hostingersite.com/handbook/appendices</v>
+        <v>http://localhost:10003/handbook/handbook_appendix_b</v>
       </c>
       <c r="D6" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E6" t="str">
-        <v>https://palegoldenrod-ant-677872.hostingersite.com/handbook/appendices</v>
+        <v>http://localhost:10003/handbook/handbook_appendix_b</v>
       </c>
       <c r="F6" t="b">
         <v>1</v>
       </c>
       <c r="G6" t="str">
-        <v>ok</v>
+        <v>failed</v>
       </c>
       <c r="H6">
-        <v>200</v>
+        <v>502</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="str">
-        <v>B3-C1-T1</v>
+        <v>B2-C1-T2</v>
       </c>
       <c r="B7" t="str">
-        <v>https://palegoldenrod-ant-677872.hostingersite.com/handbook/b</v>
+        <v>/phishbowl</v>
       </c>
       <c r="C7" t="str">
-        <v>https://palegoldenrod-ant-677872.hostingersite.com/handbook/b</v>
+        <v>http://localhost:10003/phishbowl</v>
       </c>
       <c r="D7" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E7" t="str">
-        <v>https://palegoldenrod-ant-677872.hostingersite.com/handbook/b</v>
+        <v>http://localhost:10003/phishbowl</v>
       </c>
       <c r="F7" t="b">
         <v>1</v>
       </c>
       <c r="G7" t="str">
-        <v>ok</v>
+        <v>failed</v>
       </c>
       <c r="H7">
-        <v>200</v>
+        <v>502</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="str">
-        <v>B3-C2-T3</v>
+        <v>B2-C2-T10</v>
       </c>
       <c r="B8" t="str">
-        <v>https://palegoldenrod-ant-677872.hostingersite.com/mcnair/opportunities</v>
+        <v>/grants/staff</v>
       </c>
       <c r="C8" t="str">
-        <v>https://palegoldenrod-ant-677872.hostingersite.com/mcnair/opportunities</v>
+        <v>http://localhost:10003/grants/staff</v>
       </c>
       <c r="D8" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E8" t="str">
-        <v>https://palegoldenrod-ant-677872.hostingersite.com/mcnair/opportunities</v>
+        <v>http://localhost:10003/grants/staff</v>
       </c>
       <c r="F8" t="b">
         <v>1</v>
       </c>
       <c r="G8" t="str">
-        <v>ok</v>
+        <v>failed</v>
       </c>
       <c r="H8">
-        <v>200</v>
+        <v>502</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="str">
-        <v>B2-C2-T3</v>
+        <v>B2-C1-T3</v>
       </c>
       <c r="B9" t="str">
-        <v>https://palegoldenrod-ant-677872.hostingersite.com/nuclear/aluminum-activation-results</v>
+        <v>/mail_services</v>
       </c>
       <c r="C9" t="str">
-        <v>https://palegoldenrod-ant-677872.hostingersite.com/nuclear/aluminum-activation-results</v>
+        <v>http://localhost:10003/mail_services</v>
       </c>
       <c r="D9" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E9" t="str">
-        <v>https://palegoldenrod-ant-677872.hostingersite.com/nuclear/aluminum-activation-results</v>
+        <v>http://localhost:10003/mail_services</v>
       </c>
       <c r="F9" t="b">
         <v>1</v>
       </c>
       <c r="G9" t="str">
-        <v>ok</v>
+        <v>failed</v>
       </c>
       <c r="H9">
-        <v>200</v>
+        <v>502</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="str">
-        <v>B3-C2-T2</v>
+        <v>B2-C1-T4</v>
       </c>
       <c r="B10" t="str">
-        <v>https://palegoldenrod-ant-677872.hostingersite.com/gu/m311</v>
+        <v>/languages_literatures/links</v>
       </c>
       <c r="C10" t="str">
-        <v>https://palegoldenrod-ant-677872.hostingersite.com/gu/m311</v>
+        <v>http://localhost:10003/languages_literatures/links</v>
       </c>
       <c r="D10" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E10" t="str">
-        <v>https://palegoldenrod-ant-677872.hostingersite.com/gu/m311</v>
+        <v>http://localhost:10003/languages_literatures/links</v>
       </c>
       <c r="F10" t="b">
         <v>1</v>
       </c>
       <c r="G10" t="str">
-        <v>ok</v>
+        <v>failed</v>
       </c>
       <c r="H10">
-        <v>200</v>
+        <v>502</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="str">
-        <v>B2-C2-T3</v>
+        <v>B2-C2-T6</v>
       </c>
       <c r="B11" t="str">
-        <v>https://palegoldenrod-ant-677872.hostingersite.com/nuclear/ca-2000-shot-16158</v>
+        <v>/ire/common_data_set</v>
       </c>
       <c r="C11" t="str">
-        <v>https://palegoldenrod-ant-677872.hostingersite.com/nuclear/ca-2000-shot-16158</v>
+        <v>http://localhost:10003/ire/common_data_set</v>
       </c>
       <c r="D11" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E11" t="str">
-        <v>https://palegoldenrod-ant-677872.hostingersite.com/nuclear/ca-2000-shot-16158</v>
+        <v>http://localhost:10003/ire/common_data_set</v>
       </c>
       <c r="F11" t="b">
         <v>1</v>
       </c>
       <c r="G11" t="str">
-        <v>ok</v>
+        <v>failed</v>
       </c>
       <c r="H11">
-        <v>200</v>
+        <v>502</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="str">
-        <v>B3-C2-T2</v>
+        <v>B1-C1-T14</v>
       </c>
       <c r="B12" t="str">
-        <v>https://palegoldenrod-ant-677872.hostingersite.com/nuclear/c12npb12</v>
+        <v>/gagg/runninggagg</v>
       </c>
       <c r="C12" t="str">
-        <v>https://palegoldenrod-ant-677872.hostingersite.com/nuclear/c12npb12</v>
+        <v>http://localhost:10003/gagg/runninggagg</v>
       </c>
       <c r="D12" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E12" t="str">
-        <v>https://palegoldenrod-ant-677872.hostingersite.com/nuclear/c12npb12</v>
+        <v>http://localhost:10003/gagg/runninggagg</v>
       </c>
       <c r="F12" t="b">
         <v>1</v>
       </c>
       <c r="G12" t="str">
-        <v>ok</v>
+        <v>failed</v>
       </c>
       <c r="H12">
-        <v>200</v>
+        <v>502</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="str">
-        <v>B3-C2-T1</v>
+        <v>B1-C1-T15</v>
       </c>
       <c r="B13" t="str">
-        <v>https://palegoldenrod-ant-677872.hostingersite.com/hr/supervisors</v>
+        <v>/fellowships_and_scholarships/RecentRecipients</v>
       </c>
       <c r="C13" t="str">
-        <v>https://palegoldenrod-ant-677872.hostingersite.com/hr/supervisors</v>
+        <v>http://localhost:10003/fellowships_and_scholarships/RecentRecipients</v>
       </c>
       <c r="D13" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E13" t="str">
-        <v>https://palegoldenrod-ant-677872.hostingersite.com/hr/supervisors</v>
+        <v>http://localhost:10003/fellowships_and_scholarships/RecentRecipients</v>
       </c>
       <c r="F13" t="b">
         <v>1</v>
       </c>
       <c r="G13" t="str">
-        <v>ok</v>
+        <v>failed</v>
       </c>
       <c r="H13">
-        <v>200</v>
+        <v>502</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="str">
-        <v>B2-C1-T3</v>
+        <v>B1-C2-T17</v>
       </c>
       <c r="B14" t="str">
-        <v>https://palegoldenrod-ant-677872.hostingersite.com/hr/appointment-types</v>
+        <v>/duplicating_center/toshiba_estudio</v>
       </c>
       <c r="C14" t="str">
-        <v>https://palegoldenrod-ant-677872.hostingersite.com/hr/appointment-types</v>
+        <v>http://localhost:10003/duplicating_center/toshiba_estudio</v>
       </c>
       <c r="D14" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E14" t="str">
-        <v>https://palegoldenrod-ant-677872.hostingersite.com/hr/appointment-types</v>
+        <v>http://localhost:10003/duplicating_center/toshiba_estudio</v>
       </c>
       <c r="F14" t="b">
         <v>1</v>
       </c>
       <c r="G14" t="str">
-        <v>ok</v>
+        <v>failed</v>
       </c>
       <c r="H14">
-        <v>200</v>
+        <v>502</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="str">
-        <v>B1-C1-T1</v>
+        <v>B1-C2-T16</v>
       </c>
       <c r="B15" t="str">
-        <v>https://palegoldenrod-ant-677872.hostingersite.com/greek/awards</v>
+        <v>/ehs/infection_control</v>
       </c>
       <c r="C15" t="str">
-        <v>https://palegoldenrod-ant-677872.hostingersite.com/greek/awards</v>
+        <v>http://localhost:10003/ehs/infection_control</v>
       </c>
       <c r="D15" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E15" t="str">
-        <v>https://palegoldenrod-ant-677872.hostingersite.com/greek/awards</v>
+        <v>http://localhost:10003/ehs/infection_control</v>
       </c>
       <c r="F15" t="b">
         <v>1</v>
       </c>
       <c r="G15" t="str">
-        <v>ok</v>
+        <v>failed</v>
       </c>
       <c r="H15">
-        <v>200</v>
+        <v>502</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="str">
-        <v>B2-C2-T2</v>
+        <v>B1-C1-T11</v>
       </c>
       <c r="B16" t="str">
-        <v>https://palegoldenrod-ant-677872.hostingersite.com/nuclear/1999-run-14</v>
+        <v>/geiger/research-interests</v>
       </c>
       <c r="C16" t="str">
-        <v>https://palegoldenrod-ant-677872.hostingersite.com/nuclear/1999-run-14</v>
+        <v>http://localhost:10003/geiger/research-interests</v>
       </c>
       <c r="D16" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E16" t="str">
-        <v>https://palegoldenrod-ant-677872.hostingersite.com/nuclear/1999-run-14</v>
+        <v>http://localhost:10003/geiger/research-interests</v>
       </c>
       <c r="F16" t="b">
         <v>1</v>
       </c>
       <c r="G16" t="str">
-        <v>ok</v>
+        <v>failed</v>
       </c>
       <c r="H16">
-        <v>200</v>
+        <v>502</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="str">
-        <v>B1-C2-T2</v>
+        <v>B1-C1-T13</v>
       </c>
       <c r="B17" t="str">
-        <v>https://palegoldenrod-ant-677872.hostingersite.com/goda/upcoming-events</v>
+        <v>/gagg/runninggagg-travel</v>
       </c>
       <c r="C17" t="str">
-        <v>https://palegoldenrod-ant-677872.hostingersite.com/goda/upcoming-events</v>
+        <v>http://localhost:10003/gagg/runninggagg-travel</v>
       </c>
       <c r="D17" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E17" t="str">
-        <v>https://palegoldenrod-ant-677872.hostingersite.com/goda/upcoming-events</v>
+        <v>http://localhost:10003/gagg/runninggagg-travel</v>
       </c>
       <c r="F17" t="b">
         <v>1</v>
       </c>
       <c r="G17" t="str">
-        <v>ok</v>
+        <v>failed</v>
       </c>
       <c r="H17">
-        <v>200</v>
+        <v>502</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="str">
-        <v>B2-C2-T2</v>
+        <v>B1-C2-T20</v>
       </c>
       <c r="B18" t="str">
-        <v>https://palegoldenrod-ant-677872.hostingersite.com/nuclear/c12n2n-c11-info</v>
+        <v>/commencement/eligibility</v>
       </c>
       <c r="C18" t="str">
-        <v>https://palegoldenrod-ant-677872.hostingersite.com/nuclear/c12n2n-c11-info</v>
+        <v>http://localhost:10003/commencement/eligibility</v>
       </c>
       <c r="D18" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E18" t="str">
-        <v>https://palegoldenrod-ant-677872.hostingersite.com/nuclear/c12n2n-c11-info</v>
+        <v>http://localhost:10003/commencement/eligibility</v>
       </c>
       <c r="F18" t="b">
         <v>1</v>
       </c>
       <c r="G18" t="str">
-        <v>ok</v>
+        <v>failed</v>
       </c>
       <c r="H18">
-        <v>200</v>
+        <v>502</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="str">
-        <v>B1-C2-T1</v>
+        <v>B1-C1-T12</v>
       </c>
       <c r="B19" t="str">
-        <v>https://palegoldenrod-ant-677872.hostingersite.com/goda/office-hours</v>
+        <v>/geiger/publications</v>
       </c>
       <c r="C19" t="str">
-        <v>https://palegoldenrod-ant-677872.hostingersite.com/goda/office-hours</v>
+        <v>http://localhost:10003/geiger/publications</v>
       </c>
       <c r="D19" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E19" t="str">
-        <v>https://palegoldenrod-ant-677872.hostingersite.com/goda/office-hours</v>
+        <v>http://localhost:10003/geiger/publications</v>
       </c>
       <c r="F19" t="b">
         <v>1</v>
       </c>
       <c r="G19" t="str">
-        <v>ok</v>
+        <v>failed</v>
       </c>
       <c r="H19">
-        <v>200</v>
+        <v>502</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="str">
-        <v>B1-C2-T2</v>
+        <v>B1-C2-T18</v>
       </c>
       <c r="B20" t="str">
-        <v>https://palegoldenrod-ant-677872.hostingersite.com/nuclear/comparison-optical-imaging</v>
+        <v>/dean_students/leave-absence</v>
       </c>
       <c r="C20" t="str">
-        <v>https://palegoldenrod-ant-677872.hostingersite.com/nuclear/comparison-optical-imaging</v>
+        <v>http://localhost:10003/dean_students/leave-absence</v>
       </c>
       <c r="D20" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E20" t="str">
-        <v>https://palegoldenrod-ant-677872.hostingersite.com/nuclear/comparison-optical-imaging</v>
+        <v>http://localhost:10003/dean_students/leave-absence</v>
       </c>
       <c r="F20" t="b">
         <v>1</v>
       </c>
       <c r="G20" t="str">
-        <v>ok</v>
+        <v>failed</v>
       </c>
       <c r="H20">
-        <v>200</v>
+        <v>502</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="str">
-        <v>B3-C2-T1</v>
+        <v>B1-C2-T19</v>
       </c>
       <c r="B21" t="str">
-        <v>https://palegoldenrod-ant-677872.hostingersite.com/nuclear/medusa-callibration</v>
+        <v>/communication/intern</v>
       </c>
       <c r="C21" t="str">
-        <v>https://palegoldenrod-ant-677872.hostingersite.com/nuclear/medusa-callibration</v>
+        <v>http://localhost:10003/communication/intern</v>
       </c>
       <c r="D21" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E21" t="str">
-        <v>https://palegoldenrod-ant-677872.hostingersite.com/nuclear/medusa-callibration</v>
+        <v>http://localhost:10003/communication/intern</v>
       </c>
       <c r="F21" t="b">
         <v>1</v>
       </c>
       <c r="G21" t="str">
-        <v>ok</v>
+        <v>failed</v>
       </c>
       <c r="H21">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="22" xml:space="preserve">
+        <v>502</v>
+      </c>
+    </row>
+    <row r="22">
       <c r="A22" t="str">
-        <v>B3-C1-T2</v>
+        <v>B2-C2-T7</v>
       </c>
       <c r="B22" t="str">
-        <v>https://palegoldenrod-ant-677872.hostingersite.com/languages_literatures/alumni-news-2010-2014</v>
+        <v>/study_abroad/apply</v>
       </c>
       <c r="C22" t="str">
-        <v>about:blank</v>
+        <v>http://localhost:10003/study_abroad/apply</v>
       </c>
       <c r="D22" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E22" t="str">
-        <v>https://palegoldenrod-ant-677872.hostingersite.com/languages_literatures/alumni-news-2010-2014</v>
+        <v>http://localhost:10003/study_abroad/apply</v>
       </c>
       <c r="F22" t="b">
         <v>1</v>
@@ -973,28 +973,25 @@
       <c r="G22" t="str">
         <v>failed</v>
       </c>
-      <c r="I22" t="str" xml:space="preserve">
-        <v xml:space="preserve">page.goto: Timeout 180000ms exceeded.
-Call log:
-_x001b_[2m  - navigating to "https://palegoldenrod-ant-677872.hostingersite.com/languages_literatures/alumni-news-2010-2014", waiting until "domcontentloaded"_x001b_[22m
-</v>
-      </c>
-    </row>
-    <row r="23" xml:space="preserve">
+      <c r="H22">
+        <v>502</v>
+      </c>
+    </row>
+    <row r="23">
       <c r="A23" t="str">
-        <v>B3-C1-T3</v>
+        <v>B2-C1-T5</v>
       </c>
       <c r="B23" t="str">
-        <v>https://palegoldenrod-ant-677872.hostingersite.com/history/stolee</v>
+        <v>/study_abroad/prospective-student-faqs</v>
       </c>
       <c r="C23" t="str">
-        <v>about:blank</v>
+        <v>http://localhost:10003/study_abroad/prospective-student-faqs</v>
       </c>
       <c r="D23" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E23" t="str">
-        <v>https://palegoldenrod-ant-677872.hostingersite.com/history/stolee</v>
+        <v>http://localhost:10003/study_abroad/prospective-student-faqs</v>
       </c>
       <c r="F23" t="b">
         <v>1</v>
@@ -1002,28 +999,25 @@
       <c r="G23" t="str">
         <v>failed</v>
       </c>
-      <c r="I23" t="str" xml:space="preserve">
-        <v xml:space="preserve">page.goto: Timeout 180000ms exceeded.
-Call log:
-_x001b_[2m  - navigating to "https://palegoldenrod-ant-677872.hostingersite.com/history/stolee", waiting until "domcontentloaded"_x001b_[22m
-</v>
-      </c>
-    </row>
-    <row r="24" xml:space="preserve">
+      <c r="H23">
+        <v>502</v>
+      </c>
+    </row>
+    <row r="24">
       <c r="A24" t="str">
-        <v>B1-C1-T2</v>
+        <v>B2-C2-T9</v>
       </c>
       <c r="B24" t="str">
-        <v>https://palegoldenrod-ant-677872.hostingersite.com/history/hon</v>
+        <v>/student_accounts/fallspring-tuition-and-fees</v>
       </c>
       <c r="C24" t="str">
-        <v>about:blank</v>
+        <v>http://localhost:10003/student_accounts/fallspring-tuition-and-fees</v>
       </c>
       <c r="D24" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E24" t="str">
-        <v>https://palegoldenrod-ant-677872.hostingersite.com/history/hon</v>
+        <v>http://localhost:10003/student_accounts/fallspring-tuition-and-fees</v>
       </c>
       <c r="F24" t="b">
         <v>1</v>
@@ -1031,28 +1025,25 @@
       <c r="G24" t="str">
         <v>failed</v>
       </c>
-      <c r="I24" t="str" xml:space="preserve">
-        <v xml:space="preserve">page.goto: Timeout 180000ms exceeded.
-Call log:
-_x001b_[2m  - navigating to "https://palegoldenrod-ant-677872.hostingersite.com/history/hon", waiting until "domcontentloaded"_x001b_[22m
-</v>
-      </c>
-    </row>
-    <row r="25" xml:space="preserve">
+      <c r="H24">
+        <v>502</v>
+      </c>
+    </row>
+    <row r="25">
       <c r="A25" t="str">
-        <v>B1-C1-T3</v>
+        <v>B2-C2-T8</v>
       </c>
       <c r="B25" t="str">
-        <v>https://palegoldenrod-ant-677872.hostingersite.com/gu/m511</v>
+        <v>/student_employment/guidelines</v>
       </c>
       <c r="C25" t="str">
-        <v>about:blank</v>
+        <v>http://localhost:10003/student_employment/guidelines</v>
       </c>
       <c r="D25" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E25" t="str">
-        <v>https://palegoldenrod-ant-677872.hostingersite.com/gu/m511</v>
+        <v>http://localhost:10003/student_employment/guidelines</v>
       </c>
       <c r="F25" t="b">
         <v>1</v>
@@ -1060,28 +1051,25 @@
       <c r="G25" t="str">
         <v>failed</v>
       </c>
-      <c r="I25" t="str" xml:space="preserve">
-        <v xml:space="preserve">page.goto: Timeout 180000ms exceeded.
-Call log:
-_x001b_[2m  - navigating to "https://palegoldenrod-ant-677872.hostingersite.com/gu/m511", waiting until "domcontentloaded"_x001b_[22m
-</v>
-      </c>
-    </row>
-    <row r="26" xml:space="preserve">
+      <c r="H25">
+        <v>502</v>
+      </c>
+    </row>
+    <row r="26">
       <c r="A26" t="str">
-        <v>B1-C2-T3</v>
+        <v>B2-C2-T10</v>
       </c>
       <c r="B26" t="str">
-        <v>https://palegoldenrod-ant-677872.hostingersite.com/gold/journals-and-reflections</v>
+        <v>/sociology</v>
       </c>
       <c r="C26" t="str">
-        <v>about:blank</v>
+        <v>http://localhost:10003/sociology</v>
       </c>
       <c r="D26" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E26" t="str">
-        <v>https://palegoldenrod-ant-677872.hostingersite.com/gold/journals-and-reflections</v>
+        <v>http://localhost:10003/sociology</v>
       </c>
       <c r="F26" t="b">
         <v>1</v>
@@ -1089,28 +1077,25 @@
       <c r="G26" t="str">
         <v>failed</v>
       </c>
-      <c r="I26" t="str" xml:space="preserve">
-        <v xml:space="preserve">page.goto: Timeout 180000ms exceeded.
-Call log:
-_x001b_[2m  - navigating to "https://palegoldenrod-ant-677872.hostingersite.com/gold/journals-and-reflections", waiting until "domcontentloaded"_x001b_[22m
-</v>
-      </c>
-    </row>
-    <row r="27" xml:space="preserve">
+      <c r="H26">
+        <v>502</v>
+      </c>
+    </row>
+    <row r="27">
       <c r="A27" t="str">
-        <v>B2-C1-T2</v>
+        <v>B2-C1-T4</v>
       </c>
       <c r="B27" t="str">
-        <v>https://palegoldenrod-ant-677872.hostingersite.com/nuclear/1999-run-15</v>
+        <v>/veterans/contact-information</v>
       </c>
       <c r="C27" t="str">
-        <v>https://palegoldenrod-ant-677872.hostingersite.com/international/manish-manandhar-alumni-profile</v>
+        <v>http://localhost:10003/veterans/contact-information</v>
       </c>
       <c r="D27" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E27" t="str">
-        <v>https://palegoldenrod-ant-677872.hostingersite.com/nuclear/1999-run-15</v>
+        <v>http://localhost:10003/veterans/contact-information</v>
       </c>
       <c r="F27" t="b">
         <v>1</v>
@@ -1118,28 +1103,25 @@
       <c r="G27" t="str">
         <v>failed</v>
       </c>
-      <c r="I27" t="str" xml:space="preserve">
-        <v xml:space="preserve">page.goto: Timeout 180000ms exceeded.
-Call log:
-_x001b_[2m  - navigating to "https://palegoldenrod-ant-677872.hostingersite.com/nuclear/1999-run-15", waiting until "domcontentloaded"_x001b_[22m
-</v>
-      </c>
-    </row>
-    <row r="28" xml:space="preserve">
+      <c r="H27">
+        <v>502</v>
+      </c>
+    </row>
+    <row r="28">
       <c r="A28" t="str">
         <v>B2-C1-T1</v>
       </c>
       <c r="B28" t="str">
-        <v>https://palegoldenrod-ant-677872.hostingersite.com/nuclear/ca-2001-chart-2</v>
+        <v>/commencement/oration</v>
       </c>
       <c r="C28" t="str">
-        <v>https://palegoldenrod-ant-677872.hostingersite.com/music/gonder-bio-more</v>
+        <v>http://localhost:10003/commencement/oration</v>
       </c>
       <c r="D28" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E28" t="str">
-        <v>https://palegoldenrod-ant-677872.hostingersite.com/nuclear/ca-2001-chart-2</v>
+        <v>http://localhost:10003/commencement/oration</v>
       </c>
       <c r="F28" t="b">
         <v>1</v>
@@ -1147,54 +1129,51 @@
       <c r="G28" t="str">
         <v>failed</v>
       </c>
-      <c r="I28" t="str" xml:space="preserve">
-        <v xml:space="preserve">page.goto: Timeout 180000ms exceeded.
-Call log:
-_x001b_[2m  - navigating to "https://palegoldenrod-ant-677872.hostingersite.com/nuclear/ca-2001-chart-2", waiting until "domcontentloaded"_x001b_[22m
-</v>
+      <c r="H28">
+        <v>502</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="str">
-        <v>B3-C2-T2</v>
+        <v>B2-C1-T3</v>
       </c>
       <c r="B29" t="str">
-        <v>https://palegoldenrod-ant-677872.hostingersite.com/nuclear/characterization-medusa-elements</v>
+        <v>/advising/transfer-college-credit</v>
       </c>
       <c r="C29" t="str">
-        <v>https://palegoldenrod-ant-677872.hostingersite.com/nuclear/characterization-medusa-elements</v>
+        <v>http://localhost:10003/advising/transfer-college-credit</v>
       </c>
       <c r="D29" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E29" t="str">
-        <v>https://palegoldenrod-ant-677872.hostingersite.com/nuclear/characterization-medusa-elements</v>
+        <v>http://localhost:10003/advising/transfer-college-credit</v>
       </c>
       <c r="F29" t="b">
         <v>1</v>
       </c>
       <c r="G29" t="str">
-        <v>ok</v>
+        <v>failed</v>
       </c>
       <c r="H29">
-        <v>200</v>
+        <v>502</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="str">
-        <v>B1-C1-T1</v>
+        <v>B2-C1-T2</v>
       </c>
       <c r="B30" t="str">
-        <v>https://palegoldenrod-ant-677872.hostingersite.com/music/music-programs</v>
+        <v>/cas/textbookgrants</v>
       </c>
       <c r="C30" t="str">
-        <v>https://palegoldenrod-ant-677872.hostingersite.com/music/music-programs</v>
+        <v>http://localhost:10003/cas/textbookgrants</v>
       </c>
       <c r="D30" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E30" t="str">
-        <v>https://palegoldenrod-ant-677872.hostingersite.com/music/music-programs</v>
+        <v>http://localhost:10003/cas/textbookgrants</v>
       </c>
       <c r="F30" t="b">
         <v>1</v>
@@ -1203,27 +1182,24 @@
         <v>failed</v>
       </c>
       <c r="H30">
-        <v>403</v>
-      </c>
-      <c r="I30" t="str">
-        <v>HTTP 403</v>
+        <v>502</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="str">
-        <v>B1-C1-T3</v>
+        <v>B2-C2-T6</v>
       </c>
       <c r="B31" t="str">
-        <v>https://palegoldenrod-ant-677872.hostingersite.com/native_american_studies/contact</v>
+        <v>/study_abroad/cost-sheets</v>
       </c>
       <c r="C31" t="str">
-        <v>https://palegoldenrod-ant-677872.hostingersite.com/native_american_studies/contact</v>
+        <v>http://localhost:10003/study_abroad/cost-sheets</v>
       </c>
       <c r="D31" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E31" t="str">
-        <v>https://palegoldenrod-ant-677872.hostingersite.com/native_american_studies/contact</v>
+        <v>http://localhost:10003/study_abroad/cost-sheets</v>
       </c>
       <c r="F31" t="b">
         <v>1</v>
@@ -1232,27 +1208,24 @@
         <v>failed</v>
       </c>
       <c r="H31">
-        <v>403</v>
-      </c>
-      <c r="I31" t="str">
-        <v>HTTP 403</v>
+        <v>502</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="str">
-        <v>B1-C1-T2</v>
+        <v>B1-C1-T14</v>
       </c>
       <c r="B32" t="str">
-        <v>https://palegoldenrod-ant-677872.hostingersite.com/music/preprofessional-studies-minors</v>
+        <v>/safety/committee_members</v>
       </c>
       <c r="C32" t="str">
-        <v>https://palegoldenrod-ant-677872.hostingersite.com/music/preprofessional-studies-minors</v>
+        <v>http://localhost:10003/safety/committee_members</v>
       </c>
       <c r="D32" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E32" t="str">
-        <v>https://palegoldenrod-ant-677872.hostingersite.com/music/preprofessional-studies-minors</v>
+        <v>http://localhost:10003/safety/committee_members</v>
       </c>
       <c r="F32" t="b">
         <v>1</v>
@@ -1261,27 +1234,24 @@
         <v>failed</v>
       </c>
       <c r="H32">
-        <v>403</v>
-      </c>
-      <c r="I32" t="str">
-        <v>HTTP 403</v>
+        <v>502</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="str">
-        <v>B1-C1-T1</v>
+        <v>B1-C1-T15</v>
       </c>
       <c r="B33" t="str">
-        <v>https://palegoldenrod-ant-677872.hostingersite.com/nuclear/aluminum-activation</v>
+        <v>/safety</v>
       </c>
       <c r="C33" t="str">
-        <v>https://palegoldenrod-ant-677872.hostingersite.com/nuclear/aluminum-activation</v>
+        <v>http://localhost:10003/safety</v>
       </c>
       <c r="D33" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E33" t="str">
-        <v>https://palegoldenrod-ant-677872.hostingersite.com/nuclear/aluminum-activation</v>
+        <v>http://localhost:10003/safety</v>
       </c>
       <c r="F33" t="b">
         <v>1</v>
@@ -1290,27 +1260,24 @@
         <v>failed</v>
       </c>
       <c r="H33">
-        <v>403</v>
-      </c>
-      <c r="I33" t="str">
-        <v>HTTP 403</v>
+        <v>502</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="str">
-        <v>B1-C1-T3</v>
+        <v>B1-C2-T20</v>
       </c>
       <c r="B34" t="str">
-        <v>https://palegoldenrod-ant-677872.hostingersite.com/nuclear/b11pn11-spectra</v>
+        <v>/premed/timeline/suggested</v>
       </c>
       <c r="C34" t="str">
-        <v>https://palegoldenrod-ant-677872.hostingersite.com/nuclear/b11pn11-spectra</v>
+        <v>http://localhost:10003/premed/timeline/suggested</v>
       </c>
       <c r="D34" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E34" t="str">
-        <v>https://palegoldenrod-ant-677872.hostingersite.com/nuclear/b11pn11-spectra</v>
+        <v>http://localhost:10003/premed/timeline/suggested</v>
       </c>
       <c r="F34" t="b">
         <v>1</v>
@@ -1319,27 +1286,24 @@
         <v>failed</v>
       </c>
       <c r="H34">
-        <v>403</v>
-      </c>
-      <c r="I34" t="str">
-        <v>HTTP 403</v>
+        <v>502</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="str">
-        <v>B1-C1-T2</v>
+        <v>B1-C2-T17</v>
       </c>
       <c r="B35" t="str">
-        <v>https://palegoldenrod-ant-677872.hostingersite.com/nuclear/tail-eccentricity</v>
+        <v>/psi_chi/kallio</v>
       </c>
       <c r="C35" t="str">
-        <v>https://palegoldenrod-ant-677872.hostingersite.com/nuclear/tail-eccentricity</v>
+        <v>http://localhost:10003/psi_chi/kallio</v>
       </c>
       <c r="D35" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E35" t="str">
-        <v>https://palegoldenrod-ant-677872.hostingersite.com/nuclear/tail-eccentricity</v>
+        <v>http://localhost:10003/psi_chi/kallio</v>
       </c>
       <c r="F35" t="b">
         <v>1</v>
@@ -1348,27 +1312,24 @@
         <v>failed</v>
       </c>
       <c r="H35">
-        <v>403</v>
-      </c>
-      <c r="I35" t="str">
-        <v>HTTP 403</v>
+        <v>502</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="str">
-        <v>B1-C1-T1</v>
+        <v>B1-C1-T11</v>
       </c>
       <c r="B36" t="str">
-        <v>https://palegoldenrod-ant-677872.hostingersite.com/nuclear/other-activations</v>
+        <v>/showers/welcome</v>
       </c>
       <c r="C36" t="str">
-        <v>https://palegoldenrod-ant-677872.hostingersite.com/nuclear/other-activations</v>
+        <v>http://localhost:10003/showers/welcome</v>
       </c>
       <c r="D36" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E36" t="str">
-        <v>https://palegoldenrod-ant-677872.hostingersite.com/nuclear/other-activations</v>
+        <v>http://localhost:10003/showers/welcome</v>
       </c>
       <c r="F36" t="b">
         <v>1</v>
@@ -1377,27 +1338,24 @@
         <v>failed</v>
       </c>
       <c r="H36">
-        <v>403</v>
-      </c>
-      <c r="I36" t="str">
-        <v>HTTP 403</v>
+        <v>502</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="str">
-        <v>B1-C1-T3</v>
+        <v>B1-C1-T12</v>
       </c>
       <c r="B37" t="str">
-        <v>https://palegoldenrod-ant-677872.hostingersite.com/philosophy/club</v>
+        <v>/showers/publications</v>
       </c>
       <c r="C37" t="str">
-        <v>https://palegoldenrod-ant-677872.hostingersite.com/philosophy/club</v>
+        <v>http://localhost:10003/showers/publications</v>
       </c>
       <c r="D37" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E37" t="str">
-        <v>https://palegoldenrod-ant-677872.hostingersite.com/philosophy/club</v>
+        <v>http://localhost:10003/showers/publications</v>
       </c>
       <c r="F37" t="b">
         <v>1</v>
@@ -1406,27 +1364,24 @@
         <v>failed</v>
       </c>
       <c r="H37">
-        <v>403</v>
-      </c>
-      <c r="I37" t="str">
-        <v>HTTP 403</v>
+        <v>502</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="str">
-        <v>B1-C1-T2</v>
+        <v>B1-C1-T13</v>
       </c>
       <c r="B38" t="str">
-        <v>https://palegoldenrod-ant-677872.hostingersite.com/nuclear/sem-standard-procedures</v>
+        <v>/showers/presentations</v>
       </c>
       <c r="C38" t="str">
-        <v>https://palegoldenrod-ant-677872.hostingersite.com/nuclear/sem-standard-procedures</v>
+        <v>http://localhost:10003/showers/presentations</v>
       </c>
       <c r="D38" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E38" t="str">
-        <v>https://palegoldenrod-ant-677872.hostingersite.com/nuclear/sem-standard-procedures</v>
+        <v>http://localhost:10003/showers/presentations</v>
       </c>
       <c r="F38" t="b">
         <v>1</v>
@@ -1435,27 +1390,24 @@
         <v>failed</v>
       </c>
       <c r="H38">
-        <v>403</v>
-      </c>
-      <c r="I38" t="str">
-        <v>HTTP 403</v>
+        <v>502</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="str">
-        <v>B1-C1-T1</v>
+        <v>B1-C2-T18</v>
       </c>
       <c r="B39" t="str">
-        <v>https://palegoldenrod-ant-677872.hostingersite.com/students/fitness</v>
+        <v>/provost/ideas-matter-events</v>
       </c>
       <c r="C39" t="str">
-        <v>https://palegoldenrod-ant-677872.hostingersite.com/students/fitness</v>
+        <v>http://localhost:10003/provost/ideas-matter-events</v>
       </c>
       <c r="D39" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E39" t="str">
-        <v>https://palegoldenrod-ant-677872.hostingersite.com/students/fitness</v>
+        <v>http://localhost:10003/provost/ideas-matter-events</v>
       </c>
       <c r="F39" t="b">
         <v>1</v>
@@ -1464,27 +1416,24 @@
         <v>failed</v>
       </c>
       <c r="H39">
-        <v>403</v>
-      </c>
-      <c r="I39" t="str">
-        <v>HTTP 403</v>
+        <v>502</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="str">
-        <v>B1-C1-T3</v>
+        <v>B1-C2-T19</v>
       </c>
       <c r="B40" t="str">
-        <v>https://palegoldenrod-ant-677872.hostingersite.com/study_abroad/financial-aid-information</v>
+        <v>/provost/academic_affairs</v>
       </c>
       <c r="C40" t="str">
-        <v>https://palegoldenrod-ant-677872.hostingersite.com/study_abroad/financial-aid-information</v>
+        <v>http://localhost:10003/provost/academic_affairs</v>
       </c>
       <c r="D40" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E40" t="str">
-        <v>https://palegoldenrod-ant-677872.hostingersite.com/study_abroad/financial-aid-information</v>
+        <v>http://localhost:10003/provost/academic_affairs</v>
       </c>
       <c r="F40" t="b">
         <v>1</v>
@@ -1493,27 +1442,24 @@
         <v>failed</v>
       </c>
       <c r="H40">
-        <v>403</v>
-      </c>
-      <c r="I40" t="str">
-        <v>HTTP 403</v>
+        <v>502</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="str">
-        <v>B1-C1-T2</v>
+        <v>B1-C2-T16</v>
       </c>
       <c r="B41" t="str">
-        <v>https://palegoldenrod-ant-677872.hostingersite.com/study_abroad/costa-rica-semester</v>
+        <v>/purchasing</v>
       </c>
       <c r="C41" t="str">
-        <v>https://palegoldenrod-ant-677872.hostingersite.com/study_abroad/costa-rica-semester</v>
+        <v>http://localhost:10003/purchasing</v>
       </c>
       <c r="D41" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E41" t="str">
-        <v>https://palegoldenrod-ant-677872.hostingersite.com/study_abroad/costa-rica-semester</v>
+        <v>http://localhost:10003/purchasing</v>
       </c>
       <c r="F41" t="b">
         <v>1</v>
@@ -1522,27 +1468,24 @@
         <v>failed</v>
       </c>
       <c r="H41">
-        <v>403</v>
-      </c>
-      <c r="I41" t="str">
-        <v>HTTP 403</v>
+        <v>502</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="str">
-        <v>B1-C1-T1</v>
+        <v>B2-C2-T7</v>
       </c>
       <c r="B42" t="str">
-        <v>https://palegoldenrod-ant-677872.hostingersite.com/theatre_dance/theatre</v>
+        <v>/cil/student_ambassadorships</v>
       </c>
       <c r="C42" t="str">
-        <v>https://palegoldenrod-ant-677872.hostingersite.com/theatre_dance/theatre</v>
+        <v>http://localhost:10003/cil/student_ambassadorships</v>
       </c>
       <c r="D42" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E42" t="str">
-        <v>https://palegoldenrod-ant-677872.hostingersite.com/theatre_dance/theatre</v>
+        <v>http://localhost:10003/cil/student_ambassadorships</v>
       </c>
       <c r="F42" t="b">
         <v>1</v>
@@ -1551,27 +1494,24 @@
         <v>failed</v>
       </c>
       <c r="H42">
-        <v>403</v>
-      </c>
-      <c r="I42" t="str">
-        <v>HTTP 403</v>
+        <v>502</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="str">
-        <v>B1-C1-T3</v>
+        <v>B2-C2-T9</v>
       </c>
       <c r="B43" t="str">
-        <v>https://palegoldenrod-ant-677872.hostingersite.com/volunteer_center/peace-corps</v>
+        <v>/cil/past-projects-and-events</v>
       </c>
       <c r="C43" t="str">
-        <v>https://palegoldenrod-ant-677872.hostingersite.com/volunteer_center/peace-corps</v>
+        <v>http://localhost:10003/cil/past-projects-and-events</v>
       </c>
       <c r="D43" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E43" t="str">
-        <v>https://palegoldenrod-ant-677872.hostingersite.com/volunteer_center/peace-corps</v>
+        <v>http://localhost:10003/cil/past-projects-and-events</v>
       </c>
       <c r="F43" t="b">
         <v>1</v>
@@ -1580,27 +1520,24 @@
         <v>failed</v>
       </c>
       <c r="H43">
-        <v>403</v>
-      </c>
-      <c r="I43" t="str">
-        <v>HTTP 403</v>
+        <v>502</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="str">
-        <v>B1-C1-T2</v>
+        <v>B2-C1-T5</v>
       </c>
       <c r="B44" t="str">
-        <v>https://palegoldenrod-ant-677872.hostingersite.com/tribeta/links</v>
+        <v>/cil/what-integrative-learning</v>
       </c>
       <c r="C44" t="str">
-        <v>https://palegoldenrod-ant-677872.hostingersite.com/tribeta/links</v>
+        <v>http://localhost:10003/cil/what-integrative-learning</v>
       </c>
       <c r="D44" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E44" t="str">
-        <v>https://palegoldenrod-ant-677872.hostingersite.com/tribeta/links</v>
+        <v>http://localhost:10003/cil/what-integrative-learning</v>
       </c>
       <c r="F44" t="b">
         <v>1</v>
@@ -1609,27 +1546,24 @@
         <v>failed</v>
       </c>
       <c r="H44">
-        <v>403</v>
-      </c>
-      <c r="I44" t="str">
-        <v>HTTP 403</v>
-      </c>
-    </row>
-    <row r="45" xml:space="preserve">
+        <v>502</v>
+      </c>
+    </row>
+    <row r="45">
       <c r="A45" t="str">
-        <v>B2-C2-T1</v>
+        <v>B2-C2-T8</v>
       </c>
       <c r="B45" t="str">
-        <v>https://palegoldenrod-ant-677872.hostingersite.com/nuclear/ca-shot-15109</v>
+        <v>/cil/past-student-ambassadors</v>
       </c>
       <c r="C45" t="str">
-        <v>https://palegoldenrod-ant-677872.hostingersite.com/nuclear/1578-volts-gain-match-check-using-pube-source</v>
+        <v>http://localhost:10003/cil/past-student-ambassadors</v>
       </c>
       <c r="D45" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E45" t="str">
-        <v>https://palegoldenrod-ant-677872.hostingersite.com/nuclear/ca-shot-15109</v>
+        <v>http://localhost:10003/cil/past-student-ambassadors</v>
       </c>
       <c r="F45" t="b">
         <v>1</v>
@@ -1637,106 +1571,103 @@
       <c r="G45" t="str">
         <v>failed</v>
       </c>
-      <c r="I45" t="str" xml:space="preserve">
-        <v xml:space="preserve">page.goto: Timeout 180000ms exceeded.
-Call log:
-_x001b_[2m  - navigating to "https://palegoldenrod-ant-677872.hostingersite.com/nuclear/ca-shot-15109", waiting until "domcontentloaded"_x001b_[22m
-</v>
+      <c r="H45">
+        <v>502</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="str">
-        <v>B2-C1-T1</v>
+        <v>B2-C2-T10</v>
       </c>
       <c r="B46" t="str">
-        <v>https://palegoldenrod-ant-677872.hostingersite.com/nuclear/carbon-activation-data</v>
+        <v>/cil/our-team</v>
       </c>
       <c r="C46" t="str">
-        <v>https://palegoldenrod-ant-677872.hostingersite.com/nuclear/carbon-activation-data</v>
+        <v>http://localhost:10003/cil/our-team</v>
       </c>
       <c r="D46" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E46" t="str">
-        <v>https://palegoldenrod-ant-677872.hostingersite.com/nuclear/carbon-activation-data</v>
+        <v>http://localhost:10003/cil/our-team</v>
       </c>
       <c r="F46" t="b">
         <v>1</v>
       </c>
       <c r="G46" t="str">
-        <v>ok</v>
+        <v>failed</v>
       </c>
       <c r="H46">
-        <v>200</v>
+        <v>502</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="str">
-        <v>B3-C2-T2</v>
+        <v>B2-C1-T1</v>
       </c>
       <c r="B47" t="str">
-        <v>https://palegoldenrod-ant-677872.hostingersite.com/nuclear/spider-silk-beads</v>
+        <v>/fellowships_and_scholarships/FellowshipScholarshipInternational</v>
       </c>
       <c r="C47" t="str">
-        <v>https://palegoldenrod-ant-677872.hostingersite.com/nuclear/spider-silk-beads</v>
+        <v>http://localhost:10003/fellowships_and_scholarships/FellowshipScholarshipInternational</v>
       </c>
       <c r="D47" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E47" t="str">
-        <v>https://palegoldenrod-ant-677872.hostingersite.com/nuclear/spider-silk-beads</v>
+        <v>http://localhost:10003/fellowships_and_scholarships/FellowshipScholarshipInternational</v>
       </c>
       <c r="F47" t="b">
         <v>1</v>
       </c>
       <c r="G47" t="str">
-        <v>ok</v>
+        <v>failed</v>
       </c>
       <c r="H47">
-        <v>200</v>
+        <v>502</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="str">
-        <v>B2-C1-T2</v>
+        <v>B2-C2-T6</v>
       </c>
       <c r="B48" t="str">
-        <v>https://palegoldenrod-ant-677872.hostingersite.com/nuclear/brief-history</v>
+        <v>/cil/student-websites-e-porfolios</v>
       </c>
       <c r="C48" t="str">
-        <v>https://palegoldenrod-ant-677872.hostingersite.com/nuclear/brief-history</v>
+        <v>http://localhost:10003/cil/student-websites-e-porfolios</v>
       </c>
       <c r="D48" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E48" t="str">
-        <v>https://palegoldenrod-ant-677872.hostingersite.com/nuclear/brief-history</v>
+        <v>http://localhost:10003/cil/student-websites-e-porfolios</v>
       </c>
       <c r="F48" t="b">
         <v>1</v>
       </c>
       <c r="G48" t="str">
-        <v>ok</v>
+        <v>failed</v>
       </c>
       <c r="H48">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="49" xml:space="preserve">
+        <v>502</v>
+      </c>
+    </row>
+    <row r="49">
       <c r="A49" t="str">
-        <v>B3-C1-T1</v>
+        <v>B2-C1-T3</v>
       </c>
       <c r="B49" t="str">
-        <v>https://palegoldenrod-ant-677872.hostingersite.com/muons/2020-great-day-poster</v>
+        <v>/fellowships_and_scholarships</v>
       </c>
       <c r="C49" t="str">
-        <v>https://palegoldenrod-ant-677872.hostingersite.com/handbook/b</v>
+        <v>http://localhost:10003/fellowships_and_scholarships</v>
       </c>
       <c r="D49" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E49" t="str">
-        <v>https://palegoldenrod-ant-677872.hostingersite.com/muons/2020-great-day-poster</v>
+        <v>http://localhost:10003/fellowships_and_scholarships</v>
       </c>
       <c r="F49" t="b">
         <v>1</v>
@@ -1744,28 +1675,25 @@
       <c r="G49" t="str">
         <v>failed</v>
       </c>
-      <c r="I49" t="str" xml:space="preserve">
-        <v xml:space="preserve">page.goto: Timeout 180000ms exceeded.
-Call log:
-_x001b_[2m  - navigating to "https://palegoldenrod-ant-677872.hostingersite.com/muons/2020-great-day-poster", waiting until "domcontentloaded"_x001b_[22m
-</v>
-      </c>
-    </row>
-    <row r="50" xml:space="preserve">
+      <c r="H49">
+        <v>502</v>
+      </c>
+    </row>
+    <row r="50">
       <c r="A50" t="str">
-        <v>B3-C2-T3</v>
+        <v>B2-C1-T4</v>
       </c>
       <c r="B50" t="str">
-        <v>https://palegoldenrod-ant-677872.hostingersite.com/nuclear/pube-neutron-calibration-geneseo</v>
+        <v>/facilities_planning/design</v>
       </c>
       <c r="C50" t="str">
-        <v>https://palegoldenrod-ant-677872.hostingersite.com/mcnair/opportunities</v>
+        <v>http://localhost:10003/facilities_planning/design</v>
       </c>
       <c r="D50" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E50" t="str">
-        <v>https://palegoldenrod-ant-677872.hostingersite.com/nuclear/pube-neutron-calibration-geneseo</v>
+        <v>http://localhost:10003/facilities_planning/design</v>
       </c>
       <c r="F50" t="b">
         <v>1</v>
@@ -1773,106 +1701,103 @@
       <c r="G50" t="str">
         <v>failed</v>
       </c>
-      <c r="I50" t="str" xml:space="preserve">
-        <v xml:space="preserve">page.goto: Timeout 180000ms exceeded.
-Call log:
-_x001b_[2m  - navigating to "https://palegoldenrod-ant-677872.hostingersite.com/nuclear/pube-neutron-calibration-geneseo", waiting until "domcontentloaded"_x001b_[22m
-</v>
+      <c r="H50">
+        <v>502</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="str">
-        <v>B1-C2-T3</v>
+        <v>B2-C1-T2</v>
       </c>
       <c r="B51" t="str">
-        <v>https://palegoldenrod-ant-677872.hostingersite.com/nuclear/n14n2n</v>
+        <v>/fellowships_and_scholarships/calendar</v>
       </c>
       <c r="C51" t="str">
-        <v>https://palegoldenrod-ant-677872.hostingersite.com/nuclear/n14n2n</v>
+        <v>http://localhost:10003/fellowships_and_scholarships/calendar</v>
       </c>
       <c r="D51" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E51" t="str">
-        <v>https://palegoldenrod-ant-677872.hostingersite.com/nuclear/n14n2n</v>
+        <v>http://localhost:10003/fellowships_and_scholarships/calendar</v>
       </c>
       <c r="F51" t="b">
         <v>1</v>
       </c>
       <c r="G51" t="str">
-        <v>ok</v>
+        <v>failed</v>
       </c>
       <c r="H51">
-        <v>200</v>
+        <v>502</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="str">
-        <v>B2-C1-T1</v>
+        <v>B1-C1-T14</v>
       </c>
       <c r="B52" t="str">
-        <v>https://palegoldenrod-ant-677872.hostingersite.com/nuclear/sem-conclusion</v>
+        <v>/career-design/graduate-school-fair</v>
       </c>
       <c r="C52" t="str">
-        <v>https://palegoldenrod-ant-677872.hostingersite.com/nuclear/sem-conclusion</v>
+        <v>http://localhost:10003/career-design/graduate-school-fair</v>
       </c>
       <c r="D52" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E52" t="str">
-        <v>https://palegoldenrod-ant-677872.hostingersite.com/nuclear/sem-conclusion</v>
+        <v>http://localhost:10003/career-design/graduate-school-fair</v>
       </c>
       <c r="F52" t="b">
         <v>1</v>
       </c>
       <c r="G52" t="str">
-        <v>ok</v>
+        <v>failed</v>
       </c>
       <c r="H52">
-        <v>200</v>
+        <v>502</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="str">
-        <v>B3-C2-T3</v>
+        <v>B1-C2-T20</v>
       </c>
       <c r="B53" t="str">
-        <v>https://palegoldenrod-ant-677872.hostingersite.com/nuclear/carbon-data-2003</v>
+        <v>/orientation/fall-orientation</v>
       </c>
       <c r="C53" t="str">
-        <v>https://palegoldenrod-ant-677872.hostingersite.com/nuclear/carbon-data-2003</v>
+        <v>http://localhost:10003/orientation/fall-orientation</v>
       </c>
       <c r="D53" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E53" t="str">
-        <v>https://palegoldenrod-ant-677872.hostingersite.com/nuclear/carbon-data-2003</v>
+        <v>http://localhost:10003/orientation/fall-orientation</v>
       </c>
       <c r="F53" t="b">
         <v>1</v>
       </c>
       <c r="G53" t="str">
-        <v>ok</v>
+        <v>failed</v>
       </c>
       <c r="H53">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="54" xml:space="preserve">
+        <v>502</v>
+      </c>
+    </row>
+    <row r="54">
       <c r="A54" t="str">
-        <v>B2-C2-T3</v>
+        <v>B1-C1-T15</v>
       </c>
       <c r="B54" t="str">
-        <v>https://palegoldenrod-ant-677872.hostingersite.com/police/blue_lights</v>
+        <v>/career-design/employers</v>
       </c>
       <c r="C54" t="str">
-        <v>https://palegoldenrod-ant-677872.hostingersite.com/nuclear/ca-2000-shot-16158</v>
+        <v>http://localhost:10003/career-design/employers</v>
       </c>
       <c r="D54" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E54" t="str">
-        <v>https://palegoldenrod-ant-677872.hostingersite.com/police/blue_lights</v>
+        <v>http://localhost:10003/career-design/employers</v>
       </c>
       <c r="F54" t="b">
         <v>1</v>
@@ -1880,132 +1805,129 @@
       <c r="G54" t="str">
         <v>failed</v>
       </c>
-      <c r="I54" t="str" xml:space="preserve">
-        <v xml:space="preserve">page.goto: Timeout 180000ms exceeded.
-Call log:
-_x001b_[2m  - navigating to "https://palegoldenrod-ant-677872.hostingersite.com/police/blue_lights", waiting until "domcontentloaded"_x001b_[22m
-</v>
+      <c r="H54">
+        <v>502</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="str">
-        <v>B2-C1-T2</v>
+        <v>B1-C1-T11</v>
       </c>
       <c r="B55" t="str">
-        <v>https://palegoldenrod-ant-677872.hostingersite.com/nuclear/field-view-animation</v>
+        <v>/cil/integrative-interdisciplinary-curriculum</v>
       </c>
       <c r="C55" t="str">
-        <v>https://palegoldenrod-ant-677872.hostingersite.com/nuclear/field-view-animation</v>
+        <v>http://localhost:10003/cil/integrative-interdisciplinary-curriculum</v>
       </c>
       <c r="D55" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E55" t="str">
-        <v>https://palegoldenrod-ant-677872.hostingersite.com/nuclear/field-view-animation</v>
+        <v>http://localhost:10003/cil/integrative-interdisciplinary-curriculum</v>
       </c>
       <c r="F55" t="b">
         <v>1</v>
       </c>
       <c r="G55" t="str">
-        <v>ok</v>
+        <v>failed</v>
       </c>
       <c r="H55">
-        <v>200</v>
+        <v>502</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="str">
-        <v>B2-C1-T1</v>
+        <v>B1-C2-T17</v>
       </c>
       <c r="B56" t="str">
-        <v>https://palegoldenrod-ant-677872.hostingersite.com/sustainability/tiny-house</v>
+        <v>/admissions/out-state-students</v>
       </c>
       <c r="C56" t="str">
-        <v>https://palegoldenrod-ant-677872.hostingersite.com/sustainability/tiny-house</v>
+        <v>http://localhost:10003/admissions/out-state-students</v>
       </c>
       <c r="D56" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E56" t="str">
-        <v>https://palegoldenrod-ant-677872.hostingersite.com/sustainability/tiny-house</v>
+        <v>http://localhost:10003/admissions/out-state-students</v>
       </c>
       <c r="F56" t="b">
         <v>1</v>
       </c>
       <c r="G56" t="str">
-        <v>ok</v>
+        <v>failed</v>
       </c>
       <c r="H56">
-        <v>200</v>
+        <v>502</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="str">
-        <v>B3-C1-T1</v>
+        <v>B1-C1-T12</v>
       </c>
       <c r="B57" t="str">
-        <v>https://palegoldenrod-ant-677872.hostingersite.com/nuclear/1999-run-3</v>
+        <v>/cil/explore-ial-experiences</v>
       </c>
       <c r="C57" t="str">
-        <v>https://palegoldenrod-ant-677872.hostingersite.com/nuclear/1999-run-3</v>
+        <v>http://localhost:10003/cil/explore-ial-experiences</v>
       </c>
       <c r="D57" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E57" t="str">
-        <v>https://palegoldenrod-ant-677872.hostingersite.com/nuclear/1999-run-3</v>
+        <v>http://localhost:10003/cil/explore-ial-experiences</v>
       </c>
       <c r="F57" t="b">
         <v>1</v>
       </c>
       <c r="G57" t="str">
-        <v>ok</v>
+        <v>failed</v>
       </c>
       <c r="H57">
-        <v>200</v>
+        <v>502</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="str">
-        <v>B3-C2-T3</v>
+        <v>B1-C1-T13</v>
       </c>
       <c r="B58" t="str">
-        <v>https://palegoldenrod-ant-677872.hostingersite.com/student_life/adirondack-experience/reflections</v>
+        <v>/cil</v>
       </c>
       <c r="C58" t="str">
-        <v>https://palegoldenrod-ant-677872.hostingersite.com/student_life/adirondack-experience/reflections</v>
+        <v>http://localhost:10003/cil</v>
       </c>
       <c r="D58" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E58" t="str">
-        <v>https://palegoldenrod-ant-677872.hostingersite.com/student_life/adirondack-experience/reflections</v>
+        <v>http://localhost:10003/cil</v>
       </c>
       <c r="F58" t="b">
         <v>1</v>
       </c>
       <c r="G58" t="str">
-        <v>ok</v>
+        <v>failed</v>
       </c>
       <c r="H58">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="59" xml:space="preserve">
+        <v>502</v>
+      </c>
+    </row>
+    <row r="59">
       <c r="A59" t="str">
-        <v>B2-C1-T3</v>
+        <v>B1-C2-T19</v>
       </c>
       <c r="B59" t="str">
-        <v>https://palegoldenrod-ant-677872.hostingersite.com/nuclear/carbon-activation-data-2004</v>
+        <v>/veterans</v>
       </c>
       <c r="C59" t="str">
-        <v>https://palegoldenrod-ant-677872.hostingersite.com/hr/appointment-types</v>
+        <v>http://localhost:10003/veterans</v>
       </c>
       <c r="D59" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E59" t="str">
-        <v>https://palegoldenrod-ant-677872.hostingersite.com/nuclear/carbon-activation-data-2004</v>
+        <v>http://localhost:10003/veterans</v>
       </c>
       <c r="F59" t="b">
         <v>1</v>
@@ -2013,106 +1935,103 @@
       <c r="G59" t="str">
         <v>failed</v>
       </c>
-      <c r="I59" t="str" xml:space="preserve">
-        <v xml:space="preserve">page.goto: Timeout 180000ms exceeded.
-Call log:
-_x001b_[2m  - navigating to "https://palegoldenrod-ant-677872.hostingersite.com/nuclear/carbon-activation-data-2004", waiting until "domcontentloaded"_x001b_[22m
-</v>
+      <c r="H59">
+        <v>502</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="str">
-        <v>B2-C2-T3</v>
+        <v>B1-C2-T18</v>
       </c>
       <c r="B60" t="str">
-        <v>https://palegoldenrod-ant-677872.hostingersite.com/support-groups</v>
+        <v>/soaringstars</v>
       </c>
       <c r="C60" t="str">
-        <v>https://palegoldenrod-ant-677872.hostingersite.com/support-groups</v>
+        <v>http://localhost:10003/soaringstars</v>
       </c>
       <c r="D60" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E60" t="str">
-        <v>https://palegoldenrod-ant-677872.hostingersite.com/support-groups</v>
+        <v>http://localhost:10003/soaringstars</v>
       </c>
       <c r="F60" t="b">
         <v>1</v>
       </c>
       <c r="G60" t="str">
-        <v>ok</v>
+        <v>failed</v>
       </c>
       <c r="H60">
-        <v>200</v>
+        <v>502</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="str">
-        <v>B3-C2-T3</v>
+        <v>B1-C2-T16</v>
       </c>
       <c r="B61" t="str">
-        <v>https://palegoldenrod-ant-677872.hostingersite.com/tlc/notdebate</v>
+        <v>/career_design_center/employers-seeking-interns</v>
       </c>
       <c r="C61" t="str">
-        <v>https://palegoldenrod-ant-677872.hostingersite.com/tlc/notdebate</v>
+        <v>http://localhost:10003/career_design_center/employers-seeking-interns</v>
       </c>
       <c r="D61" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E61" t="str">
-        <v>https://palegoldenrod-ant-677872.hostingersite.com/tlc/notdebate</v>
+        <v>http://localhost:10003/career_design_center/employers-seeking-interns</v>
       </c>
       <c r="F61" t="b">
         <v>1</v>
       </c>
       <c r="G61" t="str">
-        <v>ok</v>
+        <v>failed</v>
       </c>
       <c r="H61">
-        <v>200</v>
+        <v>502</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="str">
-        <v>B2-C2-T3</v>
+        <v>B2-C2-T7</v>
       </c>
       <c r="B62" t="str">
-        <v>https://palegoldenrod-ant-677872.hostingersite.com/tlc/part-time-faculty-development-awards</v>
+        <v>/health/health-services</v>
       </c>
       <c r="C62" t="str">
-        <v>https://palegoldenrod-ant-677872.hostingersite.com/tlc/part-time-faculty-development-awards</v>
+        <v>http://localhost:10003/health/health-services</v>
       </c>
       <c r="D62" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E62" t="str">
-        <v>https://palegoldenrod-ant-677872.hostingersite.com/tlc/part-time-faculty-development-awards</v>
+        <v>http://localhost:10003/health/health-services</v>
       </c>
       <c r="F62" t="b">
         <v>1</v>
       </c>
       <c r="G62" t="str">
-        <v>ok</v>
+        <v>failed</v>
       </c>
       <c r="H62">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="63" xml:space="preserve">
+        <v>502</v>
+      </c>
+    </row>
+    <row r="63">
       <c r="A63" t="str">
-        <v>B2-C2-T2</v>
+        <v>B2-C1-T5</v>
       </c>
       <c r="B63" t="str">
-        <v>https://palegoldenrod-ant-677872.hostingersite.com/nuclear/penelope</v>
+        <v>/hr/policies</v>
       </c>
       <c r="C63" t="str">
-        <v>https://palegoldenrod-ant-677872.hostingersite.com/nuclear/c12n2n-c11-info</v>
+        <v>http://localhost:10003/hr/policies</v>
       </c>
       <c r="D63" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E63" t="str">
-        <v>https://palegoldenrod-ant-677872.hostingersite.com/nuclear/penelope</v>
+        <v>http://localhost:10003/hr/policies</v>
       </c>
       <c r="F63" t="b">
         <v>1</v>
@@ -2120,28 +2039,25 @@
       <c r="G63" t="str">
         <v>failed</v>
       </c>
-      <c r="I63" t="str" xml:space="preserve">
-        <v xml:space="preserve">page.goto: Timeout 180000ms exceeded.
-Call log:
-_x001b_[2m  - navigating to "https://palegoldenrod-ant-677872.hostingersite.com/nuclear/penelope", waiting until "domcontentloaded"_x001b_[22m
-</v>
-      </c>
-    </row>
-    <row r="64" xml:space="preserve">
+      <c r="H63">
+        <v>502</v>
+      </c>
+    </row>
+    <row r="64">
       <c r="A64" t="str">
-        <v>B1-C2-T1</v>
+        <v>B2-C2-T8</v>
       </c>
       <c r="B64" t="str">
-        <v>https://palegoldenrod-ant-677872.hostingersite.com/native_american_studies/programs</v>
+        <v>/health/faq</v>
       </c>
       <c r="C64" t="str">
-        <v>https://palegoldenrod-ant-677872.hostingersite.com/goda/office-hours</v>
+        <v>http://localhost:10003/health/faq</v>
       </c>
       <c r="D64" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E64" t="str">
-        <v>https://palegoldenrod-ant-677872.hostingersite.com/native_american_studies/programs</v>
+        <v>http://localhost:10003/health/faq</v>
       </c>
       <c r="F64" t="b">
         <v>1</v>
@@ -2149,54 +2065,51 @@
       <c r="G64" t="str">
         <v>failed</v>
       </c>
-      <c r="I64" t="str" xml:space="preserve">
-        <v xml:space="preserve">page.goto: Timeout 180000ms exceeded.
-Call log:
-_x001b_[2m  - navigating to "https://palegoldenrod-ant-677872.hostingersite.com/native_american_studies/programs", waiting until "domcontentloaded"_x001b_[22m
-</v>
+      <c r="H64">
+        <v>502</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="str">
-        <v>B3-C2-T1</v>
+        <v>B2-C2-T10</v>
       </c>
       <c r="B65" t="str">
-        <v>https://palegoldenrod-ant-677872.hostingersite.com/nuclear/tail-circularity</v>
+        <v>/eap/eap-events</v>
       </c>
       <c r="C65" t="str">
-        <v>https://palegoldenrod-ant-677872.hostingersite.com/nuclear/tail-circularity</v>
+        <v>http://localhost:10003/eap/eap-events</v>
       </c>
       <c r="D65" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E65" t="str">
-        <v>https://palegoldenrod-ant-677872.hostingersite.com/nuclear/tail-circularity</v>
+        <v>http://localhost:10003/eap/eap-events</v>
       </c>
       <c r="F65" t="b">
         <v>1</v>
       </c>
       <c r="G65" t="str">
-        <v>ok</v>
+        <v>failed</v>
       </c>
       <c r="H65">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="66" xml:space="preserve">
+        <v>502</v>
+      </c>
+    </row>
+    <row r="66">
       <c r="A66" t="str">
-        <v>B1-C2-T2</v>
+        <v>B2-C2-T9</v>
       </c>
       <c r="B66" t="str">
-        <v>https://palegoldenrod-ant-677872.hostingersite.com/nuclear/1999-run-16</v>
+        <v>/health/contact</v>
       </c>
       <c r="C66" t="str">
-        <v>https://palegoldenrod-ant-677872.hostingersite.com/nuclear/comparison-optical-imaging</v>
+        <v>http://localhost:10003/health/contact</v>
       </c>
       <c r="D66" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E66" t="str">
-        <v>https://palegoldenrod-ant-677872.hostingersite.com/nuclear/1999-run-16</v>
+        <v>http://localhost:10003/health/contact</v>
       </c>
       <c r="F66" t="b">
         <v>1</v>
@@ -2204,28 +2117,25 @@
       <c r="G66" t="str">
         <v>failed</v>
       </c>
-      <c r="I66" t="str" xml:space="preserve">
-        <v xml:space="preserve">page.goto: Timeout 180000ms exceeded.
-Call log:
-_x001b_[2m  - navigating to "https://palegoldenrod-ant-677872.hostingersite.com/nuclear/1999-run-16", waiting until "domcontentloaded"_x001b_[22m
-</v>
-      </c>
-    </row>
-    <row r="67" xml:space="preserve">
+      <c r="H66">
+        <v>502</v>
+      </c>
+    </row>
+    <row r="67">
       <c r="A67" t="str">
-        <v>B3-C1-T2</v>
+        <v>B2-C2-T6</v>
       </c>
       <c r="B67" t="str">
-        <v>https://palegoldenrod-ant-677872.hostingersite.com/music/minor-musical-theatre</v>
+        <v>/health/new-student</v>
       </c>
       <c r="C67" t="str">
-        <v>about:blank</v>
+        <v>http://localhost:10003/health/new-student</v>
       </c>
       <c r="D67" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E67" t="str">
-        <v>https://palegoldenrod-ant-677872.hostingersite.com/music/minor-musical-theatre</v>
+        <v>http://localhost:10003/health/new-student</v>
       </c>
       <c r="F67" t="b">
         <v>1</v>
@@ -2233,28 +2143,25 @@
       <c r="G67" t="str">
         <v>failed</v>
       </c>
-      <c r="I67" t="str" xml:space="preserve">
-        <v xml:space="preserve">page.goto: Timeout 180000ms exceeded.
-Call log:
-_x001b_[2m  - navigating to "https://palegoldenrod-ant-677872.hostingersite.com/music/minor-musical-theatre", waiting until "domcontentloaded"_x001b_[22m
-</v>
-      </c>
-    </row>
-    <row r="68" xml:space="preserve">
+      <c r="H67">
+        <v>502</v>
+      </c>
+    </row>
+    <row r="68">
       <c r="A68" t="str">
-        <v>B3-C1-T3</v>
+        <v>B2-C1-T4</v>
       </c>
       <c r="B68" t="str">
-        <v>https://palegoldenrod-ant-677872.hostingersite.com/music/music-minor-requirements-prior-fall-2021</v>
+        <v>/incoming-exchange-students/tuitionandfees</v>
       </c>
       <c r="C68" t="str">
-        <v>about:blank</v>
+        <v>http://localhost:10003/incoming-exchange-students/tuitionandfees</v>
       </c>
       <c r="D68" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E68" t="str">
-        <v>https://palegoldenrod-ant-677872.hostingersite.com/music/music-minor-requirements-prior-fall-2021</v>
+        <v>http://localhost:10003/incoming-exchange-students/tuitionandfees</v>
       </c>
       <c r="F68" t="b">
         <v>1</v>
@@ -2262,80 +2169,77 @@
       <c r="G68" t="str">
         <v>failed</v>
       </c>
-      <c r="I68" t="str" xml:space="preserve">
-        <v xml:space="preserve">page.goto: Timeout 180000ms exceeded.
-Call log:
-_x001b_[2m  - navigating to "https://palegoldenrod-ant-677872.hostingersite.com/music/music-minor-requirements-prior-fall-2021", waiting until "domcontentloaded"_x001b_[22m
-</v>
+      <c r="H68">
+        <v>502</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="str">
-        <v>B2-C2-T2</v>
+        <v>B2-C1-T3</v>
       </c>
       <c r="B69" t="str">
-        <v>https://palegoldenrod-ant-677872.hostingersite.com/peace_poetry/award-ceremony-videos</v>
+        <v>/purchasing/for_businesses</v>
       </c>
       <c r="C69" t="str">
-        <v>https://palegoldenrod-ant-677872.hostingersite.com/peace_poetry/award-ceremony-videos</v>
+        <v>http://localhost:10003/purchasing/for_businesses</v>
       </c>
       <c r="D69" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E69" t="str">
-        <v>https://palegoldenrod-ant-677872.hostingersite.com/peace_poetry/award-ceremony-videos</v>
+        <v>http://localhost:10003/purchasing/for_businesses</v>
       </c>
       <c r="F69" t="b">
         <v>1</v>
       </c>
       <c r="G69" t="str">
-        <v>ok</v>
+        <v>failed</v>
       </c>
       <c r="H69">
-        <v>200</v>
+        <v>502</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="str">
-        <v>B1-C2-T2</v>
+        <v>B2-C1-T1</v>
       </c>
       <c r="B70" t="str">
-        <v>https://palegoldenrod-ant-677872.hostingersite.com/nuclear/ca-2000-shot-16155</v>
+        <v>/residence-life/residence-hall-room-rates</v>
       </c>
       <c r="C70" t="str">
-        <v>https://palegoldenrod-ant-677872.hostingersite.com/nuclear/ca-2000-shot-16155</v>
+        <v>http://localhost:10003/residence-life/residence-hall-room-rates</v>
       </c>
       <c r="D70" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E70" t="str">
-        <v>https://palegoldenrod-ant-677872.hostingersite.com/nuclear/ca-2000-shot-16155</v>
+        <v>http://localhost:10003/residence-life/residence-hall-room-rates</v>
       </c>
       <c r="F70" t="b">
         <v>1</v>
       </c>
       <c r="G70" t="str">
-        <v>ok</v>
+        <v>failed</v>
       </c>
       <c r="H70">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="71" xml:space="preserve">
+        <v>502</v>
+      </c>
+    </row>
+    <row r="71">
       <c r="A71" t="str">
-        <v>B2-C2-T1</v>
+        <v>B2-C1-T2</v>
       </c>
       <c r="B71" t="str">
-        <v>https://palegoldenrod-ant-677872.hostingersite.com/nuclear/ca-2001-chart1</v>
+        <v>/residence-life/move-in</v>
       </c>
       <c r="C71" t="str">
-        <v>https://palegoldenrod-ant-677872.hostingersite.com/nuclear/1578-volts-gain-match-check-using-pube-source</v>
+        <v>http://localhost:10003/residence-life/move-in</v>
       </c>
       <c r="D71" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E71" t="str">
-        <v>https://palegoldenrod-ant-677872.hostingersite.com/nuclear/ca-2001-chart1</v>
+        <v>http://localhost:10003/residence-life/move-in</v>
       </c>
       <c r="F71" t="b">
         <v>1</v>
@@ -2343,28 +2247,25 @@
       <c r="G71" t="str">
         <v>failed</v>
       </c>
-      <c r="I71" t="str" xml:space="preserve">
-        <v xml:space="preserve">page.goto: Timeout 180000ms exceeded.
-Call log:
-_x001b_[2m  - navigating to "https://palegoldenrod-ant-677872.hostingersite.com/nuclear/ca-2001-chart1", waiting until "domcontentloaded"_x001b_[22m
-</v>
-      </c>
-    </row>
-    <row r="72" xml:space="preserve">
+      <c r="H71">
+        <v>502</v>
+      </c>
+    </row>
+    <row r="72">
       <c r="A72" t="str">
-        <v>B3-C2-T2</v>
+        <v>B1-C2-T20</v>
       </c>
       <c r="B72" t="str">
-        <v>https://palegoldenrod-ant-677872.hostingersite.com/student_employment/employer-frequently-asked-questions</v>
+        <v>/financial_aid</v>
       </c>
       <c r="C72" t="str">
-        <v>https://palegoldenrod-ant-677872.hostingersite.com/nuclear/spider-silk-beads</v>
+        <v>http://localhost:10003/financial_aid</v>
       </c>
       <c r="D72" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E72" t="str">
-        <v>https://palegoldenrod-ant-677872.hostingersite.com/student_employment/employer-frequently-asked-questions</v>
+        <v>http://localhost:10003/financial_aid</v>
       </c>
       <c r="F72" t="b">
         <v>1</v>
@@ -2372,28 +2273,25 @@
       <c r="G72" t="str">
         <v>failed</v>
       </c>
-      <c r="I72" t="str" xml:space="preserve">
-        <v xml:space="preserve">page.goto: Timeout 180000ms exceeded.
-Call log:
-_x001b_[2m  - navigating to "https://palegoldenrod-ant-677872.hostingersite.com/student_employment/employer-frequently-asked-questions", waiting until "domcontentloaded"_x001b_[22m
-</v>
-      </c>
-    </row>
-    <row r="73" xml:space="preserve">
+      <c r="H72">
+        <v>502</v>
+      </c>
+    </row>
+    <row r="73">
       <c r="A73" t="str">
-        <v>B1-C2-T3</v>
+        <v>B1-C1-T15</v>
       </c>
       <c r="B73" t="str">
-        <v>https://palegoldenrod-ant-677872.hostingersite.com/newman</v>
+        <v>/student_accounts/student-accounts-billing-information</v>
       </c>
       <c r="C73" t="str">
-        <v>https://palegoldenrod-ant-677872.hostingersite.com/nuclear/n14n2n</v>
+        <v>http://localhost:10003/student_accounts/student-accounts-billing-information</v>
       </c>
       <c r="D73" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E73" t="str">
-        <v>https://palegoldenrod-ant-677872.hostingersite.com/newman</v>
+        <v>http://localhost:10003/student_accounts/student-accounts-billing-information</v>
       </c>
       <c r="F73" t="b">
         <v>1</v>
@@ -2401,54 +2299,51 @@
       <c r="G73" t="str">
         <v>failed</v>
       </c>
-      <c r="I73" t="str" xml:space="preserve">
-        <v xml:space="preserve">page.goto: Timeout 180000ms exceeded.
-Call log:
-_x001b_[2m  - navigating to "https://palegoldenrod-ant-677872.hostingersite.com/newman", waiting until "domcontentloaded"_x001b_[22m
-</v>
+      <c r="H73">
+        <v>502</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="str">
-        <v>B1-C2-T1</v>
+        <v>B1-C1-T14</v>
       </c>
       <c r="B74" t="str">
-        <v>https://palegoldenrod-ant-677872.hostingersite.com/nuclear/carbon-activation-data-2000</v>
+        <v>/career-design/events/calendar</v>
       </c>
       <c r="C74" t="str">
-        <v>https://palegoldenrod-ant-677872.hostingersite.com/nuclear/carbon-activation-data-2000</v>
+        <v>http://localhost:10003/career-design/events/calendar</v>
       </c>
       <c r="D74" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E74" t="str">
-        <v>https://palegoldenrod-ant-677872.hostingersite.com/nuclear/carbon-activation-data-2000</v>
+        <v>http://localhost:10003/career-design/events/calendar</v>
       </c>
       <c r="F74" t="b">
         <v>1</v>
       </c>
       <c r="G74" t="str">
-        <v>ok</v>
+        <v>failed</v>
       </c>
       <c r="H74">
-        <v>200</v>
+        <v>502</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="str">
-        <v>B2-C1-T3</v>
+        <v>B1-C1-T11</v>
       </c>
       <c r="B75" t="str">
-        <v>https://palegoldenrod-ant-677872.hostingersite.com/nuclear/current-sem</v>
+        <v>/conduct/conduct-forms</v>
       </c>
       <c r="C75" t="str">
-        <v>https://palegoldenrod-ant-677872.hostingersite.com/nuclear/current-sem</v>
+        <v>http://localhost:10003/conduct/conduct-forms</v>
       </c>
       <c r="D75" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E75" t="str">
-        <v>https://palegoldenrod-ant-677872.hostingersite.com/nuclear/current-sem</v>
+        <v>http://localhost:10003/conduct/conduct-forms</v>
       </c>
       <c r="F75" t="b">
         <v>1</v>
@@ -2457,27 +2352,24 @@
         <v>failed</v>
       </c>
       <c r="H75">
-        <v>403</v>
-      </c>
-      <c r="I75" t="str">
-        <v>HTTP 403</v>
+        <v>502</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="str">
-        <v>B2-C1-T1</v>
+        <v>B1-C2-T19</v>
       </c>
       <c r="B76" t="str">
-        <v>https://palegoldenrod-ant-677872.hostingersite.com/theatre_dance/theatre-english_information</v>
+        <v>/handbook/f</v>
       </c>
       <c r="C76" t="str">
-        <v>https://palegoldenrod-ant-677872.hostingersite.com/theatre_dance/theatre-english_information</v>
+        <v>http://localhost:10003/handbook/f</v>
       </c>
       <c r="D76" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E76" t="str">
-        <v>https://palegoldenrod-ant-677872.hostingersite.com/theatre_dance/theatre-english_information</v>
+        <v>http://localhost:10003/handbook/f</v>
       </c>
       <c r="F76" t="b">
         <v>1</v>
@@ -2486,27 +2378,24 @@
         <v>failed</v>
       </c>
       <c r="H76">
-        <v>403</v>
-      </c>
-      <c r="I76" t="str">
-        <v>HTTP 403</v>
+        <v>502</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="str">
-        <v>B2-C1-T2</v>
+        <v>B1-C2-T17</v>
       </c>
       <c r="B77" t="str">
-        <v>https://palegoldenrod-ant-677872.hostingersite.com/support/1871-leadership-society</v>
+        <v>/off_campus/student_resources</v>
       </c>
       <c r="C77" t="str">
-        <v>https://palegoldenrod-ant-677872.hostingersite.com/support/1871-leadership-society</v>
+        <v>http://localhost:10003/off_campus/student_resources</v>
       </c>
       <c r="D77" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E77" t="str">
-        <v>https://palegoldenrod-ant-677872.hostingersite.com/support/1871-leadership-society</v>
+        <v>http://localhost:10003/off_campus/student_resources</v>
       </c>
       <c r="F77" t="b">
         <v>1</v>
@@ -2515,27 +2404,24 @@
         <v>failed</v>
       </c>
       <c r="H77">
-        <v>403</v>
-      </c>
-      <c r="I77" t="str">
-        <v>HTTP 403</v>
+        <v>502</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="str">
-        <v>B2-C1-T3</v>
+        <v>B1-C1-T12</v>
       </c>
       <c r="B78" t="str">
-        <v>https://palegoldenrod-ant-677872.hostingersite.com/nuclear/proton-polarimeter-design</v>
+        <v>/cas/vending</v>
       </c>
       <c r="C78" t="str">
-        <v>https://palegoldenrod-ant-677872.hostingersite.com/nuclear/proton-polarimeter-design</v>
+        <v>http://localhost:10003/cas/vending</v>
       </c>
       <c r="D78" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E78" t="str">
-        <v>https://palegoldenrod-ant-677872.hostingersite.com/nuclear/proton-polarimeter-design</v>
+        <v>http://localhost:10003/cas/vending</v>
       </c>
       <c r="F78" t="b">
         <v>1</v>
@@ -2544,27 +2430,24 @@
         <v>failed</v>
       </c>
       <c r="H78">
-        <v>403</v>
-      </c>
-      <c r="I78" t="str">
-        <v>HTTP 403</v>
+        <v>502</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="str">
-        <v>B2-C1-T2</v>
+        <v>B1-C1-T13</v>
       </c>
       <c r="B79" t="str">
-        <v>https://palegoldenrod-ant-677872.hostingersite.com/womens_rugby/archive</v>
+        <v>/cas/restaurant-cafe-hours</v>
       </c>
       <c r="C79" t="str">
-        <v>https://palegoldenrod-ant-677872.hostingersite.com/womens_rugby/archive</v>
+        <v>http://localhost:10003/cas/restaurant-cafe-hours</v>
       </c>
       <c r="D79" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E79" t="str">
-        <v>https://palegoldenrod-ant-677872.hostingersite.com/womens_rugby/archive</v>
+        <v>http://localhost:10003/cas/restaurant-cafe-hours</v>
       </c>
       <c r="F79" t="b">
         <v>1</v>
@@ -2573,27 +2456,24 @@
         <v>failed</v>
       </c>
       <c r="H79">
-        <v>403</v>
-      </c>
-      <c r="I79" t="str">
-        <v>HTTP 403</v>
+        <v>502</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="str">
-        <v>B2-C1-T3</v>
+        <v>B1-C2-T18</v>
       </c>
       <c r="B80" t="str">
-        <v>https://palegoldenrod-ant-677872.hostingersite.com/student_employment/application-process-contact-employer-directly</v>
+        <v>/individualized-studies</v>
       </c>
       <c r="C80" t="str">
-        <v>https://palegoldenrod-ant-677872.hostingersite.com/student_employment/application-process-contact-employer-directly</v>
+        <v>http://localhost:10003/individualized-studies</v>
       </c>
       <c r="D80" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E80" t="str">
-        <v>https://palegoldenrod-ant-677872.hostingersite.com/student_employment/application-process-contact-employer-directly</v>
+        <v>http://localhost:10003/individualized-studies</v>
       </c>
       <c r="F80" t="b">
         <v>1</v>
@@ -2602,27 +2482,24 @@
         <v>failed</v>
       </c>
       <c r="H80">
-        <v>403</v>
-      </c>
-      <c r="I80" t="str">
-        <v>HTTP 403</v>
+        <v>502</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="str">
-        <v>B2-C1-T3</v>
+        <v>B1-C2-T16</v>
       </c>
       <c r="B81" t="str">
-        <v>https://palegoldenrod-ant-677872.hostingersite.com/volunteer_center/teach-america</v>
+        <v>/registrar/academic-calendar</v>
       </c>
       <c r="C81" t="str">
-        <v>https://palegoldenrod-ant-677872.hostingersite.com/volunteer_center/teach-america</v>
+        <v>http://localhost:10003/registrar/academic-calendar</v>
       </c>
       <c r="D81" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E81" t="str">
-        <v>https://palegoldenrod-ant-677872.hostingersite.com/volunteer_center/teach-america</v>
+        <v>http://localhost:10003/registrar/academic-calendar</v>
       </c>
       <c r="F81" t="b">
         <v>1</v>
@@ -2631,53 +2508,50 @@
         <v>failed</v>
       </c>
       <c r="H81">
-        <v>403</v>
-      </c>
-      <c r="I81" t="str">
-        <v>HTTP 403</v>
+        <v>502</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="str">
-        <v>B1-C2-T2</v>
+        <v>B2-C2-T7</v>
       </c>
       <c r="B82" t="str">
-        <v>https://palegoldenrod-ant-677872.hostingersite.com/political_science/news__events</v>
+        <v>/registrar/RegistrationDates</v>
       </c>
       <c r="C82" t="str">
-        <v>https://palegoldenrod-ant-677872.hostingersite.com/political_science/news__events</v>
+        <v>http://localhost:10003/registrar/RegistrationDates</v>
       </c>
       <c r="D82" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E82" t="str">
-        <v>https://palegoldenrod-ant-677872.hostingersite.com/political_science/news__events</v>
+        <v>http://localhost:10003/registrar/RegistrationDates</v>
       </c>
       <c r="F82" t="b">
         <v>1</v>
       </c>
       <c r="G82" t="str">
-        <v>ok</v>
+        <v>failed</v>
       </c>
       <c r="H82">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="83" xml:space="preserve">
+        <v>502</v>
+      </c>
+    </row>
+    <row r="83">
       <c r="A83" t="str">
-        <v>B3-C1-T1</v>
+        <v>B2-C2-T8</v>
       </c>
       <c r="B83" t="str">
-        <v>https://palegoldenrod-ant-677872.hostingersite.com/nuclear/pencyl</v>
+        <v>/registrar/how-register</v>
       </c>
       <c r="C83" t="str">
-        <v>https://palegoldenrod-ant-677872.hostingersite.com/nuclear/1999-run-3</v>
+        <v>http://localhost:10003/registrar/how-register</v>
       </c>
       <c r="D83" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E83" t="str">
-        <v>https://palegoldenrod-ant-677872.hostingersite.com/nuclear/pencyl</v>
+        <v>http://localhost:10003/registrar/how-register</v>
       </c>
       <c r="F83" t="b">
         <v>1</v>
@@ -2685,158 +2559,155 @@
       <c r="G83" t="str">
         <v>failed</v>
       </c>
-      <c r="I83" t="str" xml:space="preserve">
-        <v xml:space="preserve">page.goto: Timeout 180000ms exceeded.
-Call log:
-_x001b_[2m  - navigating to "https://palegoldenrod-ant-677872.hostingersite.com/nuclear/pencyl", waiting until "domcontentloaded"_x001b_[22m
-</v>
+      <c r="H83">
+        <v>502</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="str">
-        <v>B1-C2-T3</v>
+        <v>B2-C2-T10</v>
       </c>
       <c r="B84" t="str">
-        <v>https://palegoldenrod-ant-677872.hostingersite.com/peace_action</v>
+        <v>/registrar/frequently-asked-questions</v>
       </c>
       <c r="C84" t="str">
-        <v>https://palegoldenrod-ant-677872.hostingersite.com/peace_action</v>
+        <v>http://localhost:10003/registrar/frequently-asked-questions</v>
       </c>
       <c r="D84" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E84" t="str">
-        <v>https://palegoldenrod-ant-677872.hostingersite.com/peace_action</v>
+        <v>http://localhost:10003/registrar/frequently-asked-questions</v>
       </c>
       <c r="F84" t="b">
         <v>1</v>
       </c>
       <c r="G84" t="str">
-        <v>ok</v>
+        <v>failed</v>
       </c>
       <c r="H84">
-        <v>200</v>
+        <v>502</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="str">
-        <v>B3-C1-T2</v>
+        <v>B2-C2-T9</v>
       </c>
       <c r="B85" t="str">
-        <v>https://palegoldenrod-ant-677872.hostingersite.com/nuclear/1999-run-6</v>
+        <v>/registrar/graduation</v>
       </c>
       <c r="C85" t="str">
-        <v>https://palegoldenrod-ant-677872.hostingersite.com/nuclear/1999-run-6</v>
+        <v>http://localhost:10003/registrar/graduation</v>
       </c>
       <c r="D85" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E85" t="str">
-        <v>https://palegoldenrod-ant-677872.hostingersite.com/nuclear/1999-run-6</v>
+        <v>http://localhost:10003/registrar/graduation</v>
       </c>
       <c r="F85" t="b">
         <v>1</v>
       </c>
       <c r="G85" t="str">
-        <v>ok</v>
+        <v>failed</v>
       </c>
       <c r="H85">
-        <v>200</v>
+        <v>502</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="str">
-        <v>B3-C2-T2</v>
+        <v>B2-C2-T6</v>
       </c>
       <c r="B86" t="str">
-        <v>https://palegoldenrod-ant-677872.hostingersite.com/urso</v>
+        <v>/residence-life</v>
       </c>
       <c r="C86" t="str">
-        <v>https://palegoldenrod-ant-677872.hostingersite.com/urso</v>
+        <v>http://localhost:10003/residence-life</v>
       </c>
       <c r="D86" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E86" t="str">
-        <v>https://palegoldenrod-ant-677872.hostingersite.com/urso</v>
+        <v>http://localhost:10003/residence-life</v>
       </c>
       <c r="F86" t="b">
         <v>1</v>
       </c>
       <c r="G86" t="str">
-        <v>ok</v>
+        <v>failed</v>
       </c>
       <c r="H86">
-        <v>200</v>
+        <v>502</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="str">
-        <v>B2-C2-T1</v>
+        <v>B2-C1-T5</v>
       </c>
       <c r="B87" t="str">
-        <v>https://palegoldenrod-ant-677872.hostingersite.com/pepband/contact-us</v>
+        <v>/uaa/senior</v>
       </c>
       <c r="C87" t="str">
-        <v>https://palegoldenrod-ant-677872.hostingersite.com/pepband/contact-us</v>
+        <v>http://localhost:10003/uaa/senior</v>
       </c>
       <c r="D87" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E87" t="str">
-        <v>https://palegoldenrod-ant-677872.hostingersite.com/pepband/contact-us</v>
+        <v>http://localhost:10003/uaa/senior</v>
       </c>
       <c r="F87" t="b">
         <v>1</v>
       </c>
       <c r="G87" t="str">
-        <v>ok</v>
+        <v>failed</v>
       </c>
       <c r="H87">
-        <v>200</v>
+        <v>502</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="str">
-        <v>B1-C2-T1</v>
+        <v>B2-C1-T4</v>
       </c>
       <c r="B88" t="str">
-        <v>https://palegoldenrod-ant-677872.hostingersite.com/nuclear/carbon-data-2004</v>
+        <v>/uaa/traditions</v>
       </c>
       <c r="C88" t="str">
-        <v>https://palegoldenrod-ant-677872.hostingersite.com/nuclear/carbon-data-2004</v>
+        <v>http://localhost:10003/uaa/traditions</v>
       </c>
       <c r="D88" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E88" t="str">
-        <v>https://palegoldenrod-ant-677872.hostingersite.com/nuclear/carbon-data-2004</v>
+        <v>http://localhost:10003/uaa/traditions</v>
       </c>
       <c r="F88" t="b">
         <v>1</v>
       </c>
       <c r="G88" t="str">
-        <v>ok</v>
+        <v>failed</v>
       </c>
       <c r="H88">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="89" xml:space="preserve">
+        <v>502</v>
+      </c>
+    </row>
+    <row r="89">
       <c r="A89" t="str">
-        <v>B3-C2-T1</v>
+        <v>B2-C1-T1</v>
       </c>
       <c r="B89" t="str">
-        <v>https://palegoldenrod-ant-677872.hostingersite.com/nuclear/cr-39-hole-size</v>
+        <v>/volunteer_center/student-volunteerism-and-community-engagement-team</v>
       </c>
       <c r="C89" t="str">
-        <v>https://palegoldenrod-ant-677872.hostingersite.com/nuclear/tail-circularity</v>
+        <v>http://localhost:10003/volunteer_center/student-volunteerism-and-community-engagement-team</v>
       </c>
       <c r="D89" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E89" t="str">
-        <v>https://palegoldenrod-ant-677872.hostingersite.com/nuclear/cr-39-hole-size</v>
+        <v>http://localhost:10003/volunteer_center/student-volunteerism-and-community-engagement-team</v>
       </c>
       <c r="F89" t="b">
         <v>1</v>
@@ -2844,54 +2715,51 @@
       <c r="G89" t="str">
         <v>failed</v>
       </c>
-      <c r="I89" t="str" xml:space="preserve">
-        <v xml:space="preserve">page.goto: Timeout 180000ms exceeded.
-Call log:
-_x001b_[2m  - navigating to "https://palegoldenrod-ant-677872.hostingersite.com/nuclear/cr-39-hole-size", waiting until "domcontentloaded"_x001b_[22m
-</v>
+      <c r="H89">
+        <v>502</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="str">
-        <v>B3-C1-T3</v>
+        <v>B2-C1-T3</v>
       </c>
       <c r="B90" t="str">
-        <v>https://palegoldenrod-ant-677872.hostingersite.com/nuclear/1999-run-9</v>
+        <v>/volunteer_center/knights-harvest-pantry</v>
       </c>
       <c r="C90" t="str">
-        <v>https://palegoldenrod-ant-677872.hostingersite.com/nuclear/1999-run-9</v>
+        <v>http://localhost:10003/volunteer_center/knights-harvest-pantry</v>
       </c>
       <c r="D90" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E90" t="str">
-        <v>https://palegoldenrod-ant-677872.hostingersite.com/nuclear/1999-run-9</v>
+        <v>http://localhost:10003/volunteer_center/knights-harvest-pantry</v>
       </c>
       <c r="F90" t="b">
         <v>1</v>
       </c>
       <c r="G90" t="str">
-        <v>ok</v>
+        <v>failed</v>
       </c>
       <c r="H90">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="91" xml:space="preserve">
+        <v>502</v>
+      </c>
+    </row>
+    <row r="91">
       <c r="A91" t="str">
-        <v>B2-C2-T2</v>
+        <v>B2-C1-T2</v>
       </c>
       <c r="B91" t="str">
-        <v>https://palegoldenrod-ant-677872.hostingersite.com/summer-sessions/student-services</v>
+        <v>/volunteer_center/pantry-coordinators</v>
       </c>
       <c r="C91" t="str">
-        <v>https://palegoldenrod-ant-677872.hostingersite.com/peace_poetry/award-ceremony-videos</v>
+        <v>http://localhost:10003/volunteer_center/pantry-coordinators</v>
       </c>
       <c r="D91" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E91" t="str">
-        <v>https://palegoldenrod-ant-677872.hostingersite.com/summer-sessions/student-services</v>
+        <v>http://localhost:10003/volunteer_center/pantry-coordinators</v>
       </c>
       <c r="F91" t="b">
         <v>1</v>
@@ -2899,484 +2767,273 @@
       <c r="G91" t="str">
         <v>failed</v>
       </c>
-      <c r="I91" t="str" xml:space="preserve">
-        <v xml:space="preserve">page.goto: Timeout 180000ms exceeded.
-Call log:
-_x001b_[2m  - navigating to "https://palegoldenrod-ant-677872.hostingersite.com/summer-sessions/student-services", waiting until "domcontentloaded"_x001b_[22m
-</v>
+      <c r="H91">
+        <v>502</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="str">
-        <v>B2-C2-T1</v>
+        <v>B1-C2-T20</v>
       </c>
       <c r="B92" t="str">
-        <v>https://palegoldenrod-ant-677872.hostingersite.com/theatre_dance/dance_ensemble_photographs</v>
+        <v>/residence-life/student-resources-campus</v>
       </c>
       <c r="C92" t="str">
-        <v>https://palegoldenrod-ant-677872.hostingersite.com/theatre_dance/dance_ensemble_photographs</v>
+        <v>http://localhost:10003/residence-life/student-resources-campus</v>
       </c>
       <c r="D92" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E92" t="str">
-        <v>https://palegoldenrod-ant-677872.hostingersite.com/theatre_dance/dance_ensemble_photographs</v>
+        <v>http://localhost:10003/residence-life/student-resources-campus</v>
       </c>
       <c r="F92" t="b">
         <v>1</v>
       </c>
       <c r="G92" t="str">
-        <v>ok</v>
+        <v>failed</v>
       </c>
       <c r="H92">
-        <v>200</v>
+        <v>502</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="str">
-        <v>B3-C1-T3</v>
+        <v>B1-C1-T15</v>
       </c>
       <c r="B93" t="str">
-        <v>https://palegoldenrod-ant-677872.hostingersite.com/nuclear/ca-2001-shot-data-collected</v>
+        <v>/diversity/commitment</v>
       </c>
       <c r="C93" t="str">
-        <v>https://palegoldenrod-ant-677872.hostingersite.com/nuclear/ca-2001-shot-data-collected</v>
+        <v>http://localhost:10003/diversity/commitment</v>
       </c>
       <c r="D93" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E93" t="str">
-        <v>https://palegoldenrod-ant-677872.hostingersite.com/nuclear/ca-2001-shot-data-collected</v>
+        <v>http://localhost:10003/diversity/commitment</v>
       </c>
       <c r="F93" t="b">
         <v>1</v>
       </c>
       <c r="G93" t="str">
-        <v>ok</v>
+        <v>failed</v>
       </c>
       <c r="H93">
-        <v>200</v>
+        <v>502</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="str">
-        <v>B1-C2-T3</v>
+        <v>B1-C1-T14</v>
       </c>
       <c r="B94" t="str">
-        <v>https://palegoldenrod-ant-677872.hostingersite.com/philosophy/minor</v>
+        <v>/gened/faqs</v>
       </c>
       <c r="C94" t="str">
-        <v>https://palegoldenrod-ant-677872.hostingersite.com/philosophy/minor</v>
+        <v>http://localhost:10003/gened/faqs</v>
       </c>
       <c r="D94" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E94" t="str">
-        <v>https://palegoldenrod-ant-677872.hostingersite.com/philosophy/minor</v>
+        <v>http://localhost:10003/gened/faqs</v>
       </c>
       <c r="F94" t="b">
         <v>1</v>
       </c>
       <c r="G94" t="str">
-        <v>ok</v>
+        <v>failed</v>
       </c>
       <c r="H94">
-        <v>200</v>
+        <v>502</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="str">
-        <v>B3-C1-T3</v>
+        <v>B1-C2-T19</v>
       </c>
       <c r="B95" t="str">
-        <v>https://palegoldenrod-ant-677872.hostingersite.com/student_life/student-organization-grant-program</v>
+        <v>/alumni/true-blue-knights</v>
       </c>
       <c r="C95" t="str">
-        <v>https://palegoldenrod-ant-677872.hostingersite.com/student_life/student-organization-grant-program</v>
+        <v>http://localhost:10003/alumni/true-blue-knights</v>
       </c>
       <c r="D95" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E95" t="str">
-        <v>https://palegoldenrod-ant-677872.hostingersite.com/student_life/student-organization-grant-program</v>
+        <v>http://localhost:10003/alumni/true-blue-knights</v>
       </c>
       <c r="F95" t="b">
         <v>1</v>
       </c>
       <c r="G95" t="str">
-        <v>ok</v>
+        <v>failed</v>
       </c>
       <c r="H95">
-        <v>200</v>
+        <v>502</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="str">
-        <v>B1-C2-T2</v>
+        <v>B1-C1-T13</v>
       </c>
       <c r="B96" t="str">
-        <v>https://palegoldenrod-ant-677872.hostingersite.com/support/endowment</v>
+        <v>/greek/hazing</v>
       </c>
       <c r="C96" t="str">
-        <v>https://palegoldenrod-ant-677872.hostingersite.com/support/endowment</v>
+        <v>http://localhost:10003/greek/hazing</v>
       </c>
       <c r="D96" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E96" t="str">
-        <v>https://palegoldenrod-ant-677872.hostingersite.com/support/endowment</v>
+        <v>http://localhost:10003/greek/hazing</v>
       </c>
       <c r="F96" t="b">
         <v>1</v>
       </c>
       <c r="G96" t="str">
-        <v>ok</v>
+        <v>failed</v>
       </c>
       <c r="H96">
-        <v>200</v>
+        <v>502</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" t="str">
-        <v>B2-C2-T2</v>
+        <v>B1-C2-T18</v>
       </c>
       <c r="B97" t="str">
-        <v>https://palegoldenrod-ant-677872.hostingersite.com/tlc/resources-faculty-staff-well-being</v>
+        <v>/career-design/handshake</v>
       </c>
       <c r="C97" t="str">
-        <v>https://palegoldenrod-ant-677872.hostingersite.com/tlc/resources-faculty-staff-well-being</v>
+        <v>http://localhost:10003/career-design/handshake</v>
       </c>
       <c r="D97" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E97" t="str">
-        <v>https://palegoldenrod-ant-677872.hostingersite.com/tlc/resources-faculty-staff-well-being</v>
+        <v>http://localhost:10003/career-design/handshake</v>
       </c>
       <c r="F97" t="b">
         <v>1</v>
       </c>
       <c r="G97" t="str">
-        <v>ok</v>
+        <v>failed</v>
       </c>
       <c r="H97">
-        <v>200</v>
+        <v>502</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" t="str">
-        <v>B1-C2-T1</v>
+        <v>B1-C2-T17</v>
       </c>
       <c r="B98" t="str">
-        <v>https://palegoldenrod-ant-677872.hostingersite.com/political_science/european-systems-track</v>
+        <v>/career-design/handshake-profile-checklist</v>
       </c>
       <c r="C98" t="str">
-        <v>https://palegoldenrod-ant-677872.hostingersite.com/political_science/european-systems-track</v>
+        <v>http://localhost:10003/career-design/handshake-profile-checklist</v>
       </c>
       <c r="D98" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E98" t="str">
-        <v>https://palegoldenrod-ant-677872.hostingersite.com/political_science/european-systems-track</v>
+        <v>http://localhost:10003/career-design/handshake-profile-checklist</v>
       </c>
       <c r="F98" t="b">
         <v>1</v>
       </c>
       <c r="G98" t="str">
-        <v>ok</v>
+        <v>failed</v>
       </c>
       <c r="H98">
-        <v>200</v>
+        <v>502</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" t="str">
-        <v>B3-C2-T1</v>
+        <v>B1-C1-T12</v>
       </c>
       <c r="B99" t="str">
-        <v>https://palegoldenrod-ant-677872.hostingersite.com/student_employment/employer_information</v>
+        <v>/president/suny-geneseo-organizational-structure</v>
       </c>
       <c r="C99" t="str">
-        <v>https://palegoldenrod-ant-677872.hostingersite.com/student_employment/employer_information</v>
+        <v>http://localhost:10003/president/suny-geneseo-organizational-structure</v>
       </c>
       <c r="D99" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E99" t="str">
-        <v>https://palegoldenrod-ant-677872.hostingersite.com/student_employment/employer_information</v>
+        <v>http://localhost:10003/president/suny-geneseo-organizational-structure</v>
       </c>
       <c r="F99" t="b">
         <v>1</v>
       </c>
       <c r="G99" t="str">
-        <v>ok</v>
+        <v>failed</v>
       </c>
       <c r="H99">
-        <v>200</v>
+        <v>502</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" t="str">
-        <v>B1-C2-T1</v>
+        <v>B1-C1-T11</v>
       </c>
       <c r="B100" t="str">
-        <v>https://palegoldenrod-ant-677872.hostingersite.com/study_abroad/hispaniclatin-american-students-abroad</v>
+        <v>/registrar/diplomas</v>
       </c>
       <c r="C100" t="str">
-        <v>https://palegoldenrod-ant-677872.hostingersite.com/study_abroad/hispaniclatin-american-students-abroad</v>
+        <v>http://localhost:10003/registrar/diplomas</v>
       </c>
       <c r="D100" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E100" t="str">
-        <v>https://palegoldenrod-ant-677872.hostingersite.com/study_abroad/hispaniclatin-american-students-abroad</v>
+        <v>http://localhost:10003/registrar/diplomas</v>
       </c>
       <c r="F100" t="b">
         <v>1</v>
       </c>
       <c r="G100" t="str">
-        <v>ok</v>
+        <v>failed</v>
       </c>
       <c r="H100">
-        <v>200</v>
+        <v>502</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" t="str">
-        <v>B3-C2-T1</v>
+        <v>B1-C2-T16</v>
       </c>
       <c r="B101" t="str">
-        <v>https://palegoldenrod-ant-677872.hostingersite.com/tlc/dddfn</v>
+        <v>/cas/menus</v>
       </c>
       <c r="C101" t="str">
-        <v>https://palegoldenrod-ant-677872.hostingersite.com/tlc/dddfn</v>
+        <v>http://localhost:10003/cas/menus</v>
       </c>
       <c r="D101" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E101" t="str">
-        <v>https://palegoldenrod-ant-677872.hostingersite.com/tlc/dddfn</v>
+        <v>http://localhost:10003/cas/menus</v>
       </c>
       <c r="F101" t="b">
         <v>1</v>
       </c>
       <c r="G101" t="str">
-        <v>ok</v>
+        <v>failed</v>
       </c>
       <c r="H101">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="102">
-      <c r="A102" t="str">
-        <v>B3-C1-T2</v>
-      </c>
-      <c r="B102" t="str">
-        <v>https://palegoldenrod-ant-677872.hostingersite.com/off_campus/step-step</v>
-      </c>
-      <c r="C102" t="str">
-        <v>https://palegoldenrod-ant-677872.hostingersite.com/off_campus/step-step</v>
-      </c>
-      <c r="D102" t="b">
-        <v>0</v>
-      </c>
-      <c r="E102" t="str">
-        <v>https://palegoldenrod-ant-677872.hostingersite.com/off_campus/step-step</v>
-      </c>
-      <c r="F102" t="b">
-        <v>1</v>
-      </c>
-      <c r="G102" t="str">
-        <v>ok</v>
-      </c>
-      <c r="H102">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="103">
-      <c r="A103" t="str">
-        <v>B3-C1-T1</v>
-      </c>
-      <c r="B103" t="str">
-        <v>https://palegoldenrod-ant-677872.hostingersite.com/student_life/places-union</v>
-      </c>
-      <c r="C103" t="str">
-        <v>https://palegoldenrod-ant-677872.hostingersite.com/student_life/places-union</v>
-      </c>
-      <c r="D103" t="b">
-        <v>0</v>
-      </c>
-      <c r="E103" t="str">
-        <v>https://palegoldenrod-ant-677872.hostingersite.com/student_life/places-union</v>
-      </c>
-      <c r="F103" t="b">
-        <v>1</v>
-      </c>
-      <c r="G103" t="str">
-        <v>ok</v>
-      </c>
-      <c r="H103">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="104">
-      <c r="A104" t="str">
-        <v>B3-C1-T2</v>
-      </c>
-      <c r="B104" t="str">
-        <v>https://palegoldenrod-ant-677872.hostingersite.com/student_life/student-involvement-fair</v>
-      </c>
-      <c r="C104" t="str">
-        <v>https://palegoldenrod-ant-677872.hostingersite.com/student_life/student-involvement-fair</v>
-      </c>
-      <c r="D104" t="b">
-        <v>0</v>
-      </c>
-      <c r="E104" t="str">
-        <v>https://palegoldenrod-ant-677872.hostingersite.com/student_life/student-involvement-fair</v>
-      </c>
-      <c r="F104" t="b">
-        <v>1</v>
-      </c>
-      <c r="G104" t="str">
-        <v>ok</v>
-      </c>
-      <c r="H104">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="105">
-      <c r="A105" t="str">
-        <v>B2-C2-T1</v>
-      </c>
-      <c r="B105" t="str">
-        <v>https://palegoldenrod-ant-677872.hostingersite.com/wadsworth_auditorium/floor_plan</v>
-      </c>
-      <c r="C105" t="str">
-        <v>https://palegoldenrod-ant-677872.hostingersite.com/wadsworth_auditorium/floor_plan</v>
-      </c>
-      <c r="D105" t="b">
-        <v>0</v>
-      </c>
-      <c r="E105" t="str">
-        <v>https://palegoldenrod-ant-677872.hostingersite.com/wadsworth_auditorium/floor_plan</v>
-      </c>
-      <c r="F105" t="b">
-        <v>1</v>
-      </c>
-      <c r="G105" t="str">
-        <v>ok</v>
-      </c>
-      <c r="H105">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="106">
-      <c r="A106" t="str">
-        <v>B3-C1-T3</v>
-      </c>
-      <c r="B106" t="str">
-        <v>https://palegoldenrod-ant-677872.hostingersite.com/theatre_dance/broomfield-brings-talents-geneseo-through-suny-faculty-diversity-program</v>
-      </c>
-      <c r="C106" t="str">
-        <v>https://palegoldenrod-ant-677872.hostingersite.com/theatre_dance/broomfield-brings-talents-geneseo-through-suny-faculty-diversity-program</v>
-      </c>
-      <c r="D106" t="b">
-        <v>0</v>
-      </c>
-      <c r="E106" t="str">
-        <v>https://palegoldenrod-ant-677872.hostingersite.com/theatre_dance/broomfield-brings-talents-geneseo-through-suny-faculty-diversity-program</v>
-      </c>
-      <c r="F106" t="b">
-        <v>1</v>
-      </c>
-      <c r="G106" t="str">
-        <v>ok</v>
-      </c>
-      <c r="H106">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="107">
-      <c r="A107" t="str">
-        <v>B1-C2-T3</v>
-      </c>
-      <c r="B107" t="str">
-        <v>https://palegoldenrod-ant-677872.hostingersite.com/support/foundation-ethics</v>
-      </c>
-      <c r="C107" t="str">
-        <v>https://palegoldenrod-ant-677872.hostingersite.com/support/foundation-ethics</v>
-      </c>
-      <c r="D107" t="b">
-        <v>0</v>
-      </c>
-      <c r="E107" t="str">
-        <v>https://palegoldenrod-ant-677872.hostingersite.com/support/foundation-ethics</v>
-      </c>
-      <c r="F107" t="b">
-        <v>1</v>
-      </c>
-      <c r="G107" t="str">
-        <v>ok</v>
-      </c>
-      <c r="H107">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="108">
-      <c r="A108" t="str">
-        <v>B3-C1-T2</v>
-      </c>
-      <c r="B108" t="str">
-        <v>https://palegoldenrod-ant-677872.hostingersite.com/theatre_dance/alumni/1980</v>
-      </c>
-      <c r="C108" t="str">
-        <v>https://palegoldenrod-ant-677872.hostingersite.com/theatre_dance/alumni/1980</v>
-      </c>
-      <c r="D108" t="b">
-        <v>0</v>
-      </c>
-      <c r="E108" t="str">
-        <v>https://palegoldenrod-ant-677872.hostingersite.com/theatre_dance/alumni/1980</v>
-      </c>
-      <c r="F108" t="b">
-        <v>1</v>
-      </c>
-      <c r="G108" t="str">
-        <v>ok</v>
-      </c>
-      <c r="H108">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="109">
-      <c r="A109" t="str">
-        <v>B3-C1-T1</v>
-      </c>
-      <c r="B109" t="str">
-        <v>https://palegoldenrod-ant-677872.hostingersite.com/tlc/deliberative_dialogue</v>
-      </c>
-      <c r="C109" t="str">
-        <v>https://palegoldenrod-ant-677872.hostingersite.com/tlc/deliberative_dialogue</v>
-      </c>
-      <c r="D109" t="b">
-        <v>0</v>
-      </c>
-      <c r="E109" t="str">
-        <v>https://palegoldenrod-ant-677872.hostingersite.com/tlc/deliberative_dialogue</v>
-      </c>
-      <c r="F109" t="b">
-        <v>1</v>
-      </c>
-      <c r="G109" t="str">
-        <v>ok</v>
-      </c>
-      <c r="H109">
-        <v>200</v>
+        <v>502</v>
       </c>
     </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:I109"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:I101"/>
   </ignoredErrors>
 </worksheet>
 </file>